--- a/financial_models/Opportunities/0071.HK_Stock_Valuation.xlsx
+++ b/financial_models/Opportunities/0071.HK_Stock_Valuation.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jerry.chen\PycharmProjects\Invest_Proc\financial_models\Opportunities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{0C09BE06-92A6-4E77-B047-3502EC3867F3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{DE573935-2245-4786-B4AB-1A6B0D7E0453}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1900" yWindow="1900" windowWidth="14400" windowHeight="7360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1520" yWindow="1520" windowWidth="14400" windowHeight="7360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Dashboard" sheetId="1" r:id="rId1"/>
@@ -4546,7 +4546,7 @@
         <v>5</v>
       </c>
       <c r="I4" s="32">
-        <v>11.7</v>
+        <v>11.8</v>
       </c>
       <c r="J4" s="33" t="s">
         <v>6</v>
@@ -4596,7 +4596,7 @@
       <c r="H6" s="133"/>
       <c r="I6" s="393">
         <f>I4*I5/1000000</f>
-        <v>8084.2284314999988</v>
+        <v>8153.3244010000008</v>
       </c>
       <c r="J6" s="394"/>
       <c r="K6" s="151"/>
@@ -4638,11 +4638,11 @@
       </c>
       <c r="I9" s="121">
         <f>IF(Data!F3&lt;=0,"NNI",I4/((Data!F3*I12)/(I5/Data!C4)))</f>
-        <v>24.500780194752053</v>
+        <v>24.710188572484981</v>
       </c>
       <c r="J9" s="48">
         <f>IF(I9="NNI","NNI",1/I9)</f>
-        <v>4.0815026788991605E-2</v>
+        <v>4.0469136731457772E-2</v>
       </c>
     </row>
     <row r="10" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -4661,11 +4661,11 @@
       </c>
       <c r="I10" s="138">
         <f>I4/(Data!C28*I12*Data!C4/Common_Shares)</f>
-        <v>0.40336061303392751</v>
+        <v>0.40680813964105517</v>
       </c>
       <c r="J10" s="130">
         <f>IF(Asset_Model!D60/'FCFF Model'!C4&lt;0,"Negative EV",Asset_Model!D60/'FCFF Model'!C4)</f>
-        <v>6.3554913159171695</v>
+        <v>6.5128148544123672</v>
       </c>
     </row>
     <row r="11" spans="1:12" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -4764,14 +4764,14 @@
     <row r="16" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B16" s="131">
         <f>I4</f>
-        <v>11.7</v>
+        <v>11.8</v>
       </c>
       <c r="C16" s="367">
         <v>0.1</v>
       </c>
       <c r="D16" s="159">
         <f ca="1">H14/B16-1-C16</f>
-        <v>-3.3851819401207101E-2</v>
+        <v>-4.2886973474078355E-2</v>
       </c>
       <c r="E16" s="362">
         <f>'FCFF Model'!D11*Exchange_Rate</f>
@@ -4779,7 +4779,7 @@
       </c>
       <c r="F16" s="161">
         <f>E16/B16</f>
-        <v>4.0170940170940174E-2</v>
+        <v>3.9830508474576268E-2</v>
       </c>
       <c r="G16" s="370" t="s">
         <v>25</v>
@@ -4793,7 +4793,7 @@
       </c>
       <c r="J16" s="206">
         <f>B16-$H$16</f>
-        <v>4.081957532269664</v>
+        <v>4.1819575322696654</v>
       </c>
     </row>
     <row r="17" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -10464,7 +10464,7 @@
       <c r="C60" s="6"/>
       <c r="D60" s="440">
         <f>((Dashboard!I6*Data!C4)+D52+E50-C58-C59)</f>
-        <v>2791310.431499999</v>
+        <v>2860406.4010000005</v>
       </c>
       <c r="E60" s="441"/>
       <c r="F60" s="6"/>

--- a/financial_models/Opportunities/0071.HK_Stock_Valuation.xlsx
+++ b/financial_models/Opportunities/0071.HK_Stock_Valuation.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jerry.chen\PycharmProjects\Invest_Proc\financial_models\Opportunities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{DE573935-2245-4786-B4AB-1A6B0D7E0453}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E074514-A00B-45B8-8DA0-BF8F54B27D00}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1520" yWindow="1520" windowWidth="14400" windowHeight="7360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Dashboard" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="401" uniqueCount="338">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="402" uniqueCount="339">
   <si>
     <t>Company Info:</t>
   </si>
@@ -1177,6 +1177,9 @@
   </si>
   <si>
     <t>Debt to CE Ratio</t>
+  </si>
+  <si>
+    <t>Expected Upside</t>
   </si>
 </sst>
 </file>
@@ -2947,7 +2950,7 @@
     <xf numFmtId="43" fontId="26" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="450">
+  <cellXfs count="451">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -3853,66 +3856,71 @@
     <xf numFmtId="4" fontId="7" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="10" fontId="2" fillId="16" borderId="97" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="2" fillId="16" borderId="96" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="169" fontId="1" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="3" fontId="2" fillId="9" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="7" fillId="8" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="171" fontId="1" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="8" fontId="3" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="8" fontId="4" fillId="9" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="8" fontId="4" fillId="9" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="8" fontId="4" fillId="9" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="2" fillId="9" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="7" fillId="8" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="171" fontId="1" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="171" fontId="1" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="6" fontId="3" fillId="0" borderId="45" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="6" fontId="3" fillId="0" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="6" fontId="3" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="6" fontId="3" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="168" fontId="1" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="7" fillId="0" borderId="53" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="7" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="7" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="10" fontId="2" fillId="8" borderId="71" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="2" fillId="8" borderId="72" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="2" fillId="8" borderId="73" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="71" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="72" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="73" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="175" fontId="1" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="170" fontId="1" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="170" fontId="1" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="108" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="2" fillId="9" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="2" fillId="9" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="49" fontId="2" fillId="9" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3939,16 +3947,14 @@
     <xf numFmtId="0" fontId="13" fillId="9" borderId="93" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="9" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="9" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="2" fillId="9" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="2" fillId="9" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="165" fontId="5" fillId="0" borderId="47" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3966,13 +3972,21 @@
     <xf numFmtId="4" fontId="5" fillId="0" borderId="44" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="71" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="72" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="73" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="9" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="9" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -3985,63 +3999,52 @@
     <xf numFmtId="10" fontId="2" fillId="8" borderId="99" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="6" fontId="3" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="1" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="2" fillId="9" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="8" fontId="4" fillId="9" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="171" fontId="1" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="6" fontId="3" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="8" fontId="3" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="7" fillId="8" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="8" fontId="4" fillId="9" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="8" fontId="4" fillId="9" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="2" fillId="9" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="7" fillId="8" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="171" fontId="1" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="171" fontId="1" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="6" fontId="3" fillId="0" borderId="45" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="6" fontId="3" fillId="0" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="10" fontId="2" fillId="16" borderId="97" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="2" fillId="16" borderId="96" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="169" fontId="1" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="1" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="7" fillId="0" borderId="53" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="7" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="7" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="2" fillId="8" borderId="71" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="2" fillId="8" borderId="72" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="2" fillId="8" borderId="73" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="175" fontId="1" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="170" fontId="1" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="170" fontId="1" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="108" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="68" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -4088,6 +4091,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="22" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -4475,8 +4481,8 @@
   </sheetPr>
   <dimension ref="A1:L966"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G27" sqref="G27:H27"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I36" sqref="I36:J36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.453125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -4520,27 +4526,27 @@
       <c r="B3" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="379" t="s">
+      <c r="C3" s="388" t="s">
         <v>313</v>
       </c>
-      <c r="D3" s="380"/>
+      <c r="D3" s="389"/>
       <c r="E3" s="15"/>
       <c r="G3" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="I3" s="389" t="s">
+      <c r="I3" s="400" t="s">
         <v>3</v>
       </c>
-      <c r="J3" s="390"/>
+      <c r="J3" s="401"/>
     </row>
     <row r="4" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B4" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="381" t="s">
+      <c r="C4" s="390" t="s">
         <v>314</v>
       </c>
-      <c r="D4" s="382"/>
+      <c r="D4" s="391"/>
       <c r="E4" s="6"/>
       <c r="G4" s="5" t="s">
         <v>5</v>
@@ -4557,10 +4563,10 @@
       <c r="B5" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="C5" s="383">
+      <c r="C5" s="392">
         <v>44959</v>
       </c>
-      <c r="D5" s="382"/>
+      <c r="D5" s="391"/>
       <c r="E5" s="122" t="str">
         <f ca="1">IF(C5+30&gt;=TODAY(),"Patience Premium","")</f>
         <v/>
@@ -4568,10 +4574,10 @@
       <c r="G5" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="I5" s="391">
+      <c r="I5" s="383">
         <v>690959695</v>
       </c>
-      <c r="J5" s="392"/>
+      <c r="J5" s="384"/>
       <c r="K5" s="151"/>
       <c r="L5" s="85"/>
     </row>
@@ -4594,11 +4600,11 @@
         <v>9</v>
       </c>
       <c r="H6" s="133"/>
-      <c r="I6" s="393">
+      <c r="I6" s="402">
         <f>I4*I5/1000000</f>
         <v>8153.3244010000008</v>
       </c>
-      <c r="J6" s="394"/>
+      <c r="J6" s="403"/>
       <c r="K6" s="151"/>
     </row>
     <row r="7" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -4672,30 +4678,30 @@
       <c r="B11" s="313" t="s">
         <v>273</v>
       </c>
-      <c r="C11" s="403">
+      <c r="C11" s="414">
         <f ca="1">C12-D10</f>
         <v>5.1000000000000004E-2</v>
       </c>
-      <c r="D11" s="404"/>
+      <c r="D11" s="415"/>
       <c r="E11" s="13"/>
       <c r="G11" s="5" t="s">
         <v>15</v>
       </c>
       <c r="H11" s="6"/>
-      <c r="I11" s="401" t="s">
+      <c r="I11" s="412" t="s">
         <v>6</v>
       </c>
-      <c r="J11" s="402"/>
+      <c r="J11" s="413"/>
     </row>
     <row r="12" spans="1:12" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
       <c r="B12" s="314" t="s">
         <v>146</v>
       </c>
-      <c r="C12" s="357">
+      <c r="C12" s="416">
         <f ca="1">IF(C10="US",6%,8%)*IF($C$5+30&gt;=TODAY(),1.2,1)</f>
         <v>0.08</v>
       </c>
-      <c r="D12" s="358"/>
+      <c r="D12" s="417"/>
       <c r="G12" s="134" t="s">
         <v>16</v>
       </c>
@@ -4766,14 +4772,14 @@
         <f>I4</f>
         <v>11.8</v>
       </c>
-      <c r="C16" s="367">
+      <c r="C16" s="423">
         <v>0.1</v>
       </c>
       <c r="D16" s="159">
         <f ca="1">H14/B16-1-C16</f>
         <v>-4.2886973474078355E-2</v>
       </c>
-      <c r="E16" s="362">
+      <c r="E16" s="420">
         <f>'FCFF Model'!D11*Exchange_Rate</f>
         <v>0.47</v>
       </c>
@@ -4781,14 +4787,14 @@
         <f>E16/B16</f>
         <v>3.9830508474576268E-2</v>
       </c>
-      <c r="G16" s="370" t="s">
+      <c r="G16" s="407" t="s">
         <v>25</v>
       </c>
-      <c r="H16" s="395">
+      <c r="H16" s="404">
         <f>('FCFF Model'!G19)*Exchange_Rate</f>
         <v>7.6180424677303353</v>
       </c>
-      <c r="I16" s="370" t="s">
+      <c r="I16" s="407" t="s">
         <v>26</v>
       </c>
       <c r="J16" s="206">
@@ -4801,19 +4807,19 @@
         <f ca="1">H14/(1+C16)</f>
         <v>11.33993973909625</v>
       </c>
-      <c r="C17" s="368"/>
+      <c r="C17" s="424"/>
       <c r="D17" s="289">
         <f ca="1">H14/B17-1-C16</f>
         <v>0</v>
       </c>
-      <c r="E17" s="363"/>
+      <c r="E17" s="421"/>
       <c r="F17" s="162">
         <f ca="1">E16/B17</f>
         <v>4.1446428359720469E-2</v>
       </c>
-      <c r="G17" s="371"/>
-      <c r="H17" s="396"/>
-      <c r="I17" s="371"/>
+      <c r="G17" s="408"/>
+      <c r="H17" s="405"/>
+      <c r="I17" s="408"/>
       <c r="J17" s="205">
         <f ca="1">B17-$H$16</f>
         <v>3.7218972713659149</v>
@@ -4824,19 +4830,19 @@
         <f>C35</f>
         <v>11</v>
       </c>
-      <c r="C18" s="369"/>
+      <c r="C18" s="425"/>
       <c r="D18" s="160">
         <f ca="1">H14/B18-1-C16</f>
         <v>3.3993973909624969E-2</v>
       </c>
-      <c r="E18" s="364"/>
+      <c r="E18" s="422"/>
       <c r="F18" s="163">
         <f>E16/B18</f>
         <v>4.2727272727272725E-2</v>
       </c>
-      <c r="G18" s="372"/>
-      <c r="H18" s="397"/>
-      <c r="I18" s="372"/>
+      <c r="G18" s="409"/>
+      <c r="H18" s="406"/>
+      <c r="I18" s="409"/>
       <c r="J18" s="207">
         <f>B18-$H$16</f>
         <v>3.3819575322696647</v>
@@ -4870,42 +4876,42 @@
       <c r="B21" s="24" t="s">
         <v>28</v>
       </c>
-      <c r="C21" s="386"/>
-      <c r="D21" s="387"/>
-      <c r="E21" s="387"/>
-      <c r="F21" s="387"/>
-      <c r="G21" s="387"/>
-      <c r="H21" s="387"/>
-      <c r="I21" s="387"/>
-      <c r="J21" s="388"/>
+      <c r="C21" s="395"/>
+      <c r="D21" s="396"/>
+      <c r="E21" s="396"/>
+      <c r="F21" s="396"/>
+      <c r="G21" s="396"/>
+      <c r="H21" s="396"/>
+      <c r="I21" s="396"/>
+      <c r="J21" s="397"/>
     </row>
     <row r="22" spans="1:10" ht="52.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="6"/>
       <c r="B22" s="24" t="s">
         <v>29</v>
       </c>
-      <c r="C22" s="399"/>
-      <c r="D22" s="400"/>
-      <c r="E22" s="400"/>
-      <c r="F22" s="400"/>
-      <c r="G22" s="399"/>
-      <c r="H22" s="399"/>
-      <c r="I22" s="400"/>
-      <c r="J22" s="400"/>
+      <c r="C22" s="411"/>
+      <c r="D22" s="362"/>
+      <c r="E22" s="362"/>
+      <c r="F22" s="362"/>
+      <c r="G22" s="411"/>
+      <c r="H22" s="411"/>
+      <c r="I22" s="362"/>
+      <c r="J22" s="362"/>
     </row>
     <row r="23" spans="1:10" ht="52.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="6"/>
       <c r="B23" s="25" t="s">
         <v>30</v>
       </c>
-      <c r="C23" s="365"/>
-      <c r="D23" s="366"/>
-      <c r="E23" s="366"/>
-      <c r="F23" s="366"/>
-      <c r="G23" s="365"/>
-      <c r="H23" s="365"/>
-      <c r="I23" s="366"/>
-      <c r="J23" s="366"/>
+      <c r="C23" s="398"/>
+      <c r="D23" s="399"/>
+      <c r="E23" s="399"/>
+      <c r="F23" s="399"/>
+      <c r="G23" s="398"/>
+      <c r="H23" s="398"/>
+      <c r="I23" s="399"/>
+      <c r="J23" s="399"/>
     </row>
     <row r="24" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B24" s="6"/>
@@ -4949,198 +4955,207 @@
       <c r="B26" s="23" t="s">
         <v>33</v>
       </c>
-      <c r="C26" s="384">
+      <c r="C26" s="393">
         <v>44988</v>
       </c>
-      <c r="D26" s="385"/>
-      <c r="E26" s="376" t="str">
+      <c r="D26" s="394"/>
+      <c r="E26" s="429" t="str">
         <f>IF(C26="","","Action_Planning")</f>
         <v>Action_Planning</v>
       </c>
-      <c r="F26" s="377"/>
-      <c r="G26" s="377"/>
-      <c r="H26" s="378"/>
-      <c r="I26" s="398" t="s">
+      <c r="F26" s="430"/>
+      <c r="G26" s="430"/>
+      <c r="H26" s="431"/>
+      <c r="I26" s="410" t="s">
         <v>34</v>
       </c>
-      <c r="J26" s="398"/>
+      <c r="J26" s="410"/>
     </row>
     <row r="27" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B27" s="23" t="s">
         <v>35</v>
       </c>
-      <c r="C27" s="361">
+      <c r="C27" s="419">
         <f>C31/D25</f>
         <v>5.9499999999999997E-2</v>
       </c>
-      <c r="D27" s="360"/>
-      <c r="E27" s="359">
+      <c r="D27" s="382"/>
+      <c r="E27" s="418">
         <f>E31/D25</f>
         <v>0.16500000000000001</v>
       </c>
-      <c r="F27" s="360"/>
-      <c r="G27" s="374">
+      <c r="F27" s="382"/>
+      <c r="G27" s="427">
         <f>G31/D25</f>
         <v>0</v>
       </c>
-      <c r="H27" s="375"/>
-      <c r="I27" s="373">
+      <c r="H27" s="428"/>
+      <c r="I27" s="426">
         <f>C27+E27+G27</f>
         <v>0.22450000000000001</v>
       </c>
-      <c r="J27" s="373"/>
+      <c r="J27" s="426"/>
     </row>
     <row r="28" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B28" s="23" t="s">
         <v>36</v>
       </c>
-      <c r="C28" s="409">
+      <c r="C28" s="357">
         <v>3000</v>
       </c>
-      <c r="D28" s="400"/>
-      <c r="E28" s="409">
+      <c r="D28" s="362"/>
+      <c r="E28" s="357">
         <v>9000</v>
       </c>
-      <c r="F28" s="400"/>
-      <c r="G28" s="391"/>
-      <c r="H28" s="392"/>
-      <c r="I28" s="408">
+      <c r="F28" s="362"/>
+      <c r="G28" s="383"/>
+      <c r="H28" s="384"/>
+      <c r="I28" s="387">
         <f>C28+E28+G28</f>
         <v>12000</v>
       </c>
-      <c r="J28" s="408"/>
+      <c r="J28" s="387"/>
     </row>
     <row r="29" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B29" s="23" t="s">
         <v>37</v>
       </c>
-      <c r="C29" s="410">
+      <c r="C29" s="361">
         <v>11.9</v>
       </c>
-      <c r="D29" s="400"/>
-      <c r="E29" s="410">
+      <c r="D29" s="362"/>
+      <c r="E29" s="361">
         <v>11</v>
       </c>
-      <c r="F29" s="400"/>
-      <c r="G29" s="420"/>
-      <c r="H29" s="421"/>
-      <c r="I29" s="405"/>
-      <c r="J29" s="405"/>
+      <c r="F29" s="362"/>
+      <c r="G29" s="363"/>
+      <c r="H29" s="364"/>
+      <c r="I29" s="385"/>
+      <c r="J29" s="385"/>
     </row>
     <row r="30" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B30" s="23" t="s">
         <v>38</v>
       </c>
-      <c r="C30" s="411">
+      <c r="C30" s="359">
         <f>C29*$I$5/1000000</f>
         <v>8222.4203705</v>
       </c>
-      <c r="D30" s="412"/>
-      <c r="E30" s="411">
+      <c r="D30" s="369"/>
+      <c r="E30" s="359">
         <f>E29*$I$5/1000000</f>
         <v>7600.5566449999997</v>
       </c>
-      <c r="F30" s="412"/>
-      <c r="G30" s="428">
+      <c r="F30" s="369"/>
+      <c r="G30" s="372">
         <f>G29*$I$5/1000000</f>
         <v>0</v>
       </c>
-      <c r="H30" s="429"/>
-      <c r="I30" s="406"/>
-      <c r="J30" s="406"/>
+      <c r="H30" s="373"/>
+      <c r="I30" s="386"/>
+      <c r="J30" s="386"/>
     </row>
     <row r="31" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B31" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="C31" s="415">
+      <c r="C31" s="378">
         <f>C28*C29</f>
         <v>35700</v>
       </c>
-      <c r="D31" s="416"/>
-      <c r="E31" s="407">
+      <c r="D31" s="379"/>
+      <c r="E31" s="380">
         <f>E28*E29</f>
         <v>99000</v>
       </c>
-      <c r="F31" s="417"/>
-      <c r="G31" s="430">
+      <c r="F31" s="381"/>
+      <c r="G31" s="374">
         <f>G28*G29</f>
         <v>0</v>
       </c>
-      <c r="H31" s="431"/>
-      <c r="I31" s="407">
+      <c r="H31" s="375"/>
+      <c r="I31" s="380">
         <f>C31+E31+G31</f>
         <v>134700</v>
       </c>
-      <c r="J31" s="407"/>
+      <c r="J31" s="380"/>
     </row>
     <row r="32" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B32" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="C32" s="413"/>
-      <c r="D32" s="414"/>
-      <c r="E32" s="418">
+      <c r="C32" s="376"/>
+      <c r="D32" s="377"/>
+      <c r="E32" s="360">
         <f>IF(C31=0,"-",(C31+E31)/(C28+E28))</f>
         <v>11.225</v>
       </c>
-      <c r="F32" s="360"/>
+      <c r="F32" s="382"/>
       <c r="G32" s="117"/>
       <c r="H32" s="117"/>
-      <c r="I32" s="418">
+      <c r="I32" s="360">
         <f>IF(I31=0,"",I31/I28)</f>
         <v>11.225</v>
       </c>
-      <c r="J32" s="418"/>
+      <c r="J32" s="360"/>
     </row>
     <row r="33" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B33" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="C33" s="426"/>
-      <c r="D33" s="427"/>
-      <c r="E33" s="411">
+      <c r="C33" s="370"/>
+      <c r="D33" s="371"/>
+      <c r="E33" s="359">
         <f>IF(E32="-","-",E32*$I$5/1000000)</f>
         <v>7756.0225763750004</v>
       </c>
-      <c r="F33" s="412"/>
+      <c r="F33" s="369"/>
       <c r="G33" s="118"/>
       <c r="H33" s="118"/>
-      <c r="I33" s="411">
+      <c r="I33" s="359">
         <f>IF(I32="","",I32*$I$5/1000000)</f>
         <v>7756.0225763750004</v>
       </c>
-      <c r="J33" s="411"/>
+      <c r="J33" s="359"/>
     </row>
     <row r="34" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="35" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B35" s="146" t="s">
         <v>326</v>
       </c>
-      <c r="C35" s="422">
+      <c r="C35" s="365">
         <f>E29</f>
         <v>11</v>
       </c>
-      <c r="D35" s="423"/>
-      <c r="G35" s="424" t="s">
+      <c r="D35" s="366"/>
+      <c r="G35" s="367" t="s">
         <v>327</v>
       </c>
-      <c r="H35" s="425"/>
-      <c r="I35" s="422">
+      <c r="H35" s="368"/>
+      <c r="I35" s="365">
         <f ca="1">'FCFF Model'!C34*0.9</f>
         <v>13.597424398249455</v>
       </c>
-      <c r="J35" s="423"/>
+      <c r="J35" s="366"/>
     </row>
     <row r="36" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B36" s="146" t="s">
         <v>328</v>
       </c>
-      <c r="C36" s="409">
+      <c r="C36" s="357">
         <f>E28</f>
         <v>9000</v>
       </c>
-      <c r="D36" s="419"/>
+      <c r="D36" s="358"/>
+      <c r="G36" s="450" t="s">
+        <v>338</v>
+      </c>
+      <c r="H36" s="450"/>
+      <c r="I36" s="438">
+        <f ca="1">IF(C26="",0,I35/C29-1)</f>
+        <v>0.14264070573524834</v>
+      </c>
+      <c r="J36" s="439"/>
     </row>
     <row r="37" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="38" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -6073,33 +6088,17 @@
     <row r="965" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="966" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
   </sheetData>
-  <mergeCells count="52">
-    <mergeCell ref="C36:D36"/>
-    <mergeCell ref="I33:J33"/>
-    <mergeCell ref="I32:J32"/>
-    <mergeCell ref="C29:D29"/>
-    <mergeCell ref="G29:H29"/>
-    <mergeCell ref="C35:D35"/>
-    <mergeCell ref="G35:H35"/>
-    <mergeCell ref="I35:J35"/>
-    <mergeCell ref="C30:D30"/>
-    <mergeCell ref="C33:D33"/>
-    <mergeCell ref="E33:F33"/>
-    <mergeCell ref="G30:H30"/>
-    <mergeCell ref="G31:H31"/>
-    <mergeCell ref="C28:D28"/>
-    <mergeCell ref="E29:F29"/>
-    <mergeCell ref="E30:F30"/>
-    <mergeCell ref="E28:F28"/>
-    <mergeCell ref="C32:D32"/>
-    <mergeCell ref="C31:D31"/>
-    <mergeCell ref="E31:F31"/>
-    <mergeCell ref="E32:F32"/>
-    <mergeCell ref="G28:H28"/>
-    <mergeCell ref="I29:J29"/>
-    <mergeCell ref="I30:J30"/>
-    <mergeCell ref="I31:J31"/>
-    <mergeCell ref="I28:J28"/>
+  <mergeCells count="54">
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="E27:F27"/>
+    <mergeCell ref="C27:D27"/>
+    <mergeCell ref="E16:E18"/>
+    <mergeCell ref="G23:J23"/>
+    <mergeCell ref="C16:C18"/>
+    <mergeCell ref="G16:G18"/>
+    <mergeCell ref="I27:J27"/>
+    <mergeCell ref="G27:H27"/>
+    <mergeCell ref="E26:H26"/>
     <mergeCell ref="C3:D3"/>
     <mergeCell ref="C4:D4"/>
     <mergeCell ref="C5:D5"/>
@@ -6116,60 +6115,83 @@
     <mergeCell ref="I11:J11"/>
     <mergeCell ref="C22:F22"/>
     <mergeCell ref="C11:D11"/>
-    <mergeCell ref="C12:D12"/>
-    <mergeCell ref="E27:F27"/>
-    <mergeCell ref="C27:D27"/>
-    <mergeCell ref="E16:E18"/>
-    <mergeCell ref="G23:J23"/>
-    <mergeCell ref="C16:C18"/>
-    <mergeCell ref="G16:G18"/>
-    <mergeCell ref="I27:J27"/>
-    <mergeCell ref="G27:H27"/>
-    <mergeCell ref="E26:H26"/>
+    <mergeCell ref="G28:H28"/>
+    <mergeCell ref="I29:J29"/>
+    <mergeCell ref="I30:J30"/>
+    <mergeCell ref="I31:J31"/>
+    <mergeCell ref="I28:J28"/>
+    <mergeCell ref="C28:D28"/>
+    <mergeCell ref="E29:F29"/>
+    <mergeCell ref="E30:F30"/>
+    <mergeCell ref="E28:F28"/>
+    <mergeCell ref="C32:D32"/>
+    <mergeCell ref="C31:D31"/>
+    <mergeCell ref="E31:F31"/>
+    <mergeCell ref="E32:F32"/>
+    <mergeCell ref="C36:D36"/>
+    <mergeCell ref="I33:J33"/>
+    <mergeCell ref="I32:J32"/>
+    <mergeCell ref="C29:D29"/>
+    <mergeCell ref="G29:H29"/>
+    <mergeCell ref="C35:D35"/>
+    <mergeCell ref="G35:H35"/>
+    <mergeCell ref="I35:J35"/>
+    <mergeCell ref="C30:D30"/>
+    <mergeCell ref="C33:D33"/>
+    <mergeCell ref="E33:F33"/>
+    <mergeCell ref="G30:H30"/>
+    <mergeCell ref="G31:H31"/>
+    <mergeCell ref="G36:H36"/>
+    <mergeCell ref="I36:J36"/>
   </mergeCells>
   <conditionalFormatting sqref="I16">
-    <cfRule type="cellIs" dxfId="17" priority="23" operator="lessThan">
+    <cfRule type="cellIs" dxfId="17" priority="24" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C26:D26 I26 C28:G29 I28:I29">
-    <cfRule type="containsBlanks" priority="17">
+    <cfRule type="containsBlanks" priority="18">
       <formula>LEN(TRIM(C26))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D16 D18">
-    <cfRule type="cellIs" dxfId="16" priority="13" operator="lessThan">
+    <cfRule type="cellIs" dxfId="16" priority="14" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H16">
-    <cfRule type="cellIs" dxfId="15" priority="8" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="15" priority="9" operator="greaterThan">
       <formula>$B$16</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H14">
-    <cfRule type="cellIs" dxfId="14" priority="5" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="14" priority="6" operator="greaterThan">
       <formula>$B$16</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C35:D36">
-    <cfRule type="containsBlanks" priority="4">
+    <cfRule type="containsBlanks" priority="5">
       <formula>LEN(TRIM(C35))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I35:J35">
-    <cfRule type="containsBlanks" priority="3">
+    <cfRule type="containsBlanks" priority="4">
       <formula>LEN(TRIM(I35))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E26">
-    <cfRule type="containsBlanks" priority="2">
+    <cfRule type="containsBlanks" priority="3">
       <formula>LEN(TRIM(E26))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E26:H26">
-    <cfRule type="containsBlanks" dxfId="13" priority="1">
+    <cfRule type="containsBlanks" dxfId="13" priority="2">
       <formula>LEN(TRIM(E26))=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I36:J36">
+    <cfRule type="containsBlanks" priority="1">
+      <formula>LEN(TRIM(I36))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="4">
@@ -10367,7 +10389,7 @@
         <f>SUM(I11:I13)+SUM(I28:I30)</f>
         <v>64114</v>
       </c>
-      <c r="E53" s="416"/>
+      <c r="E53" s="379"/>
       <c r="F53" s="5"/>
       <c r="G53" s="5"/>
       <c r="H53" s="3" t="s">
@@ -10386,7 +10408,7 @@
       <c r="D54" s="442">
         <v>0</v>
       </c>
-      <c r="E54" s="400"/>
+      <c r="E54" s="362"/>
       <c r="F54" s="6" t="s">
         <v>133</v>
       </c>
@@ -10400,7 +10422,7 @@
       <c r="D55" s="442">
         <v>0</v>
       </c>
-      <c r="E55" s="400"/>
+      <c r="E55" s="362"/>
       <c r="F55" s="5" t="s">
         <v>134</v>
       </c>

--- a/financial_models/Opportunities/0071.HK_Stock_Valuation.xlsx
+++ b/financial_models/Opportunities/0071.HK_Stock_Valuation.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jerry.chen\PycharmProjects\Invest_Proc\financial_models\Opportunities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E074514-A00B-45B8-8DA0-BF8F54B27D00}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9FEF813-29BE-4721-A796-403E897DBF7F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Dashboard" sheetId="1" r:id="rId1"/>
@@ -3901,6 +3901,13 @@
     <xf numFmtId="6" fontId="3" fillId="0" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="7" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="7" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="12" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="12" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="6" fontId="3" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -4059,10 +4066,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="10" fontId="7" fillId="8" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="10" fontId="7" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="7" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -4091,9 +4094,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="22" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -4102,17 +4102,7 @@
     <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="18">
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="17">
     <dxf>
       <fill>
         <patternFill patternType="solid">
@@ -4121,30 +4111,12 @@
       </fill>
     </dxf>
     <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
       <fill>
         <patternFill>
-          <bgColor theme="2" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="0" tint="-0.14999847407452621"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="0" tint="-0.14999847407452621"/>
+          <bgColor rgb="FFC6EFCE"/>
         </patternFill>
       </fill>
     </dxf>
@@ -4170,22 +4142,25 @@
       </fill>
     </dxf>
     <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
       <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
+        <patternFill>
+          <bgColor theme="2" tint="-0.14996795556505021"/>
         </patternFill>
       </fill>
-      <border>
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-        <vertical/>
-        <horizontal/>
-      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="0" tint="-0.14999847407452621"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="0" tint="-0.14999847407452621"/>
+        </patternFill>
+      </fill>
     </dxf>
     <dxf>
       <fill>
@@ -4212,9 +4187,28 @@
       </fill>
     </dxf>
     <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
       <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-0.14996795556505021"/>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFDD7E6B"/>
+          <bgColor rgb="FFDD7E6B"/>
         </patternFill>
       </fill>
     </dxf>
@@ -4239,20 +4233,19 @@
       </fill>
     </dxf>
     <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="2" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <font>
         <color rgb="FF9C0006"/>
       </font>
       <fill>
         <patternFill>
           <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFDD7E6B"/>
-          <bgColor rgb="FFDD7E6B"/>
         </patternFill>
       </fill>
     </dxf>
@@ -4481,7 +4474,7 @@
   </sheetPr>
   <dimension ref="A1:L966"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="I36" sqref="I36:J36"/>
     </sheetView>
   </sheetViews>
@@ -4526,27 +4519,27 @@
       <c r="B3" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="388" t="s">
+      <c r="C3" s="391" t="s">
         <v>313</v>
       </c>
-      <c r="D3" s="389"/>
+      <c r="D3" s="392"/>
       <c r="E3" s="15"/>
       <c r="G3" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="I3" s="400" t="s">
+      <c r="I3" s="403" t="s">
         <v>3</v>
       </c>
-      <c r="J3" s="401"/>
+      <c r="J3" s="404"/>
     </row>
     <row r="4" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B4" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="390" t="s">
+      <c r="C4" s="393" t="s">
         <v>314</v>
       </c>
-      <c r="D4" s="391"/>
+      <c r="D4" s="394"/>
       <c r="E4" s="6"/>
       <c r="G4" s="5" t="s">
         <v>5</v>
@@ -4563,10 +4556,10 @@
       <c r="B5" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="C5" s="392">
+      <c r="C5" s="395">
         <v>44959</v>
       </c>
-      <c r="D5" s="391"/>
+      <c r="D5" s="394"/>
       <c r="E5" s="122" t="str">
         <f ca="1">IF(C5+30&gt;=TODAY(),"Patience Premium","")</f>
         <v/>
@@ -4574,10 +4567,10 @@
       <c r="G5" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="I5" s="383">
+      <c r="I5" s="386">
         <v>690959695</v>
       </c>
-      <c r="J5" s="384"/>
+      <c r="J5" s="387"/>
       <c r="K5" s="151"/>
       <c r="L5" s="85"/>
     </row>
@@ -4600,11 +4593,11 @@
         <v>9</v>
       </c>
       <c r="H6" s="133"/>
-      <c r="I6" s="402">
+      <c r="I6" s="405">
         <f>I4*I5/1000000</f>
         <v>8153.3244010000008</v>
       </c>
-      <c r="J6" s="403"/>
+      <c r="J6" s="406"/>
       <c r="K6" s="151"/>
     </row>
     <row r="7" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -4678,30 +4671,30 @@
       <c r="B11" s="313" t="s">
         <v>273</v>
       </c>
-      <c r="C11" s="414">
+      <c r="C11" s="417">
         <f ca="1">C12-D10</f>
         <v>5.1000000000000004E-2</v>
       </c>
-      <c r="D11" s="415"/>
+      <c r="D11" s="418"/>
       <c r="E11" s="13"/>
       <c r="G11" s="5" t="s">
         <v>15</v>
       </c>
       <c r="H11" s="6"/>
-      <c r="I11" s="412" t="s">
+      <c r="I11" s="415" t="s">
         <v>6</v>
       </c>
-      <c r="J11" s="413"/>
+      <c r="J11" s="416"/>
     </row>
     <row r="12" spans="1:12" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
       <c r="B12" s="314" t="s">
         <v>146</v>
       </c>
-      <c r="C12" s="416">
+      <c r="C12" s="419">
         <f ca="1">IF(C10="US",6%,8%)*IF($C$5+30&gt;=TODAY(),1.2,1)</f>
         <v>0.08</v>
       </c>
-      <c r="D12" s="417"/>
+      <c r="D12" s="420"/>
       <c r="G12" s="134" t="s">
         <v>16</v>
       </c>
@@ -4772,14 +4765,14 @@
         <f>I4</f>
         <v>11.8</v>
       </c>
-      <c r="C16" s="423">
+      <c r="C16" s="426">
         <v>0.1</v>
       </c>
       <c r="D16" s="159">
         <f ca="1">H14/B16-1-C16</f>
         <v>-4.2886973474078355E-2</v>
       </c>
-      <c r="E16" s="420">
+      <c r="E16" s="423">
         <f>'FCFF Model'!D11*Exchange_Rate</f>
         <v>0.47</v>
       </c>
@@ -4787,14 +4780,14 @@
         <f>E16/B16</f>
         <v>3.9830508474576268E-2</v>
       </c>
-      <c r="G16" s="407" t="s">
+      <c r="G16" s="410" t="s">
         <v>25</v>
       </c>
-      <c r="H16" s="404">
+      <c r="H16" s="407">
         <f>('FCFF Model'!G19)*Exchange_Rate</f>
         <v>7.6180424677303353</v>
       </c>
-      <c r="I16" s="407" t="s">
+      <c r="I16" s="410" t="s">
         <v>26</v>
       </c>
       <c r="J16" s="206">
@@ -4807,19 +4800,19 @@
         <f ca="1">H14/(1+C16)</f>
         <v>11.33993973909625</v>
       </c>
-      <c r="C17" s="424"/>
+      <c r="C17" s="427"/>
       <c r="D17" s="289">
         <f ca="1">H14/B17-1-C16</f>
         <v>0</v>
       </c>
-      <c r="E17" s="421"/>
+      <c r="E17" s="424"/>
       <c r="F17" s="162">
         <f ca="1">E16/B17</f>
         <v>4.1446428359720469E-2</v>
       </c>
-      <c r="G17" s="408"/>
-      <c r="H17" s="405"/>
-      <c r="I17" s="408"/>
+      <c r="G17" s="411"/>
+      <c r="H17" s="408"/>
+      <c r="I17" s="411"/>
       <c r="J17" s="205">
         <f ca="1">B17-$H$16</f>
         <v>3.7218972713659149</v>
@@ -4830,19 +4823,19 @@
         <f>C35</f>
         <v>11</v>
       </c>
-      <c r="C18" s="425"/>
+      <c r="C18" s="428"/>
       <c r="D18" s="160">
         <f ca="1">H14/B18-1-C16</f>
         <v>3.3993973909624969E-2</v>
       </c>
-      <c r="E18" s="422"/>
+      <c r="E18" s="425"/>
       <c r="F18" s="163">
         <f>E16/B18</f>
         <v>4.2727272727272725E-2</v>
       </c>
-      <c r="G18" s="409"/>
-      <c r="H18" s="406"/>
-      <c r="I18" s="409"/>
+      <c r="G18" s="412"/>
+      <c r="H18" s="409"/>
+      <c r="I18" s="412"/>
       <c r="J18" s="207">
         <f>B18-$H$16</f>
         <v>3.3819575322696647</v>
@@ -4876,26 +4869,26 @@
       <c r="B21" s="24" t="s">
         <v>28</v>
       </c>
-      <c r="C21" s="395"/>
-      <c r="D21" s="396"/>
-      <c r="E21" s="396"/>
-      <c r="F21" s="396"/>
-      <c r="G21" s="396"/>
-      <c r="H21" s="396"/>
-      <c r="I21" s="396"/>
-      <c r="J21" s="397"/>
+      <c r="C21" s="398"/>
+      <c r="D21" s="399"/>
+      <c r="E21" s="399"/>
+      <c r="F21" s="399"/>
+      <c r="G21" s="399"/>
+      <c r="H21" s="399"/>
+      <c r="I21" s="399"/>
+      <c r="J21" s="400"/>
     </row>
     <row r="22" spans="1:10" ht="52.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="6"/>
       <c r="B22" s="24" t="s">
         <v>29</v>
       </c>
-      <c r="C22" s="411"/>
+      <c r="C22" s="414"/>
       <c r="D22" s="362"/>
       <c r="E22" s="362"/>
       <c r="F22" s="362"/>
-      <c r="G22" s="411"/>
-      <c r="H22" s="411"/>
+      <c r="G22" s="414"/>
+      <c r="H22" s="414"/>
       <c r="I22" s="362"/>
       <c r="J22" s="362"/>
     </row>
@@ -4904,14 +4897,14 @@
       <c r="B23" s="25" t="s">
         <v>30</v>
       </c>
-      <c r="C23" s="398"/>
-      <c r="D23" s="399"/>
-      <c r="E23" s="399"/>
-      <c r="F23" s="399"/>
-      <c r="G23" s="398"/>
-      <c r="H23" s="398"/>
-      <c r="I23" s="399"/>
-      <c r="J23" s="399"/>
+      <c r="C23" s="401"/>
+      <c r="D23" s="402"/>
+      <c r="E23" s="402"/>
+      <c r="F23" s="402"/>
+      <c r="G23" s="401"/>
+      <c r="H23" s="401"/>
+      <c r="I23" s="402"/>
+      <c r="J23" s="402"/>
     </row>
     <row r="24" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B24" s="6"/>
@@ -4955,46 +4948,46 @@
       <c r="B26" s="23" t="s">
         <v>33</v>
       </c>
-      <c r="C26" s="393">
+      <c r="C26" s="396">
         <v>44988</v>
       </c>
-      <c r="D26" s="394"/>
-      <c r="E26" s="429" t="str">
+      <c r="D26" s="397"/>
+      <c r="E26" s="432" t="str">
         <f>IF(C26="","","Action_Planning")</f>
         <v>Action_Planning</v>
       </c>
-      <c r="F26" s="430"/>
-      <c r="G26" s="430"/>
-      <c r="H26" s="431"/>
-      <c r="I26" s="410" t="s">
+      <c r="F26" s="433"/>
+      <c r="G26" s="433"/>
+      <c r="H26" s="434"/>
+      <c r="I26" s="413" t="s">
         <v>34</v>
       </c>
-      <c r="J26" s="410"/>
+      <c r="J26" s="413"/>
     </row>
     <row r="27" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B27" s="23" t="s">
         <v>35</v>
       </c>
-      <c r="C27" s="419">
+      <c r="C27" s="422">
         <f>C31/D25</f>
         <v>5.9499999999999997E-2</v>
       </c>
-      <c r="D27" s="382"/>
-      <c r="E27" s="418">
+      <c r="D27" s="385"/>
+      <c r="E27" s="421">
         <f>E31/D25</f>
         <v>0.16500000000000001</v>
       </c>
-      <c r="F27" s="382"/>
-      <c r="G27" s="427">
+      <c r="F27" s="385"/>
+      <c r="G27" s="430">
         <f>G31/D25</f>
         <v>0</v>
       </c>
-      <c r="H27" s="428"/>
-      <c r="I27" s="426">
+      <c r="H27" s="431"/>
+      <c r="I27" s="429">
         <f>C27+E27+G27</f>
         <v>0.22450000000000001</v>
       </c>
-      <c r="J27" s="426"/>
+      <c r="J27" s="429"/>
     </row>
     <row r="28" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B28" s="23" t="s">
@@ -5008,13 +5001,13 @@
         <v>9000</v>
       </c>
       <c r="F28" s="362"/>
-      <c r="G28" s="383"/>
-      <c r="H28" s="384"/>
-      <c r="I28" s="387">
+      <c r="G28" s="386"/>
+      <c r="H28" s="387"/>
+      <c r="I28" s="390">
         <f>C28+E28+G28</f>
         <v>12000</v>
       </c>
-      <c r="J28" s="387"/>
+      <c r="J28" s="390"/>
     </row>
     <row r="29" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B29" s="23" t="s">
@@ -5030,8 +5023,8 @@
       <c r="F29" s="362"/>
       <c r="G29" s="363"/>
       <c r="H29" s="364"/>
-      <c r="I29" s="385"/>
-      <c r="J29" s="385"/>
+      <c r="I29" s="388"/>
+      <c r="J29" s="388"/>
     </row>
     <row r="30" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B30" s="23" t="s">
@@ -5052,45 +5045,45 @@
         <v>0</v>
       </c>
       <c r="H30" s="373"/>
-      <c r="I30" s="386"/>
-      <c r="J30" s="386"/>
+      <c r="I30" s="389"/>
+      <c r="J30" s="389"/>
     </row>
     <row r="31" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B31" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="C31" s="378">
+      <c r="C31" s="381">
         <f>C28*C29</f>
         <v>35700</v>
       </c>
-      <c r="D31" s="379"/>
-      <c r="E31" s="380">
+      <c r="D31" s="382"/>
+      <c r="E31" s="383">
         <f>E28*E29</f>
         <v>99000</v>
       </c>
-      <c r="F31" s="381"/>
+      <c r="F31" s="384"/>
       <c r="G31" s="374">
         <f>G28*G29</f>
         <v>0</v>
       </c>
       <c r="H31" s="375"/>
-      <c r="I31" s="380">
+      <c r="I31" s="383">
         <f>C31+E31+G31</f>
         <v>134700</v>
       </c>
-      <c r="J31" s="380"/>
+      <c r="J31" s="383"/>
     </row>
     <row r="32" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B32" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="C32" s="376"/>
-      <c r="D32" s="377"/>
+      <c r="C32" s="379"/>
+      <c r="D32" s="380"/>
       <c r="E32" s="360">
         <f>IF(C31=0,"-",(C31+E31)/(C28+E28))</f>
         <v>11.225</v>
       </c>
-      <c r="F32" s="382"/>
+      <c r="F32" s="385"/>
       <c r="G32" s="117"/>
       <c r="H32" s="117"/>
       <c r="I32" s="360">
@@ -5147,15 +5140,15 @@
         <v>9000</v>
       </c>
       <c r="D36" s="358"/>
-      <c r="G36" s="450" t="s">
+      <c r="G36" s="376" t="s">
         <v>338</v>
       </c>
-      <c r="H36" s="450"/>
-      <c r="I36" s="438">
+      <c r="H36" s="376"/>
+      <c r="I36" s="377">
         <f ca="1">IF(C26="",0,I35/C29-1)</f>
         <v>0.14264070573524834</v>
       </c>
-      <c r="J36" s="439"/>
+      <c r="J36" s="378"/>
     </row>
     <row r="37" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="38" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -6144,12 +6137,17 @@
     <mergeCell ref="G36:H36"/>
     <mergeCell ref="I36:J36"/>
   </mergeCells>
-  <conditionalFormatting sqref="I16">
-    <cfRule type="cellIs" dxfId="17" priority="24" operator="lessThan">
-      <formula>0</formula>
+  <conditionalFormatting sqref="C35:D36">
+    <cfRule type="containsBlanks" priority="5">
+      <formula>LEN(TRIM(C35))=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C26:D26 I26 C28:G29 I28:I29">
+  <conditionalFormatting sqref="C26:E26">
+    <cfRule type="containsBlanks" priority="3">
+      <formula>LEN(TRIM(C26))=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C28:G29 I26 I28:I29">
     <cfRule type="containsBlanks" priority="18">
       <formula>LEN(TRIM(C26))=0</formula>
     </cfRule>
@@ -6159,9 +6157,9 @@
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H16">
-    <cfRule type="cellIs" dxfId="15" priority="9" operator="greaterThan">
-      <formula>$B$16</formula>
+  <conditionalFormatting sqref="E26:H26">
+    <cfRule type="containsBlanks" dxfId="15" priority="2">
+      <formula>LEN(TRIM(E26))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H14">
@@ -6169,29 +6167,19 @@
       <formula>$B$16</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C35:D36">
-    <cfRule type="containsBlanks" priority="5">
-      <formula>LEN(TRIM(C35))=0</formula>
+  <conditionalFormatting sqref="H16">
+    <cfRule type="cellIs" dxfId="13" priority="9" operator="greaterThan">
+      <formula>$B$16</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I35:J35">
-    <cfRule type="containsBlanks" priority="4">
-      <formula>LEN(TRIM(I35))=0</formula>
+  <conditionalFormatting sqref="I16">
+    <cfRule type="cellIs" dxfId="12" priority="24" operator="lessThan">
+      <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E26">
-    <cfRule type="containsBlanks" priority="3">
-      <formula>LEN(TRIM(E26))=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E26:H26">
-    <cfRule type="containsBlanks" dxfId="13" priority="2">
-      <formula>LEN(TRIM(E26))=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I36:J36">
+  <conditionalFormatting sqref="I35:J36">
     <cfRule type="containsBlanks" priority="1">
-      <formula>LEN(TRIM(I36))=0</formula>
+      <formula>LEN(TRIM(I35))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="4">
@@ -9315,24 +9303,24 @@
     <row r="940" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="941" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
   </sheetData>
-  <conditionalFormatting sqref="D42:M46 C7:M35">
-    <cfRule type="containsBlanks" dxfId="12" priority="3">
+  <conditionalFormatting sqref="B51:M52">
+    <cfRule type="expression" dxfId="11" priority="1">
+      <formula>$C$49="No"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C7:M35 D42:M46">
+    <cfRule type="containsBlanks" dxfId="10" priority="3">
       <formula>LEN(TRIM(C7))=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D17:M18">
-    <cfRule type="containsBlanks" dxfId="11" priority="4">
-      <formula>LEN(TRIM(D17))=0</formula>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="C37:M40">
-    <cfRule type="containsBlanks" dxfId="10" priority="5">
+    <cfRule type="containsBlanks" dxfId="9" priority="5">
       <formula>LEN(TRIM(C37))=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B51:M52">
-    <cfRule type="expression" dxfId="9" priority="1">
-      <formula>$C$49="No"</formula>
+  <conditionalFormatting sqref="D17:M18">
+    <cfRule type="containsBlanks" dxfId="8" priority="4">
+      <formula>LEN(TRIM(D17))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="4">
@@ -9361,7 +9349,7 @@
   <dimension ref="A2:K65"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="H53" sqref="H53"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.453125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -9475,7 +9463,7 @@
         <v>85</v>
       </c>
       <c r="D7" s="61">
-        <f>MAX((D6*Dashboard!I12*Data!C4)/Dashboard!I5, 0)</f>
+        <f>MAX(((D6+MIN('FCFF Model'!D4,0))*Dashboard!I12*Data!C4)/Dashboard!I5, 0)</f>
         <v>15.108249331388283</v>
       </c>
       <c r="E7" s="49" t="str">
@@ -10372,11 +10360,11 @@
         <v>262</v>
       </c>
       <c r="C52" s="5"/>
-      <c r="D52" s="432">
+      <c r="D52" s="435">
         <f>D53+D54+D55</f>
         <v>64114</v>
       </c>
-      <c r="E52" s="433"/>
+      <c r="E52" s="436"/>
       <c r="F52" s="53"/>
       <c r="G52" s="53"/>
     </row>
@@ -10385,11 +10373,11 @@
         <v>232</v>
       </c>
       <c r="C53" s="6"/>
-      <c r="D53" s="435">
+      <c r="D53" s="438">
         <f>SUM(I11:I13)+SUM(I28:I30)</f>
         <v>64114</v>
       </c>
-      <c r="E53" s="379"/>
+      <c r="E53" s="382"/>
       <c r="F53" s="5"/>
       <c r="G53" s="5"/>
       <c r="H53" s="3" t="s">
@@ -10405,7 +10393,7 @@
         <v>132</v>
       </c>
       <c r="C54" s="6"/>
-      <c r="D54" s="442">
+      <c r="D54" s="443">
         <v>0</v>
       </c>
       <c r="E54" s="362"/>
@@ -10419,7 +10407,7 @@
         <v>131</v>
       </c>
       <c r="C55" s="6"/>
-      <c r="D55" s="442">
+      <c r="D55" s="443">
         <v>0</v>
       </c>
       <c r="E55" s="362"/>
@@ -10437,8 +10425,8 @@
         <v>135</v>
       </c>
       <c r="C57" s="5"/>
-      <c r="D57" s="434"/>
-      <c r="E57" s="434"/>
+      <c r="D57" s="437"/>
+      <c r="E57" s="437"/>
       <c r="F57" s="19"/>
       <c r="G57" s="19"/>
     </row>
@@ -10484,11 +10472,11 @@
         <v>136</v>
       </c>
       <c r="C60" s="6"/>
-      <c r="D60" s="440">
+      <c r="D60" s="441">
         <f>((Dashboard!I6*Data!C4)+D52+E50-C58-C59)</f>
         <v>2860406.4010000005</v>
       </c>
-      <c r="E60" s="441"/>
+      <c r="E60" s="442"/>
       <c r="F60" s="6"/>
       <c r="G60" s="6"/>
     </row>
@@ -10505,20 +10493,20 @@
       <c r="B63" s="3" t="s">
         <v>264</v>
       </c>
-      <c r="D63" s="438">
+      <c r="D63" s="377">
         <f>((C26-C11-C12-C14-C15-C16*G16-C19*G19-C20*G20)-I26)/Data!C7</f>
         <v>-0.33519135542591366</v>
       </c>
-      <c r="E63" s="439"/>
+      <c r="E63" s="378"/>
     </row>
     <row r="64" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B64" s="3" t="s">
         <v>263</v>
       </c>
-      <c r="D64" s="436">
+      <c r="D64" s="439">
         <v>7.51E-2</v>
       </c>
-      <c r="E64" s="437"/>
+      <c r="E64" s="440"/>
       <c r="F64" s="266" t="s">
         <v>248</v>
       </c>
@@ -10527,11 +10515,11 @@
       <c r="B65" s="292" t="s">
         <v>265</v>
       </c>
-      <c r="D65" s="436">
+      <c r="D65" s="439">
         <f>D64</f>
         <v>7.51E-2</v>
       </c>
-      <c r="E65" s="437"/>
+      <c r="E65" s="440"/>
     </row>
   </sheetData>
   <mergeCells count="9">
@@ -12043,48 +12031,42 @@
     <row r="907" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="908" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
   </sheetData>
-  <conditionalFormatting sqref="I17 I19:I22 G20:H22 H19 H10:I10 I15 G15:H18">
-    <cfRule type="containsBlanks" dxfId="8" priority="10">
-      <formula>LEN(TRIM(G10))=0</formula>
-    </cfRule>
-    <cfRule type="containsBlanks" priority="11">
-      <formula>LEN(TRIM(G10))=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I10 I18 I16">
-    <cfRule type="containsBlanks" dxfId="7" priority="8">
-      <formula>LEN(TRIM(I10))=0</formula>
-    </cfRule>
-    <cfRule type="containsBlanks" priority="9">
-      <formula>LEN(TRIM(I10))=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J10 J15:J22">
-    <cfRule type="containsBlanks" dxfId="6" priority="6">
-      <formula>LEN(TRIM(J10))=0</formula>
-    </cfRule>
-    <cfRule type="containsBlanks" priority="7">
-      <formula>LEN(TRIM(J10))=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E23 G25 I25 E25">
-    <cfRule type="containsBlanks" dxfId="5" priority="4">
+  <conditionalFormatting sqref="E23:E25">
+    <cfRule type="containsBlanks" dxfId="7" priority="2">
       <formula>LEN(TRIM(E23))=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H10:J10 G25:J25 J24 G15:J18 G20:J23 H19:J19">
-    <cfRule type="containsBlanks" dxfId="4" priority="3">
-      <formula>LEN(TRIM(G10))=0</formula>
+  <conditionalFormatting sqref="G25 I25">
+    <cfRule type="containsBlanks" dxfId="6" priority="4">
+      <formula>LEN(TRIM(G25))=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E24">
-    <cfRule type="containsBlanks" dxfId="3" priority="2">
-      <formula>LEN(TRIM(E24))=0</formula>
+  <conditionalFormatting sqref="G15:H18 G20:H22 H19">
+    <cfRule type="containsBlanks" dxfId="5" priority="10">
+      <formula>LEN(TRIM(G15))=0</formula>
+    </cfRule>
+    <cfRule type="containsBlanks" priority="11">
+      <formula>LEN(TRIM(G15))=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G24:I24">
-    <cfRule type="containsBlanks" dxfId="2" priority="1">
-      <formula>LEN(TRIM(G24))=0</formula>
+  <conditionalFormatting sqref="G15:J25">
+    <cfRule type="containsBlanks" dxfId="4" priority="1">
+      <formula>LEN(TRIM(G15))=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H10:J10 I15:J22">
+    <cfRule type="containsBlanks" priority="7">
+      <formula>LEN(TRIM(H10))=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H10:J19">
+    <cfRule type="containsBlanks" dxfId="3" priority="3">
+      <formula>LEN(TRIM(H10))=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I15:J22">
+    <cfRule type="containsBlanks" dxfId="2" priority="6">
+      <formula>LEN(TRIM(I15))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
@@ -12100,8 +12082,8 @@
   </sheetPr>
   <dimension ref="A1:J923"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A19" zoomScaleNormal="100" zoomScalePageLayoutView="80" workbookViewId="0">
-      <selection activeCell="C26" sqref="C26"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" zoomScalePageLayoutView="80" workbookViewId="0">
+      <selection activeCell="G20" sqref="G20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.453125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -12506,7 +12488,7 @@
         <v>235</v>
       </c>
       <c r="G19" s="197">
-        <f>G18*Data!C$4/Dashboard!I5</f>
+        <f>(G18+MIN(D4,0))*Data!C$4/Dashboard!I5</f>
         <v>7.6180424677303353</v>
       </c>
     </row>
@@ -12522,7 +12504,7 @@
         <f>C20/(Dashboard!I5/Data!C4)</f>
         <v>-9.2789782767285736E-2</v>
       </c>
-      <c r="E20" s="445" t="str">
+      <c r="E20" s="446" t="str">
         <f>IF(F21+G21=G19,"⇒","Error!")</f>
         <v>⇒</v>
       </c>
@@ -12545,7 +12527,7 @@
         <f>C21/(Dashboard!I5/Data!C4)</f>
         <v>-0.23123924760908088</v>
       </c>
-      <c r="E21" s="445"/>
+      <c r="E21" s="446"/>
       <c r="F21" s="148">
         <f>D18</f>
         <v>7.857005320693851</v>
@@ -12567,11 +12549,11 @@
         <f>B3</f>
         <v>(Numbers in 1000HKD)</v>
       </c>
-      <c r="E23" s="449" t="s">
+      <c r="E23" s="450" t="s">
         <v>227</v>
       </c>
-      <c r="F23" s="449"/>
-      <c r="G23" s="449"/>
+      <c r="F23" s="450"/>
+      <c r="G23" s="450"/>
     </row>
     <row r="24" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B24" s="127" t="str">
@@ -12612,7 +12594,7 @@
         <f ca="1">G9*D25/G14</f>
         <v>2.1610400798002867</v>
       </c>
-      <c r="F25" s="446">
+      <c r="F25" s="447">
         <f ca="1">SUM(C15:F15)</f>
         <v>0.62972795510479229</v>
       </c>
@@ -12637,7 +12619,7 @@
         <f ca="1">G9*D26/G14</f>
         <v>2.8813867730670486</v>
       </c>
-      <c r="F26" s="447"/>
+      <c r="F26" s="448"/>
       <c r="G26" s="352">
         <f ca="1">$F$25+E26+$G$19</f>
         <v>11.129157195902177</v>
@@ -12661,7 +12643,7 @@
         <f ca="1">G9*D27/G14</f>
         <v>3.6017334663338105</v>
       </c>
-      <c r="F27" s="448"/>
+      <c r="F27" s="449"/>
       <c r="G27" s="207">
         <f ca="1">$F$25+E27+$G$19</f>
         <v>11.849503889168938</v>
@@ -12725,10 +12707,10 @@
       <c r="I31" s="88"/>
     </row>
     <row r="32" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C32" s="443" t="s">
+      <c r="C32" s="444" t="s">
         <v>149</v>
       </c>
-      <c r="D32" s="444"/>
+      <c r="D32" s="445"/>
       <c r="E32" s="30" t="s">
         <v>215</v>
       </c>
@@ -13683,14 +13665,14 @@
     <mergeCell ref="F25:F27"/>
     <mergeCell ref="E23:G23"/>
   </mergeCells>
-  <conditionalFormatting sqref="E4:F9 E13:F15">
-    <cfRule type="containsBlanks" dxfId="1" priority="5">
-      <formula>LEN(TRIM(E4))=0</formula>
+  <conditionalFormatting sqref="E25:E27 G25:G27">
+    <cfRule type="cellIs" dxfId="1" priority="28" operator="equal">
+      <formula>$E$30</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E25:E27 G25:G27">
-    <cfRule type="cellIs" dxfId="0" priority="28" operator="equal">
-      <formula>$E$30</formula>
+  <conditionalFormatting sqref="E4:F9 E13:F15">
+    <cfRule type="containsBlanks" dxfId="0" priority="5">
+      <formula>LEN(TRIM(E4))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>

--- a/financial_models/Opportunities/0071.HK_Stock_Valuation.xlsx
+++ b/financial_models/Opportunities/0071.HK_Stock_Valuation.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jerry.chen\PycharmProjects\Invest_Proc\financial_models\Opportunities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9FEF813-29BE-4721-A796-403E897DBF7F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{BA7DF195-9DB6-4524-9573-4B1605053B8B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="760" yWindow="760" windowWidth="14400" windowHeight="7360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Dashboard" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="402" uniqueCount="339">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="417" uniqueCount="353">
   <si>
     <t>Company Info:</t>
   </si>
@@ -1181,12 +1181,72 @@
   <si>
     <t>Expected Upside</t>
   </si>
+  <si>
+    <t>Allocation Analysis</t>
+  </si>
+  <si>
+    <t>1. The valuation quality rating (proxy of the "Error Term")</t>
+  </si>
+  <si>
+    <t>2. The probability of correctly forecasting the FCF based on the investment category</t>
+  </si>
+  <si>
+    <t>3. The business quality rating (proxy for not overestimating the exit)</t>
+  </si>
+  <si>
+    <t>80% chance of recession in US, and 50% chance of spilling over</t>
+  </si>
+  <si>
+    <t>4. The probability of a recession affecting the company</t>
+  </si>
+  <si>
+    <t>60% chance of chinese recession</t>
+  </si>
+  <si>
+    <t>5. Is the upside very attractive?</t>
+  </si>
+  <si>
+    <t>A = Upside in event of a win</t>
+  </si>
+  <si>
+    <t>B = Downside in event of a loss</t>
+  </si>
+  <si>
+    <t>W = The estimated probability of win</t>
+  </si>
+  <si>
+    <t>R = A/B</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>⇒ Half Kelly %</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> = [W – (1 – W)/R] /2</t>
+    </r>
+  </si>
+  <si>
+    <t>capped at</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="24">
+  <numFmts count="25">
     <numFmt numFmtId="6" formatCode="&quot;$&quot;#,##0_);[Red]\(&quot;$&quot;#,##0\)"/>
     <numFmt numFmtId="8" formatCode="&quot;$&quot;#,##0.00_);[Red]\(&quot;$&quot;#,##0.00\)"/>
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
@@ -1211,6 +1271,7 @@
     <numFmt numFmtId="182" formatCode="&quot;in&quot;\ 0\ &quot;Months&quot;"/>
     <numFmt numFmtId="183" formatCode="&quot;Breakeven Price = &quot;0.00"/>
     <numFmt numFmtId="184" formatCode="&quot;Next Buy Price = &quot;0.00"/>
+    <numFmt numFmtId="185" formatCode="0.000000000000000000%"/>
   </numFmts>
   <fonts count="31" x14ac:knownFonts="1">
     <font>
@@ -2950,7 +3011,7 @@
     <xf numFmtId="43" fontId="26" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="451">
+  <cellXfs count="459">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -3856,6 +3917,24 @@
     <xf numFmtId="4" fontId="7" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="58" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="10" fontId="7" fillId="0" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="2" fillId="8" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="185" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="4" fontId="7" fillId="0" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="5" fillId="13" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="3" fontId="2" fillId="9" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -4102,7 +4181,7 @@
     <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="17">
+  <dxfs count="18">
     <dxf>
       <fill>
         <patternFill patternType="solid">
@@ -4229,6 +4308,16 @@
       <fill>
         <patternFill>
           <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
         </patternFill>
       </fill>
     </dxf>
@@ -4474,8 +4563,8 @@
   </sheetPr>
   <dimension ref="A1:L966"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I36" sqref="I36:J36"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A22" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="K42" sqref="K42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.453125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -4519,33 +4608,33 @@
       <c r="B3" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="391" t="s">
+      <c r="C3" s="399" t="s">
         <v>313</v>
       </c>
-      <c r="D3" s="392"/>
+      <c r="D3" s="400"/>
       <c r="E3" s="15"/>
       <c r="G3" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="I3" s="403" t="s">
+      <c r="I3" s="411" t="s">
         <v>3</v>
       </c>
-      <c r="J3" s="404"/>
+      <c r="J3" s="412"/>
     </row>
     <row r="4" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B4" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="393" t="s">
+      <c r="C4" s="401" t="s">
         <v>314</v>
       </c>
-      <c r="D4" s="394"/>
+      <c r="D4" s="402"/>
       <c r="E4" s="6"/>
       <c r="G4" s="5" t="s">
         <v>5</v>
       </c>
       <c r="I4" s="32">
-        <v>11.8</v>
+        <v>11.96</v>
       </c>
       <c r="J4" s="33" t="s">
         <v>6</v>
@@ -4556,10 +4645,10 @@
       <c r="B5" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="C5" s="395">
+      <c r="C5" s="403">
         <v>44959</v>
       </c>
-      <c r="D5" s="394"/>
+      <c r="D5" s="402"/>
       <c r="E5" s="122" t="str">
         <f ca="1">IF(C5+30&gt;=TODAY(),"Patience Premium","")</f>
         <v/>
@@ -4567,10 +4656,10 @@
       <c r="G5" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="I5" s="386">
+      <c r="I5" s="394">
         <v>690959695</v>
       </c>
-      <c r="J5" s="387"/>
+      <c r="J5" s="395"/>
       <c r="K5" s="151"/>
       <c r="L5" s="85"/>
     </row>
@@ -4593,11 +4682,11 @@
         <v>9</v>
       </c>
       <c r="H6" s="133"/>
-      <c r="I6" s="405">
+      <c r="I6" s="413">
         <f>I4*I5/1000000</f>
-        <v>8153.3244010000008</v>
-      </c>
-      <c r="J6" s="406"/>
+        <v>8263.8779522000004</v>
+      </c>
+      <c r="J6" s="414"/>
       <c r="K6" s="151"/>
     </row>
     <row r="7" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -4637,11 +4726,11 @@
       </c>
       <c r="I9" s="121">
         <f>IF(Data!F3&lt;=0,"NNI",I4/((Data!F3*I12)/(I5/Data!C4)))</f>
-        <v>24.710188572484981</v>
+        <v>25.04524197685766</v>
       </c>
       <c r="J9" s="48">
         <f>IF(I9="NNI","NNI",1/I9)</f>
-        <v>4.0469136731457772E-2</v>
+        <v>3.9927743597926557E-2</v>
       </c>
     </row>
     <row r="10" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -4660,41 +4749,41 @@
       </c>
       <c r="I10" s="138">
         <f>I4/(Data!C28*I12*Data!C4/Common_Shares)</f>
-        <v>0.40680813964105517</v>
+        <v>0.41232418221245931</v>
       </c>
       <c r="J10" s="130">
         <f>IF(Asset_Model!D60/'FCFF Model'!C4&lt;0,"Negative EV",Asset_Model!D60/'FCFF Model'!C4)</f>
-        <v>6.5128148544123672</v>
+        <v>6.7645325160046754</v>
       </c>
     </row>
     <row r="11" spans="1:12" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B11" s="313" t="s">
         <v>273</v>
       </c>
-      <c r="C11" s="417">
+      <c r="C11" s="425">
         <f ca="1">C12-D10</f>
         <v>5.1000000000000004E-2</v>
       </c>
-      <c r="D11" s="418"/>
+      <c r="D11" s="426"/>
       <c r="E11" s="13"/>
       <c r="G11" s="5" t="s">
         <v>15</v>
       </c>
       <c r="H11" s="6"/>
-      <c r="I11" s="415" t="s">
+      <c r="I11" s="423" t="s">
         <v>6</v>
       </c>
-      <c r="J11" s="416"/>
+      <c r="J11" s="424"/>
     </row>
     <row r="12" spans="1:12" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
       <c r="B12" s="314" t="s">
         <v>146</v>
       </c>
-      <c r="C12" s="419">
+      <c r="C12" s="427">
         <f ca="1">IF(C10="US",6%,8%)*IF($C$5+30&gt;=TODAY(),1.2,1)</f>
         <v>0.08</v>
       </c>
-      <c r="D12" s="420"/>
+      <c r="D12" s="428"/>
       <c r="G12" s="134" t="s">
         <v>16</v>
       </c>
@@ -4763,36 +4852,36 @@
     <row r="16" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B16" s="131">
         <f>I4</f>
-        <v>11.8</v>
-      </c>
-      <c r="C16" s="426">
+        <v>11.96</v>
+      </c>
+      <c r="C16" s="434">
         <v>0.1</v>
       </c>
       <c r="D16" s="159">
         <f ca="1">H14/B16-1-C16</f>
-        <v>-4.2886973474078355E-2</v>
-      </c>
-      <c r="E16" s="423">
+        <v>-5.7028953762050666E-2</v>
+      </c>
+      <c r="E16" s="431">
         <f>'FCFF Model'!D11*Exchange_Rate</f>
         <v>0.47</v>
       </c>
       <c r="F16" s="161">
         <f>E16/B16</f>
-        <v>3.9830508474576268E-2</v>
-      </c>
-      <c r="G16" s="410" t="s">
+        <v>3.9297658862876249E-2</v>
+      </c>
+      <c r="G16" s="418" t="s">
         <v>25</v>
       </c>
-      <c r="H16" s="407">
+      <c r="H16" s="415">
         <f>('FCFF Model'!G19)*Exchange_Rate</f>
         <v>7.6180424677303353</v>
       </c>
-      <c r="I16" s="410" t="s">
+      <c r="I16" s="418" t="s">
         <v>26</v>
       </c>
       <c r="J16" s="206">
         <f>B16-$H$16</f>
-        <v>4.1819575322696654</v>
+        <v>4.3419575322696655</v>
       </c>
     </row>
     <row r="17" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -4800,19 +4889,19 @@
         <f ca="1">H14/(1+C16)</f>
         <v>11.33993973909625</v>
       </c>
-      <c r="C17" s="427"/>
+      <c r="C17" s="435"/>
       <c r="D17" s="289">
         <f ca="1">H14/B17-1-C16</f>
         <v>0</v>
       </c>
-      <c r="E17" s="424"/>
+      <c r="E17" s="432"/>
       <c r="F17" s="162">
         <f ca="1">E16/B17</f>
         <v>4.1446428359720469E-2</v>
       </c>
-      <c r="G17" s="411"/>
-      <c r="H17" s="408"/>
-      <c r="I17" s="411"/>
+      <c r="G17" s="419"/>
+      <c r="H17" s="416"/>
+      <c r="I17" s="419"/>
       <c r="J17" s="205">
         <f ca="1">B17-$H$16</f>
         <v>3.7218972713659149</v>
@@ -4821,24 +4910,24 @@
     <row r="18" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B18" s="354">
         <f>C35</f>
-        <v>11</v>
-      </c>
-      <c r="C18" s="428"/>
+        <v>11.45</v>
+      </c>
+      <c r="C18" s="436"/>
       <c r="D18" s="160">
         <f ca="1">H14/B18-1-C16</f>
-        <v>3.3993973909624969E-2</v>
-      </c>
-      <c r="E18" s="425"/>
+        <v>-1.0573474846648306E-2</v>
+      </c>
+      <c r="E18" s="433"/>
       <c r="F18" s="163">
         <f>E16/B18</f>
-        <v>4.2727272727272725E-2</v>
-      </c>
-      <c r="G18" s="412"/>
-      <c r="H18" s="409"/>
-      <c r="I18" s="412"/>
+        <v>4.1048034934497817E-2</v>
+      </c>
+      <c r="G18" s="420"/>
+      <c r="H18" s="417"/>
+      <c r="I18" s="420"/>
       <c r="J18" s="207">
         <f>B18-$H$16</f>
-        <v>3.3819575322696647</v>
+        <v>3.831957532269664</v>
       </c>
     </row>
     <row r="19" spans="1:10" ht="15.65" customHeight="1" x14ac:dyDescent="0.3">
@@ -4869,42 +4958,42 @@
       <c r="B21" s="24" t="s">
         <v>28</v>
       </c>
-      <c r="C21" s="398"/>
-      <c r="D21" s="399"/>
-      <c r="E21" s="399"/>
-      <c r="F21" s="399"/>
-      <c r="G21" s="399"/>
-      <c r="H21" s="399"/>
-      <c r="I21" s="399"/>
-      <c r="J21" s="400"/>
+      <c r="C21" s="406"/>
+      <c r="D21" s="407"/>
+      <c r="E21" s="407"/>
+      <c r="F21" s="407"/>
+      <c r="G21" s="407"/>
+      <c r="H21" s="407"/>
+      <c r="I21" s="407"/>
+      <c r="J21" s="408"/>
     </row>
     <row r="22" spans="1:10" ht="52.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="6"/>
       <c r="B22" s="24" t="s">
         <v>29</v>
       </c>
-      <c r="C22" s="414"/>
-      <c r="D22" s="362"/>
-      <c r="E22" s="362"/>
-      <c r="F22" s="362"/>
-      <c r="G22" s="414"/>
-      <c r="H22" s="414"/>
-      <c r="I22" s="362"/>
-      <c r="J22" s="362"/>
+      <c r="C22" s="422"/>
+      <c r="D22" s="370"/>
+      <c r="E22" s="370"/>
+      <c r="F22" s="370"/>
+      <c r="G22" s="422"/>
+      <c r="H22" s="422"/>
+      <c r="I22" s="370"/>
+      <c r="J22" s="370"/>
     </row>
     <row r="23" spans="1:10" ht="52.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="6"/>
       <c r="B23" s="25" t="s">
         <v>30</v>
       </c>
-      <c r="C23" s="401"/>
-      <c r="D23" s="402"/>
-      <c r="E23" s="402"/>
-      <c r="F23" s="402"/>
-      <c r="G23" s="401"/>
-      <c r="H23" s="401"/>
-      <c r="I23" s="402"/>
-      <c r="J23" s="402"/>
+      <c r="C23" s="409"/>
+      <c r="D23" s="410"/>
+      <c r="E23" s="410"/>
+      <c r="F23" s="410"/>
+      <c r="G23" s="409"/>
+      <c r="H23" s="409"/>
+      <c r="I23" s="410"/>
+      <c r="J23" s="410"/>
     </row>
     <row r="24" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B24" s="6"/>
@@ -4948,236 +5037,370 @@
       <c r="B26" s="23" t="s">
         <v>33</v>
       </c>
-      <c r="C26" s="396">
+      <c r="C26" s="404">
         <v>44988</v>
       </c>
-      <c r="D26" s="397"/>
-      <c r="E26" s="432" t="str">
+      <c r="D26" s="405"/>
+      <c r="E26" s="440" t="str">
         <f>IF(C26="","","Action_Planning")</f>
         <v>Action_Planning</v>
       </c>
-      <c r="F26" s="433"/>
-      <c r="G26" s="433"/>
-      <c r="H26" s="434"/>
-      <c r="I26" s="413" t="s">
+      <c r="F26" s="441"/>
+      <c r="G26" s="441"/>
+      <c r="H26" s="442"/>
+      <c r="I26" s="421" t="s">
         <v>34</v>
       </c>
-      <c r="J26" s="413"/>
+      <c r="J26" s="421"/>
     </row>
     <row r="27" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B27" s="23" t="s">
         <v>35</v>
       </c>
-      <c r="C27" s="422">
+      <c r="C27" s="430">
         <f>C31/D25</f>
         <v>5.9499999999999997E-2</v>
       </c>
-      <c r="D27" s="385"/>
-      <c r="E27" s="421">
+      <c r="D27" s="393"/>
+      <c r="E27" s="429">
         <f>E31/D25</f>
-        <v>0.16500000000000001</v>
-      </c>
-      <c r="F27" s="385"/>
-      <c r="G27" s="430">
+        <v>5.7250000000000002E-2</v>
+      </c>
+      <c r="F27" s="393"/>
+      <c r="G27" s="438">
         <f>G31/D25</f>
         <v>0</v>
       </c>
-      <c r="H27" s="431"/>
-      <c r="I27" s="429">
+      <c r="H27" s="439"/>
+      <c r="I27" s="437">
         <f>C27+E27+G27</f>
-        <v>0.22450000000000001</v>
-      </c>
-      <c r="J27" s="429"/>
+        <v>0.11674999999999999</v>
+      </c>
+      <c r="J27" s="437"/>
     </row>
     <row r="28" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B28" s="23" t="s">
         <v>36</v>
       </c>
-      <c r="C28" s="357">
+      <c r="C28" s="365">
         <v>3000</v>
       </c>
-      <c r="D28" s="362"/>
-      <c r="E28" s="357">
-        <v>9000</v>
-      </c>
-      <c r="F28" s="362"/>
-      <c r="G28" s="386"/>
-      <c r="H28" s="387"/>
-      <c r="I28" s="390">
+      <c r="D28" s="370"/>
+      <c r="E28" s="365">
+        <v>3000</v>
+      </c>
+      <c r="F28" s="370"/>
+      <c r="G28" s="394"/>
+      <c r="H28" s="395"/>
+      <c r="I28" s="398">
         <f>C28+E28+G28</f>
-        <v>12000</v>
-      </c>
-      <c r="J28" s="390"/>
+        <v>6000</v>
+      </c>
+      <c r="J28" s="398"/>
     </row>
     <row r="29" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B29" s="23" t="s">
         <v>37</v>
       </c>
-      <c r="C29" s="361">
+      <c r="C29" s="369">
         <v>11.9</v>
       </c>
-      <c r="D29" s="362"/>
-      <c r="E29" s="361">
-        <v>11</v>
-      </c>
-      <c r="F29" s="362"/>
-      <c r="G29" s="363"/>
-      <c r="H29" s="364"/>
-      <c r="I29" s="388"/>
-      <c r="J29" s="388"/>
+      <c r="D29" s="370"/>
+      <c r="E29" s="369">
+        <v>11.45</v>
+      </c>
+      <c r="F29" s="370"/>
+      <c r="G29" s="371"/>
+      <c r="H29" s="372"/>
+      <c r="I29" s="396"/>
+      <c r="J29" s="396"/>
     </row>
     <row r="30" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B30" s="23" t="s">
         <v>38</v>
       </c>
-      <c r="C30" s="359">
+      <c r="C30" s="367">
         <f>C29*$I$5/1000000</f>
         <v>8222.4203705</v>
       </c>
-      <c r="D30" s="369"/>
-      <c r="E30" s="359">
+      <c r="D30" s="377"/>
+      <c r="E30" s="367">
         <f>E29*$I$5/1000000</f>
-        <v>7600.5566449999997</v>
-      </c>
-      <c r="F30" s="369"/>
-      <c r="G30" s="372">
+        <v>7911.4885077499994</v>
+      </c>
+      <c r="F30" s="377"/>
+      <c r="G30" s="380">
         <f>G29*$I$5/1000000</f>
         <v>0</v>
       </c>
-      <c r="H30" s="373"/>
-      <c r="I30" s="389"/>
-      <c r="J30" s="389"/>
+      <c r="H30" s="381"/>
+      <c r="I30" s="397"/>
+      <c r="J30" s="397"/>
     </row>
     <row r="31" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B31" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="C31" s="381">
+      <c r="C31" s="389">
         <f>C28*C29</f>
         <v>35700</v>
       </c>
-      <c r="D31" s="382"/>
-      <c r="E31" s="383">
+      <c r="D31" s="390"/>
+      <c r="E31" s="391">
         <f>E28*E29</f>
-        <v>99000</v>
-      </c>
-      <c r="F31" s="384"/>
-      <c r="G31" s="374">
+        <v>34350</v>
+      </c>
+      <c r="F31" s="392"/>
+      <c r="G31" s="382">
         <f>G28*G29</f>
         <v>0</v>
       </c>
-      <c r="H31" s="375"/>
-      <c r="I31" s="383">
+      <c r="H31" s="383"/>
+      <c r="I31" s="391">
         <f>C31+E31+G31</f>
-        <v>134700</v>
-      </c>
-      <c r="J31" s="383"/>
+        <v>70050</v>
+      </c>
+      <c r="J31" s="391"/>
     </row>
     <row r="32" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B32" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="C32" s="379"/>
-      <c r="D32" s="380"/>
-      <c r="E32" s="360">
+      <c r="C32" s="387"/>
+      <c r="D32" s="388"/>
+      <c r="E32" s="368">
         <f>IF(C31=0,"-",(C31+E31)/(C28+E28))</f>
-        <v>11.225</v>
-      </c>
-      <c r="F32" s="385"/>
+        <v>11.675000000000001</v>
+      </c>
+      <c r="F32" s="393"/>
       <c r="G32" s="117"/>
       <c r="H32" s="117"/>
-      <c r="I32" s="360">
+      <c r="I32" s="368">
         <f>IF(I31=0,"",I31/I28)</f>
-        <v>11.225</v>
-      </c>
-      <c r="J32" s="360"/>
+        <v>11.675000000000001</v>
+      </c>
+      <c r="J32" s="368"/>
     </row>
     <row r="33" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B33" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="C33" s="370"/>
-      <c r="D33" s="371"/>
-      <c r="E33" s="359">
+      <c r="C33" s="378"/>
+      <c r="D33" s="379"/>
+      <c r="E33" s="367">
         <f>IF(E32="-","-",E32*$I$5/1000000)</f>
-        <v>7756.0225763750004</v>
-      </c>
-      <c r="F33" s="369"/>
+        <v>8066.954439125001</v>
+      </c>
+      <c r="F33" s="377"/>
       <c r="G33" s="118"/>
       <c r="H33" s="118"/>
-      <c r="I33" s="359">
+      <c r="I33" s="367">
         <f>IF(I32="","",I32*$I$5/1000000)</f>
-        <v>7756.0225763750004</v>
-      </c>
-      <c r="J33" s="359"/>
+        <v>8066.954439125001</v>
+      </c>
+      <c r="J33" s="367"/>
     </row>
     <row r="34" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="35" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B35" s="146" t="s">
         <v>326</v>
       </c>
-      <c r="C35" s="365">
+      <c r="C35" s="373">
         <f>E29</f>
-        <v>11</v>
-      </c>
-      <c r="D35" s="366"/>
-      <c r="G35" s="367" t="s">
+        <v>11.45</v>
+      </c>
+      <c r="D35" s="374"/>
+      <c r="G35" s="375" t="s">
         <v>327</v>
       </c>
-      <c r="H35" s="368"/>
-      <c r="I35" s="365">
+      <c r="H35" s="376"/>
+      <c r="I35" s="373">
         <f ca="1">'FCFF Model'!C34*0.9</f>
         <v>13.597424398249455</v>
       </c>
-      <c r="J35" s="366"/>
+      <c r="J35" s="374"/>
     </row>
     <row r="36" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B36" s="146" t="s">
         <v>328</v>
       </c>
-      <c r="C36" s="357">
+      <c r="C36" s="365">
         <f>E28</f>
-        <v>9000</v>
-      </c>
-      <c r="D36" s="358"/>
-      <c r="G36" s="376" t="s">
+        <v>3000</v>
+      </c>
+      <c r="D36" s="366"/>
+      <c r="G36" s="384" t="s">
         <v>338</v>
       </c>
-      <c r="H36" s="376"/>
-      <c r="I36" s="377">
+      <c r="H36" s="384"/>
+      <c r="I36" s="385">
         <f ca="1">IF(C26="",0,I35/C29-1)</f>
         <v>0.14264070573524834</v>
       </c>
-      <c r="J36" s="378"/>
+      <c r="J36" s="386"/>
     </row>
     <row r="37" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="38" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="39" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="40" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="41" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="42" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="43" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="38" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B38" s="21" t="s">
+        <v>339</v>
+      </c>
+      <c r="G38" s="347" t="s">
+        <v>137</v>
+      </c>
+      <c r="H38" s="133"/>
+      <c r="I38" s="133"/>
+      <c r="J38" s="133"/>
+    </row>
+    <row r="39" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B39" s="3" t="s">
+        <v>340</v>
+      </c>
+      <c r="F39" s="214">
+        <f>'Qualitative Analysis'!E8</f>
+        <v>0.6</v>
+      </c>
+      <c r="G39" s="357"/>
+      <c r="H39" s="116"/>
+      <c r="I39" s="116"/>
+      <c r="J39" s="116"/>
+    </row>
+    <row r="40" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B40" s="3" t="s">
+        <v>341</v>
+      </c>
+      <c r="F40" s="214">
+        <f>80%-(5%*IF(LEFT(D20,2)="St",1,IF(LEFT(D20,2)="Sl",2,IF(LEFT(D20,2)="Cy",3,IF(LEFT(D20,2)="Fa",4,IF(LEFT(D20,2)="Tu",5,0))))))</f>
+        <v>0.8</v>
+      </c>
+      <c r="G40" s="74"/>
+      <c r="H40" s="74"/>
+      <c r="I40" s="74"/>
+      <c r="J40" s="74"/>
+    </row>
+    <row r="41" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B41" s="3" t="s">
+        <v>342</v>
+      </c>
+      <c r="E41" s="358"/>
+      <c r="F41" s="359">
+        <f>'Qualitative Analysis'!E64</f>
+        <v>0.64057823129251701</v>
+      </c>
+      <c r="G41" s="357" t="s">
+        <v>343</v>
+      </c>
+      <c r="H41" s="116"/>
+      <c r="I41" s="116"/>
+      <c r="J41" s="116"/>
+    </row>
+    <row r="42" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B42" s="3" t="s">
+        <v>344</v>
+      </c>
+      <c r="E42" s="358">
+        <f ca="1">IF(F42="Strongly disagree",0,IF(F42="disagree",1,IF(F42="So-so",2,IF(F42="agree",3,4))))/4</f>
+        <v>0.5</v>
+      </c>
+      <c r="F42" s="102" t="str">
+        <f ca="1">IF(F45&lt;D10,"Strongly Disagree",IF(F45&lt;10%,"Disagree",IF(F45&gt;=30%,"Strongly Agree",IF(F45&gt;=20%,"Agree","So-so"))))</f>
+        <v>So-so</v>
+      </c>
+      <c r="G42" s="74" t="s">
+        <v>345</v>
+      </c>
+      <c r="H42" s="74"/>
+      <c r="I42" s="74"/>
+      <c r="J42" s="74"/>
+    </row>
+    <row r="43" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B43" s="3" t="s">
+        <v>346</v>
+      </c>
+      <c r="F43" s="360">
+        <v>0.6</v>
+      </c>
+      <c r="G43" s="116"/>
+      <c r="H43" s="116"/>
+      <c r="I43" s="116"/>
+      <c r="J43" s="116"/>
+    </row>
     <row r="44" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="45" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="46" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="45" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B45" s="3" t="s">
+        <v>347</v>
+      </c>
+      <c r="F45" s="359">
+        <f ca="1">I35/C29-1</f>
+        <v>0.14264070573524834</v>
+      </c>
+    </row>
+    <row r="46" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B46" s="3" t="s">
+        <v>348</v>
+      </c>
+      <c r="F46" s="359">
+        <f ca="1">D14/C29-1</f>
+        <v>-6.4776706226707836E-2</v>
+      </c>
+    </row>
     <row r="47" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="48" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="49" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="51" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="52" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="53" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="54" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="55" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="56" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="57" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="59" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="60" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="61" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="62" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="63" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="64" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="48" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B48" s="3" t="s">
+        <v>349</v>
+      </c>
+      <c r="F48" s="214">
+        <f ca="1">IF(F45&lt;=0,0,AVERAGE(F39:F41,1-F43,E42))</f>
+        <v>0.58811564625850332</v>
+      </c>
+      <c r="G48" s="74"/>
+    </row>
+    <row r="49" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B49" s="3" t="s">
+        <v>350</v>
+      </c>
+      <c r="E49" s="361">
+        <f ca="1">F45/ABS(F46)</f>
+        <v>2.2020370291139733</v>
+      </c>
+      <c r="F49" s="362">
+        <f ca="1">IF(F46&gt;=0,100,F45/ABS(F46))</f>
+        <v>2.2020370291139733</v>
+      </c>
+      <c r="G49" s="74"/>
+    </row>
+    <row r="50" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B50" s="3" t="s">
+        <v>351</v>
+      </c>
+      <c r="E50" s="107">
+        <f ca="1">MAX(F48-ABS((1-F48)/F49),0)/2</f>
+        <v>0.2005343382160063</v>
+      </c>
+      <c r="F50" s="363">
+        <f ca="1">MIN(E50,H50)</f>
+        <v>0.2005343382160063</v>
+      </c>
+      <c r="G50" s="364" t="s">
+        <v>352</v>
+      </c>
+      <c r="H50" s="78">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="51" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="52" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="53" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="54" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="55" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="56" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="57" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="58" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="59" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="60" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="61" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="62" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="63" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="64" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="65" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="66" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="67" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -6138,51 +6361,56 @@
     <mergeCell ref="I36:J36"/>
   </mergeCells>
   <conditionalFormatting sqref="C35:D36">
-    <cfRule type="containsBlanks" priority="5">
+    <cfRule type="containsBlanks" priority="6">
       <formula>LEN(TRIM(C35))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C26:E26">
-    <cfRule type="containsBlanks" priority="3">
+    <cfRule type="containsBlanks" priority="4">
       <formula>LEN(TRIM(C26))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C28:G29 I26 I28:I29">
-    <cfRule type="containsBlanks" priority="18">
+    <cfRule type="containsBlanks" priority="19">
       <formula>LEN(TRIM(C26))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D16 D18">
-    <cfRule type="cellIs" dxfId="16" priority="14" operator="lessThan">
+    <cfRule type="cellIs" dxfId="17" priority="15" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E26:H26">
-    <cfRule type="containsBlanks" dxfId="15" priority="2">
+    <cfRule type="containsBlanks" dxfId="16" priority="3">
       <formula>LEN(TRIM(E26))=0</formula>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="F49">
+    <cfRule type="cellIs" dxfId="15" priority="1" operator="lessThan">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="H14">
-    <cfRule type="cellIs" dxfId="14" priority="6" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="14" priority="7" operator="greaterThan">
       <formula>$B$16</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H16">
-    <cfRule type="cellIs" dxfId="13" priority="9" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="13" priority="10" operator="greaterThan">
       <formula>$B$16</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I16">
-    <cfRule type="cellIs" dxfId="12" priority="24" operator="lessThan">
+    <cfRule type="cellIs" dxfId="12" priority="25" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I35:J36">
-    <cfRule type="containsBlanks" priority="1">
+    <cfRule type="containsBlanks" priority="2">
       <formula>LEN(TRIM(I35))=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <dataValidations count="4">
+  <dataValidations count="5">
     <dataValidation type="list" allowBlank="1" sqref="I3" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>"HK,US:NASDAQ,CN"</formula1>
     </dataValidation>
@@ -6194,6 +6422,9 @@
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D20" xr:uid="{653EE4BA-4D98-4EE5-AD27-D0955626562F}">
       <formula1>"Slow Growers, Stalwarts, Fast Growers, Cyclicals, Turnarounds, Asset Plays "</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" sqref="F42" xr:uid="{5A9D20E8-2A2D-4172-B672-4F2D599C3A28}">
+      <formula1>"Strongly agree,agree,So-so,disagree,Strongly disagree"</formula1>
     </dataValidation>
   </dataValidations>
   <hyperlinks>
@@ -9348,7 +9579,7 @@
   </sheetPr>
   <dimension ref="A2:K65"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="A40" workbookViewId="0">
       <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
@@ -10360,11 +10591,11 @@
         <v>262</v>
       </c>
       <c r="C52" s="5"/>
-      <c r="D52" s="435">
+      <c r="D52" s="443">
         <f>D53+D54+D55</f>
         <v>64114</v>
       </c>
-      <c r="E52" s="436"/>
+      <c r="E52" s="444"/>
       <c r="F52" s="53"/>
       <c r="G52" s="53"/>
     </row>
@@ -10373,11 +10604,11 @@
         <v>232</v>
       </c>
       <c r="C53" s="6"/>
-      <c r="D53" s="438">
+      <c r="D53" s="446">
         <f>SUM(I11:I13)+SUM(I28:I30)</f>
         <v>64114</v>
       </c>
-      <c r="E53" s="382"/>
+      <c r="E53" s="390"/>
       <c r="F53" s="5"/>
       <c r="G53" s="5"/>
       <c r="H53" s="3" t="s">
@@ -10393,10 +10624,10 @@
         <v>132</v>
       </c>
       <c r="C54" s="6"/>
-      <c r="D54" s="443">
+      <c r="D54" s="451">
         <v>0</v>
       </c>
-      <c r="E54" s="362"/>
+      <c r="E54" s="370"/>
       <c r="F54" s="6" t="s">
         <v>133</v>
       </c>
@@ -10407,10 +10638,10 @@
         <v>131</v>
       </c>
       <c r="C55" s="6"/>
-      <c r="D55" s="443">
+      <c r="D55" s="451">
         <v>0</v>
       </c>
-      <c r="E55" s="362"/>
+      <c r="E55" s="370"/>
       <c r="F55" s="5" t="s">
         <v>134</v>
       </c>
@@ -10425,8 +10656,8 @@
         <v>135</v>
       </c>
       <c r="C57" s="5"/>
-      <c r="D57" s="437"/>
-      <c r="E57" s="437"/>
+      <c r="D57" s="445"/>
+      <c r="E57" s="445"/>
       <c r="F57" s="19"/>
       <c r="G57" s="19"/>
     </row>
@@ -10472,11 +10703,11 @@
         <v>136</v>
       </c>
       <c r="C60" s="6"/>
-      <c r="D60" s="441">
+      <c r="D60" s="449">
         <f>((Dashboard!I6*Data!C4)+D52+E50-C58-C59)</f>
-        <v>2860406.4010000005</v>
-      </c>
-      <c r="E60" s="442"/>
+        <v>2970959.9521999992</v>
+      </c>
+      <c r="E60" s="450"/>
       <c r="F60" s="6"/>
       <c r="G60" s="6"/>
     </row>
@@ -10493,20 +10724,20 @@
       <c r="B63" s="3" t="s">
         <v>264</v>
       </c>
-      <c r="D63" s="377">
+      <c r="D63" s="385">
         <f>((C26-C11-C12-C14-C15-C16*G16-C19*G19-C20*G20)-I26)/Data!C7</f>
         <v>-0.33519135542591366</v>
       </c>
-      <c r="E63" s="378"/>
+      <c r="E63" s="386"/>
     </row>
     <row r="64" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B64" s="3" t="s">
         <v>263</v>
       </c>
-      <c r="D64" s="439">
+      <c r="D64" s="447">
         <v>7.51E-2</v>
       </c>
-      <c r="E64" s="440"/>
+      <c r="E64" s="448"/>
       <c r="F64" s="266" t="s">
         <v>248</v>
       </c>
@@ -10515,11 +10746,11 @@
       <c r="B65" s="292" t="s">
         <v>265</v>
       </c>
-      <c r="D65" s="439">
+      <c r="D65" s="447">
         <f>D64</f>
         <v>7.51E-2</v>
       </c>
-      <c r="E65" s="440"/>
+      <c r="E65" s="448"/>
     </row>
   </sheetData>
   <mergeCells count="9">
@@ -12082,8 +12313,8 @@
   </sheetPr>
   <dimension ref="A1:J923"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" zoomScalePageLayoutView="80" workbookViewId="0">
-      <selection activeCell="G20" sqref="G20"/>
+    <sheetView showGridLines="0" zoomScaleNormal="100" zoomScalePageLayoutView="80" workbookViewId="0">
+      <selection activeCell="B28" sqref="B28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.453125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -12504,7 +12735,7 @@
         <f>C20/(Dashboard!I5/Data!C4)</f>
         <v>-9.2789782767285736E-2</v>
       </c>
-      <c r="E20" s="446" t="str">
+      <c r="E20" s="454" t="str">
         <f>IF(F21+G21=G19,"⇒","Error!")</f>
         <v>⇒</v>
       </c>
@@ -12527,7 +12758,7 @@
         <f>C21/(Dashboard!I5/Data!C4)</f>
         <v>-0.23123924760908088</v>
       </c>
-      <c r="E21" s="446"/>
+      <c r="E21" s="454"/>
       <c r="F21" s="148">
         <f>D18</f>
         <v>7.857005320693851</v>
@@ -12549,11 +12780,11 @@
         <f>B3</f>
         <v>(Numbers in 1000HKD)</v>
       </c>
-      <c r="E23" s="450" t="s">
+      <c r="E23" s="458" t="s">
         <v>227</v>
       </c>
-      <c r="F23" s="450"/>
-      <c r="G23" s="450"/>
+      <c r="F23" s="458"/>
+      <c r="G23" s="458"/>
     </row>
     <row r="24" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B24" s="127" t="str">
@@ -12594,7 +12825,7 @@
         <f ca="1">G9*D25/G14</f>
         <v>2.1610400798002867</v>
       </c>
-      <c r="F25" s="447">
+      <c r="F25" s="455">
         <f ca="1">SUM(C15:F15)</f>
         <v>0.62972795510479229</v>
       </c>
@@ -12619,7 +12850,7 @@
         <f ca="1">G9*D26/G14</f>
         <v>2.8813867730670486</v>
       </c>
-      <c r="F26" s="448"/>
+      <c r="F26" s="456"/>
       <c r="G26" s="352">
         <f ca="1">$F$25+E26+$G$19</f>
         <v>11.129157195902177</v>
@@ -12643,7 +12874,7 @@
         <f ca="1">G9*D27/G14</f>
         <v>3.6017334663338105</v>
       </c>
-      <c r="F27" s="449"/>
+      <c r="F27" s="457"/>
       <c r="G27" s="207">
         <f ca="1">$F$25+E27+$G$19</f>
         <v>11.849503889168938</v>
@@ -12707,10 +12938,10 @@
       <c r="I31" s="88"/>
     </row>
     <row r="32" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C32" s="444" t="s">
+      <c r="C32" s="452" t="s">
         <v>149</v>
       </c>
-      <c r="D32" s="445"/>
+      <c r="D32" s="453"/>
       <c r="E32" s="30" t="s">
         <v>215</v>
       </c>

--- a/financial_models/Opportunities/0071.HK_Stock_Valuation.xlsx
+++ b/financial_models/Opportunities/0071.HK_Stock_Valuation.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jerry.chen\PycharmProjects\Invest_Proc\financial_models\Opportunities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{BA7DF195-9DB6-4524-9573-4B1605053B8B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D06905DB-BAB4-44B4-99BA-010A9CC7524C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="760" yWindow="760" windowWidth="14400" windowHeight="7360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Dashboard" sheetId="1" r:id="rId1"/>
@@ -1197,13 +1197,7 @@
     <t>80% chance of recession in US, and 50% chance of spilling over</t>
   </si>
   <si>
-    <t>4. The probability of a recession affecting the company</t>
-  </si>
-  <si>
     <t>60% chance of chinese recession</t>
-  </si>
-  <si>
-    <t>5. Is the upside very attractive?</t>
   </si>
   <si>
     <t>A = Upside in event of a win</t>
@@ -1240,6 +1234,12 @@
   </si>
   <si>
     <t>capped at</t>
+  </si>
+  <si>
+    <t>4. Is the upside very attractive?</t>
+  </si>
+  <si>
+    <t>5. The probability of a recession affecting the company</t>
   </si>
 </sst>
 </file>
@@ -3935,20 +3935,167 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="10" fontId="2" fillId="16" borderId="97" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="2" fillId="16" borderId="96" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="169" fontId="1" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="168" fontId="1" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="7" fillId="0" borderId="53" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="7" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="7" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="2" fillId="8" borderId="71" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="2" fillId="8" borderId="72" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="2" fillId="8" borderId="73" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="71" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="72" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="73" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="175" fontId="1" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="170" fontId="1" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="170" fontId="1" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="108" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="9" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="2" fillId="9" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="2" fillId="9" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="7" fillId="8" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="91" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="92" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="93" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="2" fillId="9" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="2" fillId="9" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="47" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="48" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="5" fillId="0" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="5" fillId="0" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="5" fillId="0" borderId="44" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="2" fillId="8" borderId="98" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="2" fillId="8" borderId="99" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="6" fontId="3" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="3" fontId="2" fillId="9" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="8" fontId="4" fillId="9" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="171" fontId="1" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="6" fontId="3" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="8" fontId="3" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="3" fontId="7" fillId="8" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="171" fontId="1" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="8" fontId="3" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="8" fontId="4" fillId="9" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="8" fontId="4" fillId="9" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -3965,7 +4112,6 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="12" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="12" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="171" fontId="1" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3987,152 +4133,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="10" fontId="7" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="6" fontId="3" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="6" fontId="3" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="2" fillId="9" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="2" fillId="9" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="1" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="9" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="2" fillId="9" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="2" fillId="9" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="7" fillId="8" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="91" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="92" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="93" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="5" fillId="0" borderId="47" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="5" fillId="0" borderId="48" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="5" fillId="0" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="5" fillId="0" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="5" fillId="0" borderId="44" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="71" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="72" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="73" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="2" fillId="8" borderId="98" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="2" fillId="8" borderId="99" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="2" fillId="16" borderId="97" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="2" fillId="16" borderId="96" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="169" fontId="1" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="1" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="7" fillId="0" borderId="53" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="7" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="7" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="2" fillId="8" borderId="71" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="2" fillId="8" borderId="72" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="2" fillId="8" borderId="73" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="175" fontId="1" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="170" fontId="1" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="170" fontId="1" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="108" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="68" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -4563,8 +4563,8 @@
   </sheetPr>
   <dimension ref="A1:L966"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A22" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K42" sqref="K42"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A25" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F47" sqref="F47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.453125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -4608,27 +4608,27 @@
       <c r="B3" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="399" t="s">
+      <c r="C3" s="387" t="s">
         <v>313</v>
       </c>
-      <c r="D3" s="400"/>
+      <c r="D3" s="388"/>
       <c r="E3" s="15"/>
       <c r="G3" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="I3" s="411" t="s">
+      <c r="I3" s="397" t="s">
         <v>3</v>
       </c>
-      <c r="J3" s="412"/>
+      <c r="J3" s="398"/>
     </row>
     <row r="4" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B4" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="401" t="s">
+      <c r="C4" s="389" t="s">
         <v>314</v>
       </c>
-      <c r="D4" s="402"/>
+      <c r="D4" s="390"/>
       <c r="E4" s="6"/>
       <c r="G4" s="5" t="s">
         <v>5</v>
@@ -4645,10 +4645,10 @@
       <c r="B5" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="C5" s="403">
+      <c r="C5" s="391">
         <v>44959</v>
       </c>
-      <c r="D5" s="402"/>
+      <c r="D5" s="390"/>
       <c r="E5" s="122" t="str">
         <f ca="1">IF(C5+30&gt;=TODAY(),"Patience Premium","")</f>
         <v/>
@@ -4656,10 +4656,10 @@
       <c r="G5" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="I5" s="394">
+      <c r="I5" s="399">
         <v>690959695</v>
       </c>
-      <c r="J5" s="395"/>
+      <c r="J5" s="400"/>
       <c r="K5" s="151"/>
       <c r="L5" s="85"/>
     </row>
@@ -4672,7 +4672,7 @@
       </c>
       <c r="D6" s="271">
         <f>EOMONTH(EDATE(Asset_Model!D9,C6),0)</f>
-        <v>44985</v>
+        <v>45169</v>
       </c>
       <c r="E6" s="353">
         <f>Data!C3</f>
@@ -4682,11 +4682,11 @@
         <v>9</v>
       </c>
       <c r="H6" s="133"/>
-      <c r="I6" s="413">
+      <c r="I6" s="401">
         <f>I4*I5/1000000</f>
         <v>8263.8779522000004</v>
       </c>
-      <c r="J6" s="414"/>
+      <c r="J6" s="402"/>
       <c r="K6" s="151"/>
     </row>
     <row r="7" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -4753,37 +4753,37 @@
       </c>
       <c r="J10" s="130">
         <f>IF(Asset_Model!D60/'FCFF Model'!C4&lt;0,"Negative EV",Asset_Model!D60/'FCFF Model'!C4)</f>
-        <v>6.7645325160046754</v>
+        <v>7.1605080510103445</v>
       </c>
     </row>
     <row r="11" spans="1:12" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B11" s="313" t="s">
         <v>273</v>
       </c>
-      <c r="C11" s="425">
+      <c r="C11" s="411">
         <f ca="1">C12-D10</f>
         <v>5.1000000000000004E-2</v>
       </c>
-      <c r="D11" s="426"/>
+      <c r="D11" s="412"/>
       <c r="E11" s="13"/>
       <c r="G11" s="5" t="s">
         <v>15</v>
       </c>
       <c r="H11" s="6"/>
-      <c r="I11" s="423" t="s">
+      <c r="I11" s="409" t="s">
         <v>6</v>
       </c>
-      <c r="J11" s="424"/>
+      <c r="J11" s="410"/>
     </row>
     <row r="12" spans="1:12" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
       <c r="B12" s="314" t="s">
         <v>146</v>
       </c>
-      <c r="C12" s="427">
+      <c r="C12" s="365">
         <f ca="1">IF(C10="US",6%,8%)*IF($C$5+30&gt;=TODAY(),1.2,1)</f>
         <v>0.08</v>
       </c>
-      <c r="D12" s="428"/>
+      <c r="D12" s="366"/>
       <c r="G12" s="134" t="s">
         <v>16</v>
       </c>
@@ -4807,21 +4807,21 @@
       </c>
       <c r="D14" s="184">
         <f ca="1">MIN('FCFF Model'!C30,'FCFF Model'!E30)</f>
-        <v>11.129157195902177</v>
+        <v>10.560676235026312</v>
       </c>
       <c r="E14" s="127" t="s">
         <v>230</v>
       </c>
       <c r="F14" s="184">
         <f ca="1">MAX('FCFF Model'!C30,'FCFF Model'!E30)</f>
-        <v>13.228473799887135</v>
+        <v>13.106941291608036</v>
       </c>
       <c r="G14" s="185" t="s">
         <v>24</v>
       </c>
       <c r="H14" s="193">
         <f ca="1">IF('FCFF Model'!C33&lt;0, "Error", 'FCFF Model'!C33)</f>
-        <v>12.473933713005875</v>
+        <v>12.191758201373373</v>
       </c>
       <c r="I14" s="133"/>
       <c r="J14" s="133"/>
@@ -4854,80 +4854,79 @@
         <f>I4</f>
         <v>11.96</v>
       </c>
-      <c r="C16" s="434">
+      <c r="C16" s="375">
         <v>0.1</v>
       </c>
       <c r="D16" s="159">
         <f ca="1">H14/B16-1-C16</f>
-        <v>-5.7028953762050666E-2</v>
-      </c>
-      <c r="E16" s="431">
+        <v>-8.0622223965437195E-2</v>
+      </c>
+      <c r="E16" s="370">
         <f>'FCFF Model'!D11*Exchange_Rate</f>
-        <v>0.47</v>
+        <v>0.5</v>
       </c>
       <c r="F16" s="161">
         <f>E16/B16</f>
-        <v>3.9297658862876249E-2</v>
-      </c>
-      <c r="G16" s="418" t="s">
+        <v>4.1806020066889632E-2</v>
+      </c>
+      <c r="G16" s="378" t="s">
         <v>25</v>
       </c>
-      <c r="H16" s="415">
+      <c r="H16" s="403">
         <f>('FCFF Model'!G19)*Exchange_Rate</f>
-        <v>7.6180424677303353</v>
-      </c>
-      <c r="I16" s="418" t="s">
+        <v>7.5118325099990093</v>
+      </c>
+      <c r="I16" s="378" t="s">
         <v>26</v>
       </c>
       <c r="J16" s="206">
         <f>B16-$H$16</f>
-        <v>4.3419575322696655</v>
+        <v>4.4481674900009915</v>
       </c>
     </row>
     <row r="17" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B17" s="290">
         <f ca="1">H14/(1+C16)</f>
-        <v>11.33993973909625</v>
-      </c>
-      <c r="C17" s="435"/>
+        <v>11.083416546703065</v>
+      </c>
+      <c r="C17" s="376"/>
       <c r="D17" s="289">
         <f ca="1">H14/B17-1-C16</f>
         <v>0</v>
       </c>
-      <c r="E17" s="432"/>
+      <c r="E17" s="371"/>
       <c r="F17" s="162">
         <f ca="1">E16/B17</f>
-        <v>4.1446428359720469E-2</v>
-      </c>
-      <c r="G17" s="419"/>
-      <c r="H17" s="416"/>
-      <c r="I17" s="419"/>
+        <v>4.51124432518719E-2</v>
+      </c>
+      <c r="G17" s="379"/>
+      <c r="H17" s="404"/>
+      <c r="I17" s="379"/>
       <c r="J17" s="205">
         <f ca="1">B17-$H$16</f>
-        <v>3.7218972713659149</v>
+        <v>3.5715840367040554</v>
       </c>
     </row>
     <row r="18" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B18" s="354">
-        <f>C35</f>
-        <v>11.45</v>
-      </c>
-      <c r="C18" s="436"/>
+        <v>11.08</v>
+      </c>
+      <c r="C18" s="377"/>
       <c r="D18" s="160">
         <f ca="1">H14/B18-1-C16</f>
-        <v>-1.0573474846648306E-2</v>
-      </c>
-      <c r="E18" s="433"/>
+        <v>3.3918784958250625E-4</v>
+      </c>
+      <c r="E18" s="372"/>
       <c r="F18" s="163">
         <f>E16/B18</f>
-        <v>4.1048034934497817E-2</v>
-      </c>
-      <c r="G18" s="420"/>
-      <c r="H18" s="417"/>
-      <c r="I18" s="420"/>
+        <v>4.5126353790613721E-2</v>
+      </c>
+      <c r="G18" s="380"/>
+      <c r="H18" s="405"/>
+      <c r="I18" s="380"/>
       <c r="J18" s="207">
         <f>B18-$H$16</f>
-        <v>3.831957532269664</v>
+        <v>3.5681674900009908</v>
       </c>
     </row>
     <row r="19" spans="1:10" ht="15.65" customHeight="1" x14ac:dyDescent="0.3">
@@ -4958,42 +4957,42 @@
       <c r="B21" s="24" t="s">
         <v>28</v>
       </c>
-      <c r="C21" s="406"/>
-      <c r="D21" s="407"/>
-      <c r="E21" s="407"/>
-      <c r="F21" s="407"/>
-      <c r="G21" s="407"/>
-      <c r="H21" s="407"/>
-      <c r="I21" s="407"/>
-      <c r="J21" s="408"/>
+      <c r="C21" s="394"/>
+      <c r="D21" s="395"/>
+      <c r="E21" s="395"/>
+      <c r="F21" s="395"/>
+      <c r="G21" s="395"/>
+      <c r="H21" s="395"/>
+      <c r="I21" s="395"/>
+      <c r="J21" s="396"/>
     </row>
     <row r="22" spans="1:10" ht="52.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="6"/>
       <c r="B22" s="24" t="s">
         <v>29</v>
       </c>
-      <c r="C22" s="422"/>
-      <c r="D22" s="370"/>
-      <c r="E22" s="370"/>
-      <c r="F22" s="370"/>
-      <c r="G22" s="422"/>
-      <c r="H22" s="422"/>
-      <c r="I22" s="370"/>
-      <c r="J22" s="370"/>
+      <c r="C22" s="407"/>
+      <c r="D22" s="408"/>
+      <c r="E22" s="408"/>
+      <c r="F22" s="408"/>
+      <c r="G22" s="407"/>
+      <c r="H22" s="407"/>
+      <c r="I22" s="408"/>
+      <c r="J22" s="408"/>
     </row>
     <row r="23" spans="1:10" ht="52.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="6"/>
       <c r="B23" s="25" t="s">
         <v>30</v>
       </c>
-      <c r="C23" s="409"/>
-      <c r="D23" s="410"/>
-      <c r="E23" s="410"/>
-      <c r="F23" s="410"/>
-      <c r="G23" s="409"/>
-      <c r="H23" s="409"/>
-      <c r="I23" s="410"/>
-      <c r="J23" s="410"/>
+      <c r="C23" s="373"/>
+      <c r="D23" s="374"/>
+      <c r="E23" s="374"/>
+      <c r="F23" s="374"/>
+      <c r="G23" s="373"/>
+      <c r="H23" s="373"/>
+      <c r="I23" s="374"/>
+      <c r="J23" s="374"/>
     </row>
     <row r="24" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B24" s="6"/>
@@ -5030,214 +5029,214 @@
       </c>
       <c r="J25" s="356">
         <f ca="1">H14/(H25+C16+1)</f>
-        <v>9.9791469704047007</v>
+        <v>9.7534065610986982</v>
       </c>
     </row>
     <row r="26" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B26" s="23" t="s">
         <v>33</v>
       </c>
-      <c r="C26" s="404">
+      <c r="C26" s="392">
         <v>44988</v>
       </c>
-      <c r="D26" s="405"/>
-      <c r="E26" s="440" t="str">
+      <c r="D26" s="393"/>
+      <c r="E26" s="384" t="str">
         <f>IF(C26="","","Action_Planning")</f>
         <v>Action_Planning</v>
       </c>
-      <c r="F26" s="441"/>
-      <c r="G26" s="441"/>
-      <c r="H26" s="442"/>
-      <c r="I26" s="421" t="s">
+      <c r="F26" s="385"/>
+      <c r="G26" s="385"/>
+      <c r="H26" s="386"/>
+      <c r="I26" s="406" t="s">
         <v>34</v>
       </c>
-      <c r="J26" s="421"/>
+      <c r="J26" s="406"/>
     </row>
     <row r="27" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B27" s="23" t="s">
         <v>35</v>
       </c>
-      <c r="C27" s="430">
+      <c r="C27" s="369">
         <f>C31/D25</f>
         <v>5.9499999999999997E-2</v>
       </c>
-      <c r="D27" s="393"/>
-      <c r="E27" s="429">
+      <c r="D27" s="368"/>
+      <c r="E27" s="367">
         <f>E31/D25</f>
-        <v>5.7250000000000002E-2</v>
-      </c>
-      <c r="F27" s="393"/>
-      <c r="G27" s="438">
+        <v>5.5399999999999998E-2</v>
+      </c>
+      <c r="F27" s="368"/>
+      <c r="G27" s="382">
         <f>G31/D25</f>
         <v>0</v>
       </c>
-      <c r="H27" s="439"/>
-      <c r="I27" s="437">
+      <c r="H27" s="383"/>
+      <c r="I27" s="381">
         <f>C27+E27+G27</f>
-        <v>0.11674999999999999</v>
-      </c>
-      <c r="J27" s="437"/>
+        <v>0.1149</v>
+      </c>
+      <c r="J27" s="381"/>
     </row>
     <row r="28" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B28" s="23" t="s">
         <v>36</v>
       </c>
-      <c r="C28" s="365">
+      <c r="C28" s="417">
         <v>3000</v>
       </c>
-      <c r="D28" s="370"/>
-      <c r="E28" s="365">
+      <c r="D28" s="408"/>
+      <c r="E28" s="417">
         <v>3000</v>
       </c>
-      <c r="F28" s="370"/>
-      <c r="G28" s="394"/>
-      <c r="H28" s="395"/>
-      <c r="I28" s="398">
+      <c r="F28" s="408"/>
+      <c r="G28" s="399"/>
+      <c r="H28" s="400"/>
+      <c r="I28" s="416">
         <f>C28+E28+G28</f>
         <v>6000</v>
       </c>
-      <c r="J28" s="398"/>
+      <c r="J28" s="416"/>
     </row>
     <row r="29" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B29" s="23" t="s">
         <v>37</v>
       </c>
-      <c r="C29" s="369">
+      <c r="C29" s="418">
         <v>11.9</v>
       </c>
-      <c r="D29" s="370"/>
-      <c r="E29" s="369">
-        <v>11.45</v>
-      </c>
-      <c r="F29" s="370"/>
-      <c r="G29" s="371"/>
-      <c r="H29" s="372"/>
-      <c r="I29" s="396"/>
-      <c r="J29" s="396"/>
+      <c r="D29" s="408"/>
+      <c r="E29" s="418">
+        <v>11.08</v>
+      </c>
+      <c r="F29" s="408"/>
+      <c r="G29" s="428"/>
+      <c r="H29" s="429"/>
+      <c r="I29" s="413"/>
+      <c r="J29" s="413"/>
     </row>
     <row r="30" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B30" s="23" t="s">
         <v>38</v>
       </c>
-      <c r="C30" s="367">
+      <c r="C30" s="419">
         <f>C29*$I$5/1000000</f>
         <v>8222.4203705</v>
       </c>
-      <c r="D30" s="377"/>
-      <c r="E30" s="367">
+      <c r="D30" s="420"/>
+      <c r="E30" s="419">
         <f>E29*$I$5/1000000</f>
-        <v>7911.4885077499994</v>
-      </c>
-      <c r="F30" s="377"/>
-      <c r="G30" s="380">
+        <v>7655.8334206</v>
+      </c>
+      <c r="F30" s="420"/>
+      <c r="G30" s="436">
         <f>G29*$I$5/1000000</f>
         <v>0</v>
       </c>
-      <c r="H30" s="381"/>
-      <c r="I30" s="397"/>
-      <c r="J30" s="397"/>
+      <c r="H30" s="437"/>
+      <c r="I30" s="414"/>
+      <c r="J30" s="414"/>
     </row>
     <row r="31" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B31" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="C31" s="389">
+      <c r="C31" s="423">
         <f>C28*C29</f>
         <v>35700</v>
       </c>
-      <c r="D31" s="390"/>
-      <c r="E31" s="391">
+      <c r="D31" s="424"/>
+      <c r="E31" s="415">
         <f>E28*E29</f>
-        <v>34350</v>
-      </c>
-      <c r="F31" s="392"/>
-      <c r="G31" s="382">
+        <v>33240</v>
+      </c>
+      <c r="F31" s="425"/>
+      <c r="G31" s="438">
         <f>G28*G29</f>
         <v>0</v>
       </c>
-      <c r="H31" s="383"/>
-      <c r="I31" s="391">
+      <c r="H31" s="439"/>
+      <c r="I31" s="415">
         <f>C31+E31+G31</f>
-        <v>70050</v>
-      </c>
-      <c r="J31" s="391"/>
+        <v>68940</v>
+      </c>
+      <c r="J31" s="415"/>
     </row>
     <row r="32" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B32" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="C32" s="387"/>
-      <c r="D32" s="388"/>
-      <c r="E32" s="368">
+      <c r="C32" s="421"/>
+      <c r="D32" s="422"/>
+      <c r="E32" s="426">
         <f>IF(C31=0,"-",(C31+E31)/(C28+E28))</f>
-        <v>11.675000000000001</v>
-      </c>
-      <c r="F32" s="393"/>
+        <v>11.49</v>
+      </c>
+      <c r="F32" s="368"/>
       <c r="G32" s="117"/>
       <c r="H32" s="117"/>
-      <c r="I32" s="368">
+      <c r="I32" s="426">
         <f>IF(I31=0,"",I31/I28)</f>
-        <v>11.675000000000001</v>
-      </c>
-      <c r="J32" s="368"/>
+        <v>11.49</v>
+      </c>
+      <c r="J32" s="426"/>
     </row>
     <row r="33" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B33" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="C33" s="378"/>
-      <c r="D33" s="379"/>
-      <c r="E33" s="367">
+      <c r="C33" s="434"/>
+      <c r="D33" s="435"/>
+      <c r="E33" s="419">
         <f>IF(E32="-","-",E32*$I$5/1000000)</f>
-        <v>8066.954439125001</v>
-      </c>
-      <c r="F33" s="377"/>
+        <v>7939.12689555</v>
+      </c>
+      <c r="F33" s="420"/>
       <c r="G33" s="118"/>
       <c r="H33" s="118"/>
-      <c r="I33" s="367">
+      <c r="I33" s="419">
         <f>IF(I32="","",I32*$I$5/1000000)</f>
-        <v>8066.954439125001</v>
-      </c>
-      <c r="J33" s="367"/>
+        <v>7939.12689555</v>
+      </c>
+      <c r="J33" s="419"/>
     </row>
     <row r="34" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="35" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B35" s="146" t="s">
         <v>326</v>
       </c>
-      <c r="C35" s="373">
+      <c r="C35" s="430">
         <f>E29</f>
-        <v>11.45</v>
-      </c>
-      <c r="D35" s="374"/>
-      <c r="G35" s="375" t="s">
+        <v>11.08</v>
+      </c>
+      <c r="D35" s="431"/>
+      <c r="G35" s="432" t="s">
         <v>327</v>
       </c>
-      <c r="H35" s="376"/>
-      <c r="I35" s="373">
-        <f ca="1">'FCFF Model'!C34*0.9</f>
-        <v>13.597424398249455</v>
-      </c>
-      <c r="J35" s="374"/>
+      <c r="H35" s="433"/>
+      <c r="I35" s="430">
+        <f ca="1">F14</f>
+        <v>13.106941291608036</v>
+      </c>
+      <c r="J35" s="431"/>
     </row>
     <row r="36" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B36" s="146" t="s">
         <v>328</v>
       </c>
-      <c r="C36" s="365">
+      <c r="C36" s="417">
         <f>E28</f>
         <v>3000</v>
       </c>
-      <c r="D36" s="366"/>
-      <c r="G36" s="384" t="s">
+      <c r="D36" s="427"/>
+      <c r="G36" s="440" t="s">
         <v>338</v>
       </c>
-      <c r="H36" s="384"/>
-      <c r="I36" s="385">
+      <c r="H36" s="440"/>
+      <c r="I36" s="441">
         <f ca="1">IF(C26="",0,I35/C29-1)</f>
-        <v>0.14264070573524834</v>
-      </c>
-      <c r="J36" s="386"/>
+        <v>0.10142363795025511</v>
+      </c>
+      <c r="J36" s="442"/>
     </row>
     <row r="37" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="38" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -5295,7 +5294,7 @@
     </row>
     <row r="42" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B42" s="3" t="s">
-        <v>344</v>
+        <v>351</v>
       </c>
       <c r="E42" s="358">
         <f ca="1">IF(F42="Strongly disagree",0,IF(F42="disagree",1,IF(F42="So-so",2,IF(F42="agree",3,4))))/4</f>
@@ -5306,7 +5305,7 @@
         <v>So-so</v>
       </c>
       <c r="G42" s="74" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="H42" s="74"/>
       <c r="I42" s="74"/>
@@ -5314,7 +5313,7 @@
     </row>
     <row r="43" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B43" s="3" t="s">
-        <v>346</v>
+        <v>352</v>
       </c>
       <c r="F43" s="360">
         <v>0.6</v>
@@ -5327,26 +5326,26 @@
     <row r="44" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="45" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B45" s="3" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="F45" s="359">
         <f ca="1">I35/C29-1</f>
-        <v>0.14264070573524834</v>
+        <v>0.10142363795025511</v>
       </c>
     </row>
     <row r="46" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B46" s="3" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="F46" s="359">
         <f ca="1">D14/C29-1</f>
-        <v>-6.4776706226707836E-2</v>
+        <v>-0.1125482155440074</v>
       </c>
     </row>
     <row r="47" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="48" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B48" s="3" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="F48" s="214">
         <f ca="1">IF(F45&lt;=0,0,AVERAGE(F39:F41,1-F43,E42))</f>
@@ -5356,32 +5355,32 @@
     </row>
     <row r="49" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B49" s="3" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="E49" s="361">
         <f ca="1">F45/ABS(F46)</f>
-        <v>2.2020370291139733</v>
+        <v>0.90115722812679799</v>
       </c>
       <c r="F49" s="362">
         <f ca="1">IF(F46&gt;=0,100,F45/ABS(F46))</f>
-        <v>2.2020370291139733</v>
+        <v>0.90115722812679799</v>
       </c>
       <c r="G49" s="74"/>
     </row>
     <row r="50" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B50" s="3" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="E50" s="107">
         <f ca="1">MAX(F48-ABS((1-F48)/F49),0)/2</f>
-        <v>0.2005343382160063</v>
+        <v>6.5527029120272029E-2</v>
       </c>
       <c r="F50" s="363">
         <f ca="1">MIN(E50,H50)</f>
-        <v>0.2005343382160063</v>
+        <v>6.5527029120272029E-2</v>
       </c>
       <c r="G50" s="364" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="H50" s="78">
         <v>0.3</v>
@@ -6305,16 +6304,34 @@
     <row r="966" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <mergeCells count="54">
-    <mergeCell ref="C12:D12"/>
-    <mergeCell ref="E27:F27"/>
-    <mergeCell ref="C27:D27"/>
-    <mergeCell ref="E16:E18"/>
-    <mergeCell ref="G23:J23"/>
-    <mergeCell ref="C16:C18"/>
-    <mergeCell ref="G16:G18"/>
-    <mergeCell ref="I27:J27"/>
-    <mergeCell ref="G27:H27"/>
-    <mergeCell ref="E26:H26"/>
+    <mergeCell ref="C36:D36"/>
+    <mergeCell ref="I33:J33"/>
+    <mergeCell ref="I32:J32"/>
+    <mergeCell ref="C29:D29"/>
+    <mergeCell ref="G29:H29"/>
+    <mergeCell ref="C35:D35"/>
+    <mergeCell ref="G35:H35"/>
+    <mergeCell ref="I35:J35"/>
+    <mergeCell ref="C30:D30"/>
+    <mergeCell ref="C33:D33"/>
+    <mergeCell ref="E33:F33"/>
+    <mergeCell ref="G30:H30"/>
+    <mergeCell ref="G31:H31"/>
+    <mergeCell ref="G36:H36"/>
+    <mergeCell ref="I36:J36"/>
+    <mergeCell ref="C28:D28"/>
+    <mergeCell ref="E29:F29"/>
+    <mergeCell ref="E30:F30"/>
+    <mergeCell ref="E28:F28"/>
+    <mergeCell ref="C32:D32"/>
+    <mergeCell ref="C31:D31"/>
+    <mergeCell ref="E31:F31"/>
+    <mergeCell ref="E32:F32"/>
+    <mergeCell ref="G28:H28"/>
+    <mergeCell ref="I29:J29"/>
+    <mergeCell ref="I30:J30"/>
+    <mergeCell ref="I31:J31"/>
+    <mergeCell ref="I28:J28"/>
     <mergeCell ref="C3:D3"/>
     <mergeCell ref="C4:D4"/>
     <mergeCell ref="C5:D5"/>
@@ -6331,34 +6348,16 @@
     <mergeCell ref="I11:J11"/>
     <mergeCell ref="C22:F22"/>
     <mergeCell ref="C11:D11"/>
-    <mergeCell ref="G28:H28"/>
-    <mergeCell ref="I29:J29"/>
-    <mergeCell ref="I30:J30"/>
-    <mergeCell ref="I31:J31"/>
-    <mergeCell ref="I28:J28"/>
-    <mergeCell ref="C28:D28"/>
-    <mergeCell ref="E29:F29"/>
-    <mergeCell ref="E30:F30"/>
-    <mergeCell ref="E28:F28"/>
-    <mergeCell ref="C32:D32"/>
-    <mergeCell ref="C31:D31"/>
-    <mergeCell ref="E31:F31"/>
-    <mergeCell ref="E32:F32"/>
-    <mergeCell ref="C36:D36"/>
-    <mergeCell ref="I33:J33"/>
-    <mergeCell ref="I32:J32"/>
-    <mergeCell ref="C29:D29"/>
-    <mergeCell ref="G29:H29"/>
-    <mergeCell ref="C35:D35"/>
-    <mergeCell ref="G35:H35"/>
-    <mergeCell ref="I35:J35"/>
-    <mergeCell ref="C30:D30"/>
-    <mergeCell ref="C33:D33"/>
-    <mergeCell ref="E33:F33"/>
-    <mergeCell ref="G30:H30"/>
-    <mergeCell ref="G31:H31"/>
-    <mergeCell ref="G36:H36"/>
-    <mergeCell ref="I36:J36"/>
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="E27:F27"/>
+    <mergeCell ref="C27:D27"/>
+    <mergeCell ref="E16:E18"/>
+    <mergeCell ref="G23:J23"/>
+    <mergeCell ref="C16:C18"/>
+    <mergeCell ref="G16:G18"/>
+    <mergeCell ref="I27:J27"/>
+    <mergeCell ref="G27:H27"/>
+    <mergeCell ref="E26:H26"/>
   </mergeCells>
   <conditionalFormatting sqref="C35:D36">
     <cfRule type="containsBlanks" priority="6">
@@ -6442,8 +6441,8 @@
   </sheetPr>
   <dimension ref="A1:N941"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+    <sheetView showGridLines="0" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C35" sqref="C35:D35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.453125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -9579,8 +9578,8 @@
   </sheetPr>
   <dimension ref="A2:K65"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A40" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="E40" sqref="E40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.453125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -9619,7 +9618,7 @@
       </c>
       <c r="C3" s="6"/>
       <c r="D3" s="274">
-        <v>20028097</v>
+        <v>20121092</v>
       </c>
       <c r="E3" s="156" t="str">
         <f>IF((C46-I46)=D3,"", "Error!")</f>
@@ -9631,7 +9630,7 @@
         <v>256</v>
       </c>
       <c r="I3" s="276">
-        <v>19868320</v>
+        <v>19966164</v>
       </c>
       <c r="K3" s="74"/>
     </row>
@@ -9642,7 +9641,7 @@
       <c r="C4" s="6"/>
       <c r="D4" s="277">
         <f>D3-I3</f>
-        <v>159777</v>
+        <v>154928</v>
       </c>
       <c r="E4" s="150"/>
       <c r="F4" s="6"/>
@@ -9652,7 +9651,7 @@
       </c>
       <c r="I4" s="91">
         <f>(I3*Dashboard!I12*Data!C4)/Dashboard!I5</f>
-        <v>28.754672875673304</v>
+        <v>28.896278819852149</v>
       </c>
       <c r="K4" s="74"/>
     </row>
@@ -9670,12 +9669,12 @@
       </c>
       <c r="C6" s="6"/>
       <c r="D6" s="59">
-        <f>E46-I46-E50</f>
-        <v>10439191.350000001</v>
+        <f>E46-I46-E50+MIN('FCFF Model'!D4,0)</f>
+        <v>10511377.950000001</v>
       </c>
       <c r="E6" s="14">
         <f>1-D6/D3</f>
-        <v>0.47877267870232498</v>
+        <v>0.47759406149527073</v>
       </c>
       <c r="F6" s="6"/>
       <c r="G6" s="6"/>
@@ -9684,7 +9683,7 @@
       </c>
       <c r="I6" s="69">
         <f>C26/I26</f>
-        <v>7.9727705482465794</v>
+        <v>9.2422738930497008</v>
       </c>
       <c r="J6" s="6"/>
       <c r="K6" s="74"/>
@@ -9694,8 +9693,8 @@
         <v>85</v>
       </c>
       <c r="D7" s="61">
-        <f>MAX(((D6+MIN('FCFF Model'!D4,0))*Dashboard!I12*Data!C4)/Dashboard!I5, 0)</f>
-        <v>15.108249331388283</v>
+        <f>MAX((D6*Exchange_Rate*Data!C4)/Dashboard!I5, 0)</f>
+        <v>15.212722284763661</v>
       </c>
       <c r="E7" s="49" t="str">
         <f>Dashboard!J4</f>
@@ -9706,7 +9705,7 @@
       </c>
       <c r="I7" s="69">
         <f>C25/I26</f>
-        <v>7.8025297553570647</v>
+        <v>9.0486159523642016</v>
       </c>
       <c r="J7" s="6"/>
       <c r="K7" s="116"/>
@@ -9718,7 +9717,7 @@
       </c>
       <c r="I8" s="69">
         <f>C24/I26</f>
-        <v>7.547516445197342</v>
+        <v>8.7052471011109471</v>
       </c>
       <c r="K8" s="74"/>
     </row>
@@ -9729,7 +9728,7 @@
       </c>
       <c r="C9" s="255"/>
       <c r="D9" s="272">
-        <v>44742</v>
+        <v>44926</v>
       </c>
       <c r="E9" s="269" t="str">
         <f>IF(D9=Data!C3,"FY","Quarter")</f>
@@ -9771,14 +9770,14 @@
         <v>91</v>
       </c>
       <c r="C11" s="64">
-        <v>5428874</v>
+        <v>5385923</v>
       </c>
       <c r="D11" s="65">
         <v>1</v>
       </c>
       <c r="E11" s="27">
         <f t="shared" ref="E11:E21" si="0">C11*D11</f>
-        <v>5428874</v>
+        <v>5385923</v>
       </c>
       <c r="F11" s="6"/>
       <c r="G11" s="6"/>
@@ -9811,7 +9810,7 @@
         <v>94</v>
       </c>
       <c r="I12" s="64">
-        <v>31060</v>
+        <v>42005</v>
       </c>
       <c r="J12" s="6"/>
       <c r="K12" s="74"/>
@@ -9846,14 +9845,14 @@
         <v>97</v>
       </c>
       <c r="C14" s="64">
-        <v>60163</v>
+        <v>58443</v>
       </c>
       <c r="D14" s="65">
         <v>0.7</v>
       </c>
       <c r="E14" s="27">
         <f t="shared" si="0"/>
-        <v>42114.1</v>
+        <v>40910.1</v>
       </c>
       <c r="F14" s="6"/>
       <c r="G14" s="6"/>
@@ -9886,7 +9885,7 @@
       </c>
       <c r="I15" s="155">
         <f>I26-SUM(I11:I14)</f>
-        <v>696204</v>
+        <v>583407</v>
       </c>
       <c r="J15" s="6"/>
     </row>
@@ -9920,14 +9919,14 @@
         <v>101</v>
       </c>
       <c r="C17" s="64">
-        <v>185462</v>
+        <v>214747</v>
       </c>
       <c r="D17" s="65">
         <v>0.6</v>
       </c>
       <c r="E17" s="27">
         <f t="shared" si="0"/>
-        <v>111277.2</v>
+        <v>128848.2</v>
       </c>
       <c r="F17" s="6"/>
       <c r="G17" s="6"/>
@@ -9940,14 +9939,14 @@
         <v>102</v>
       </c>
       <c r="C18" s="64">
-        <v>122902</v>
+        <v>119655</v>
       </c>
       <c r="D18" s="65">
         <v>0.6</v>
       </c>
       <c r="E18" s="27">
         <f t="shared" si="0"/>
-        <v>73741.2</v>
+        <v>71793</v>
       </c>
       <c r="G18" s="6"/>
     </row>
@@ -10004,14 +10003,14 @@
         <v>105</v>
       </c>
       <c r="C21" s="64">
-        <v>908</v>
+        <v>1461</v>
       </c>
       <c r="D21" s="65">
         <v>0.95</v>
       </c>
       <c r="E21" s="27">
         <f t="shared" si="0"/>
-        <v>862.59999999999991</v>
+        <v>1387.95</v>
       </c>
       <c r="F21" s="6"/>
       <c r="G21" s="6"/>
@@ -10046,15 +10045,15 @@
       </c>
       <c r="C24" s="70">
         <f>SUM(C11:C14)</f>
-        <v>5489037</v>
+        <v>5444366</v>
       </c>
       <c r="D24" s="68">
         <f>IF(E24=0,0,E24/C24)</f>
-        <v>0.99671182759380195</v>
+        <v>0.99677962502888295</v>
       </c>
       <c r="E24" s="27">
         <f>SUM(E11:E14)</f>
-        <v>5470988.0999999996</v>
+        <v>5426833.0999999996</v>
       </c>
       <c r="F24" s="6"/>
       <c r="G24" s="6"/>
@@ -10063,7 +10062,7 @@
       </c>
       <c r="I24" s="69">
         <f>E24/($I$26-I15)</f>
-        <v>176.1425660012878</v>
+        <v>129.19493155576717</v>
       </c>
       <c r="J24" s="13" t="str">
         <f>IF(I24&lt;1,"Liquidity Problem!","")</f>
@@ -10076,15 +10075,15 @@
       </c>
       <c r="C25" s="70">
         <f>C24+SUM(C15:C17)</f>
-        <v>5674499</v>
+        <v>5659113</v>
       </c>
       <c r="D25" s="68">
         <f>IF(E25=0,0,E25/C25)</f>
-        <v>0.98374593069802285</v>
+        <v>0.98172298379622391</v>
       </c>
       <c r="E25" s="27">
         <f>E24+SUM(E15:E17)</f>
-        <v>5582265.2999999998</v>
+        <v>5555681.2999999998</v>
       </c>
       <c r="F25" s="6"/>
       <c r="G25" s="6"/>
@@ -10093,7 +10092,7 @@
       </c>
       <c r="I25" s="69">
         <f>E25/$I$26</f>
-        <v>7.6757068959827519</v>
+        <v>8.8832342519810936</v>
       </c>
       <c r="J25" s="13" t="str">
         <f>IF(OR(I25&lt;0.75,C26&lt;I26),"Liquidity Problem!","")</f>
@@ -10106,21 +10105,21 @@
       </c>
       <c r="C26" s="70">
         <f>SUM(C11:C22)</f>
-        <v>5798309</v>
+        <v>5780229</v>
       </c>
       <c r="D26" s="14">
         <f t="shared" ref="D26" si="2">E26/C26</f>
-        <v>0.97560669843569903</v>
+        <v>0.97381301848075574</v>
       </c>
       <c r="E26" s="27">
         <f>SUM(E11:E22)</f>
-        <v>5656869.0999999996</v>
+        <v>5628862.25</v>
       </c>
       <c r="H26" s="5" t="s">
         <v>58</v>
       </c>
       <c r="I26" s="64">
-        <v>727264</v>
+        <v>625412</v>
       </c>
       <c r="J26" s="107">
         <f>IF(J24="",1,0)+IF(J25="",1,0)+IF(J44="",1,0)+IF(J45="",1,0)</f>
@@ -10166,14 +10165,14 @@
         <v>112</v>
       </c>
       <c r="C29" s="64">
-        <v>26790</v>
+        <v>28140</v>
       </c>
       <c r="D29" s="65">
         <v>0.6</v>
       </c>
       <c r="E29" s="27">
         <f t="shared" ref="E29:E40" si="3">C29*D29</f>
-        <v>16074</v>
+        <v>16884</v>
       </c>
       <c r="F29" s="6"/>
       <c r="G29" s="6"/>
@@ -10181,7 +10180,7 @@
         <v>113</v>
       </c>
       <c r="I29" s="64">
-        <v>33054</v>
+        <v>57055</v>
       </c>
       <c r="J29" s="6"/>
     </row>
@@ -10258,7 +10257,7 @@
       </c>
       <c r="I32" s="155">
         <f>I42-SUM(I28:I31)</f>
-        <v>448023</v>
+        <v>441451</v>
       </c>
       <c r="J32" s="6"/>
     </row>
@@ -10267,14 +10266,14 @@
         <v>119</v>
       </c>
       <c r="C33" s="64">
-        <v>982</v>
+        <v>1074</v>
       </c>
       <c r="D33" s="65">
         <v>0.6</v>
       </c>
       <c r="E33" s="220">
         <f t="shared" si="3"/>
-        <v>589.19999999999993</v>
+        <v>644.4</v>
       </c>
       <c r="F33" s="204" t="s">
         <v>240</v>
@@ -10290,14 +10289,14 @@
         <v>120</v>
       </c>
       <c r="C34" s="64">
-        <v>15186262</v>
+        <v>15159392</v>
       </c>
       <c r="D34" s="65">
         <v>0.4</v>
       </c>
       <c r="E34" s="220">
         <f t="shared" si="3"/>
-        <v>6074504.8000000007</v>
+        <v>6063756.8000000007</v>
       </c>
       <c r="F34" s="204" t="s">
         <v>239</v>
@@ -10334,14 +10333,14 @@
         <v>299</v>
       </c>
       <c r="C36" s="64">
-        <v>204824</v>
+        <v>243053</v>
       </c>
       <c r="D36" s="65">
         <v>0.2</v>
       </c>
       <c r="E36" s="27">
         <f t="shared" si="3"/>
-        <v>40964.800000000003</v>
+        <v>48610.600000000006</v>
       </c>
       <c r="F36" s="6"/>
       <c r="G36" s="6"/>
@@ -10385,14 +10384,14 @@
         <v>122</v>
       </c>
       <c r="C39" s="64">
-        <v>19271</v>
+        <v>33122</v>
       </c>
       <c r="D39" s="65">
         <v>0.95</v>
       </c>
       <c r="E39" s="27">
         <f t="shared" si="3"/>
-        <v>18307.45</v>
+        <v>31465.899999999998</v>
       </c>
       <c r="F39" s="6"/>
       <c r="G39" s="6"/>
@@ -10426,15 +10425,15 @@
       </c>
       <c r="C42" s="67">
         <f>SUM(C28:C40)</f>
-        <v>15438129</v>
+        <v>15464781</v>
       </c>
       <c r="D42" s="14">
         <f>E42/C42</f>
-        <v>0.39839285252766066</v>
+        <v>0.39841247671079216</v>
       </c>
       <c r="E42" s="27">
         <f>SUM(E28:E40)</f>
-        <v>6150440.2500000009</v>
+        <v>6161361.7000000011</v>
       </c>
       <c r="F42" s="6"/>
       <c r="G42" s="6"/>
@@ -10442,7 +10441,7 @@
         <v>125</v>
       </c>
       <c r="I42" s="64">
-        <v>481077</v>
+        <v>498506</v>
       </c>
       <c r="J42" s="6"/>
     </row>
@@ -10458,15 +10457,15 @@
       </c>
       <c r="C44" s="70">
         <f>C24+SUM(C28:C29)</f>
-        <v>5515827</v>
+        <v>5472506</v>
       </c>
       <c r="D44" s="68">
         <f>IF(E44=0,0,E44/C44)</f>
-        <v>0.99478502498356092</v>
+        <v>0.99473935706968608</v>
       </c>
       <c r="E44" s="27">
         <f>E24+SUM(E28:E29)</f>
-        <v>5487062.0999999996</v>
+        <v>5443717.0999999996</v>
       </c>
       <c r="F44" s="6"/>
       <c r="G44" s="6"/>
@@ -10475,7 +10474,7 @@
       </c>
       <c r="I44" s="69">
         <f>E44/(I46-I15-I32)</f>
-        <v>85.582900770502533</v>
+        <v>54.953736119523519</v>
       </c>
       <c r="J44" s="13" t="str">
         <f>IF(I44&lt;1,"Liquidity Problem!","")</f>
@@ -10488,15 +10487,15 @@
       </c>
       <c r="C45" s="70">
         <f>C44+(C25-C24)+SUM(C30:C33)</f>
-        <v>5702271</v>
+        <v>5688327</v>
       </c>
       <c r="D45" s="68">
         <f>IF(E45=0,0,E45/C45)</f>
-        <v>0.98187695744379744</v>
+        <v>0.97976253826476578</v>
       </c>
       <c r="E45" s="27">
         <f>E44+(E25-E24)+SUM(E30:E33)</f>
-        <v>5598928.5</v>
+        <v>5573209.7000000002</v>
       </c>
       <c r="F45" s="6"/>
       <c r="G45" s="6"/>
@@ -10505,7 +10504,7 @@
       </c>
       <c r="I45" s="69">
         <f>E45/$I$46</f>
-        <v>4.633566600818809</v>
+        <v>4.958733377346034</v>
       </c>
       <c r="J45" s="13" t="str">
         <f>IF(OR(I45&lt;0.5,C46&lt;I46),"Liquidity Problem!","")</f>
@@ -10518,15 +10517,15 @@
       </c>
       <c r="C46" s="70">
         <f>C26+C42</f>
-        <v>21236438</v>
+        <v>21245010</v>
       </c>
       <c r="D46" s="14">
         <f>E46/C46</f>
-        <v>0.55599292828674951</v>
+        <v>0.55496438693133121</v>
       </c>
       <c r="E46" s="27">
         <f>E26+E42</f>
-        <v>11807309.350000001</v>
+        <v>11790223.950000001</v>
       </c>
       <c r="F46" s="6"/>
       <c r="G46" s="6"/>
@@ -10535,7 +10534,7 @@
       </c>
       <c r="I46" s="155">
         <f>I26+I42</f>
-        <v>1208341</v>
+        <v>1123918</v>
       </c>
       <c r="J46" s="6"/>
     </row>
@@ -10569,7 +10568,7 @@
       </c>
       <c r="C50" s="218">
         <f>D4</f>
-        <v>159777</v>
+        <v>154928</v>
       </c>
       <c r="D50" s="214">
         <f>IF(E50=0, 0,E50/C50)</f>
@@ -10577,7 +10576,7 @@
       </c>
       <c r="E50" s="218">
         <f>MAX(C50,C50*Dashboard!I10)</f>
-        <v>159777</v>
+        <v>154928</v>
       </c>
       <c r="I50" s="157"/>
     </row>
@@ -10593,7 +10592,7 @@
       <c r="C52" s="5"/>
       <c r="D52" s="443">
         <f>D53+D54+D55</f>
-        <v>64114</v>
+        <v>99060</v>
       </c>
       <c r="E52" s="444"/>
       <c r="F52" s="53"/>
@@ -10606,9 +10605,9 @@
       <c r="C53" s="6"/>
       <c r="D53" s="446">
         <f>SUM(I11:I13)+SUM(I28:I30)</f>
-        <v>64114</v>
-      </c>
-      <c r="E53" s="390"/>
+        <v>99060</v>
+      </c>
+      <c r="E53" s="424"/>
       <c r="F53" s="5"/>
       <c r="G53" s="5"/>
       <c r="H53" s="3" t="s">
@@ -10616,7 +10615,7 @@
       </c>
       <c r="I53" s="14">
         <f>D53/I3</f>
-        <v>3.226946213872134E-3</v>
+        <v>4.9613936858377006E-3</v>
       </c>
     </row>
     <row r="54" spans="2:9" ht="14" x14ac:dyDescent="0.3">
@@ -10627,7 +10626,7 @@
       <c r="D54" s="451">
         <v>0</v>
       </c>
-      <c r="E54" s="370"/>
+      <c r="E54" s="408"/>
       <c r="F54" s="6" t="s">
         <v>133</v>
       </c>
@@ -10641,7 +10640,7 @@
       <c r="D55" s="451">
         <v>0</v>
       </c>
-      <c r="E55" s="370"/>
+      <c r="E55" s="408"/>
       <c r="F55" s="5" t="s">
         <v>134</v>
       </c>
@@ -10667,15 +10666,15 @@
       </c>
       <c r="C58" s="213">
         <f>C14+C15+(C19*G19)+(C20*G20)+C29+C30+(C31*G31)+(C33*G33)+(C34*G34)+(C35*G35)</f>
-        <v>87935</v>
+        <v>87657</v>
       </c>
       <c r="D58" s="129">
         <f>IF(E58=0,0,E58/C58)</f>
-        <v>0.66841758116790806</v>
+        <v>0.6666723707176837</v>
       </c>
       <c r="E58" s="221">
         <f>E14+E15+(E19*G19)+(E20*G20)+E29+E30+(E31*G31)+(E33*G33)+(E34*G34)+(E35*G35)</f>
-        <v>58777.299999999996</v>
+        <v>58438.5</v>
       </c>
       <c r="H58" s="6"/>
     </row>
@@ -10685,7 +10684,7 @@
       </c>
       <c r="C59" s="213">
         <f>C11+C12+C28</f>
-        <v>5428874</v>
+        <v>5385923</v>
       </c>
       <c r="D59" s="214">
         <f>IF(E59=0,0,E59/C59)</f>
@@ -10693,7 +10692,7 @@
       </c>
       <c r="E59" s="215">
         <f>E11+E12+E28</f>
-        <v>5428874</v>
+        <v>5385923</v>
       </c>
       <c r="F59" s="6"/>
       <c r="G59" s="6"/>
@@ -10705,7 +10704,7 @@
       <c r="C60" s="6"/>
       <c r="D60" s="449">
         <f>((Dashboard!I6*Data!C4)+D52+E50-C58-C59)</f>
-        <v>2970959.9521999992</v>
+        <v>3044285.9521999992</v>
       </c>
       <c r="E60" s="450"/>
       <c r="F60" s="6"/>
@@ -10724,11 +10723,11 @@
       <c r="B63" s="3" t="s">
         <v>264</v>
       </c>
-      <c r="D63" s="385">
+      <c r="D63" s="441">
         <f>((C26-C11-C12-C14-C15-C16*G16-C19*G19-C20*G20)-I26)/Data!C7</f>
-        <v>-0.33519135542591366</v>
-      </c>
-      <c r="E63" s="386"/>
+        <v>-0.23219181652332552</v>
+      </c>
+      <c r="E63" s="442"/>
     </row>
     <row r="64" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B64" s="3" t="s">
@@ -10786,7 +10785,7 @@
   <dimension ref="A1:M908"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScalePageLayoutView="80" workbookViewId="0">
-      <selection activeCell="G26" sqref="G26"/>
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.453125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -10876,13 +10875,16 @@
         <v>315</v>
       </c>
       <c r="C4" s="294">
-        <v>814497</v>
+        <v>800033</v>
       </c>
       <c r="D4" s="260">
         <f>C4/C9</f>
-        <v>0.65315210200276663</v>
-      </c>
-      <c r="E4" s="294"/>
+        <v>0.57879833399771818</v>
+      </c>
+      <c r="E4" s="294">
+        <f>C4*1.02</f>
+        <v>816033.66</v>
+      </c>
       <c r="F4" s="260"/>
       <c r="G4" s="222"/>
       <c r="H4" s="260"/>
@@ -10897,13 +10899,16 @@
         <v>316</v>
       </c>
       <c r="C5" s="294">
-        <v>286243</v>
+        <v>318356</v>
       </c>
       <c r="D5" s="260">
         <f>C5/C9</f>
-        <v>0.22954070688238007</v>
-      </c>
-      <c r="E5" s="294"/>
+        <v>0.23032040230612683</v>
+      </c>
+      <c r="E5" s="294">
+        <f>C5*1.04</f>
+        <v>331090.24</v>
+      </c>
       <c r="F5" s="260"/>
       <c r="G5" s="222"/>
       <c r="H5" s="260"/>
@@ -10918,13 +10923,16 @@
         <v>317</v>
       </c>
       <c r="C6" s="294">
-        <v>132813</v>
+        <v>173280</v>
       </c>
       <c r="D6" s="260">
         <f>C6/C9</f>
-        <v>0.10650387923257353</v>
-      </c>
-      <c r="E6" s="294"/>
+        <v>0.12536254793880328</v>
+      </c>
+      <c r="E6" s="294">
+        <f>C6*1.03</f>
+        <v>178478.4</v>
+      </c>
       <c r="F6" s="260"/>
       <c r="G6" s="222"/>
       <c r="H6" s="260"/>
@@ -10939,13 +10947,16 @@
         <v>318</v>
       </c>
       <c r="C7" s="294">
-        <v>13472</v>
+        <v>90562</v>
       </c>
       <c r="D7" s="260">
         <f>C7/C9</f>
-        <v>1.0803311882279827E-2</v>
-      </c>
-      <c r="E7" s="294"/>
+        <v>6.55187157573517E-2</v>
+      </c>
+      <c r="E7" s="294">
+        <f>C7*1.4</f>
+        <v>126786.79999999999</v>
+      </c>
       <c r="F7" s="260"/>
       <c r="G7" s="222"/>
       <c r="H7" s="260"/>
@@ -10966,7 +10977,9 @@
         <f>C8/C9</f>
         <v>0</v>
       </c>
-      <c r="E8" s="294"/>
+      <c r="E8" s="294">
+        <v>0</v>
+      </c>
       <c r="F8" s="260"/>
       <c r="G8" s="222"/>
       <c r="H8" s="260"/>
@@ -10982,17 +10995,17 @@
       </c>
       <c r="C9" s="180">
         <f>SUM(C4:C8)</f>
-        <v>1247025</v>
+        <v>1382231</v>
       </c>
       <c r="D9" s="259"/>
       <c r="E9" s="338">
-        <f>C9</f>
-        <v>1247025</v>
+        <f>SUM(E4:E8)</f>
+        <v>1452389.0999999999</v>
       </c>
       <c r="F9" s="259"/>
       <c r="G9" s="338">
-        <f>E9*1.1</f>
-        <v>1371727.5</v>
+        <f>E9*1.04</f>
+        <v>1510484.6639999999</v>
       </c>
       <c r="H9" s="259"/>
       <c r="I9" s="228"/>
@@ -11011,12 +11024,12 @@
       <c r="D10" s="261"/>
       <c r="E10" s="18">
         <f>E9/C9-1</f>
-        <v>0</v>
+        <v>5.0757145513304014E-2</v>
       </c>
       <c r="F10" s="261"/>
       <c r="G10" s="18">
         <f>G9/E9-1</f>
-        <v>0.10000000000000009</v>
+        <v>4.0000000000000036E-2</v>
       </c>
       <c r="H10" s="261"/>
       <c r="I10" s="73"/>
@@ -11030,7 +11043,7 @@
         <v>320</v>
       </c>
       <c r="C11" s="294">
-        <v>814497</v>
+        <v>102689</v>
       </c>
       <c r="D11" s="260"/>
       <c r="E11" s="294"/>
@@ -11048,7 +11061,7 @@
         <v>321</v>
       </c>
       <c r="C12" s="294">
-        <v>286243</v>
+        <v>411606</v>
       </c>
       <c r="D12" s="260"/>
       <c r="E12" s="294"/>
@@ -11066,7 +11079,7 @@
         <v>322</v>
       </c>
       <c r="C13" s="294">
-        <v>132813</v>
+        <v>111319</v>
       </c>
       <c r="D13" s="260"/>
       <c r="E13" s="294"/>
@@ -11084,7 +11097,7 @@
         <v>323</v>
       </c>
       <c r="C14" s="294">
-        <v>13472</v>
+        <v>77419</v>
       </c>
       <c r="D14" s="260"/>
       <c r="E14" s="294"/>
@@ -11102,18 +11115,18 @@
         <v>140</v>
       </c>
       <c r="C15" s="181">
-        <f>Data!C9</f>
-        <v>557767</v>
+        <f>SUM(C11:C14)</f>
+        <v>703033</v>
       </c>
       <c r="D15" s="262"/>
       <c r="E15" s="227">
         <f>E9*(1-E16)</f>
-        <v>557767</v>
+        <v>842385.67800000007</v>
       </c>
       <c r="F15" s="262"/>
       <c r="G15" s="282">
         <f>IF(G9="","",G9*(1-G16))</f>
-        <v>613543.70000000007</v>
+        <v>876081.10512000008</v>
       </c>
       <c r="H15" s="262"/>
       <c r="I15" s="282" t="str">
@@ -11131,17 +11144,16 @@
       </c>
       <c r="C16" s="186">
         <f>(C9-C15)/C9</f>
-        <v>0.55272187806980611</v>
+        <v>0.4913780692228723</v>
       </c>
       <c r="D16" s="186"/>
       <c r="E16" s="73">
-        <f>C16</f>
-        <v>0.55272187806980611</v>
+        <v>0.42</v>
       </c>
       <c r="F16" s="186"/>
       <c r="G16" s="73">
         <f>E16</f>
-        <v>0.55272187806980611</v>
+        <v>0.42</v>
       </c>
       <c r="H16" s="186"/>
       <c r="I16" s="73"/>
@@ -11155,17 +11167,17 @@
       </c>
       <c r="C17" s="27">
         <f>C9-C15</f>
-        <v>689258</v>
+        <v>679198</v>
       </c>
       <c r="D17" s="27"/>
       <c r="E17" s="27">
         <f>E9-E15</f>
-        <v>689258</v>
+        <v>610003.42199999979</v>
       </c>
       <c r="F17" s="27"/>
       <c r="G17" s="27">
         <f>IF(G10="","",G9-G15)</f>
-        <v>758183.79999999993</v>
+        <v>634403.55887999979</v>
       </c>
       <c r="H17" s="27"/>
       <c r="I17" s="27" t="str">
@@ -11182,17 +11194,17 @@
       </c>
       <c r="C18" s="189">
         <f>C19/C9</f>
-        <v>0.1309308153405104</v>
+        <v>0.12301634097339735</v>
       </c>
       <c r="D18" s="189"/>
       <c r="E18" s="226">
         <f>C18</f>
-        <v>0.1309308153405104</v>
+        <v>0.12301634097339735</v>
       </c>
       <c r="F18" s="189"/>
       <c r="G18" s="65">
         <f>E18</f>
-        <v>0.1309308153405104</v>
+        <v>0.12301634097339735</v>
       </c>
       <c r="H18" s="189"/>
       <c r="I18" s="65"/>
@@ -11205,17 +11217,17 @@
         <v>142</v>
       </c>
       <c r="C19" s="183">
-        <v>163274</v>
+        <v>170037</v>
       </c>
       <c r="D19" s="263"/>
       <c r="E19" s="76">
         <f>E9*E18</f>
-        <v>163274</v>
+        <v>178667.59275164569</v>
       </c>
       <c r="F19" s="263"/>
       <c r="G19" s="76">
         <f>G9*G18</f>
-        <v>179601.4</v>
+        <v>185814.29646171152</v>
       </c>
       <c r="H19" s="263"/>
       <c r="I19" s="76"/>
@@ -11229,17 +11241,17 @@
       </c>
       <c r="C20" s="18">
         <f>C22/C9</f>
-        <v>0.42179106272929573</v>
+        <v>0.36836172824947494</v>
       </c>
       <c r="D20" s="18"/>
       <c r="E20" s="18">
         <f>E22/E9</f>
-        <v>0.42179106272929573</v>
+        <v>0.29698365902660251</v>
       </c>
       <c r="F20" s="18"/>
       <c r="G20" s="18">
         <f>E20</f>
-        <v>0.42179106272929573</v>
+        <v>0.29698365902660251</v>
       </c>
       <c r="H20" s="18"/>
       <c r="I20" s="18" t="str">
@@ -11259,12 +11271,12 @@
       <c r="D21" s="264"/>
       <c r="E21" s="14">
         <f>IF(ABS(C22+E22)=ABS(C22)+ABS(E22),IF(E22&lt;0,-1,1)*(E22-C22)/C22,"Turn")</f>
-        <v>0</v>
+        <v>-0.15284982697348368</v>
       </c>
       <c r="F21" s="264"/>
       <c r="G21" s="14">
         <f>IF(G10="","",IF(ABS(E22+G22)=ABS(E22)+ABS(G22),IF(G22&lt;0,-1,1)*(G22-E22)/E22,"Turn"))</f>
-        <v>9.9999999999999825E-2</v>
+        <v>4.0000000000000084E-2</v>
       </c>
       <c r="H21" s="264"/>
       <c r="I21" s="14" t="str">
@@ -11282,17 +11294,17 @@
       </c>
       <c r="C22" s="320">
         <f>C17-C19</f>
-        <v>525984</v>
+        <v>509161</v>
       </c>
       <c r="D22" s="321"/>
       <c r="E22" s="320">
         <f>E17-E19</f>
-        <v>525984</v>
+        <v>431335.82924835407</v>
       </c>
       <c r="F22" s="321"/>
       <c r="G22" s="320">
         <f>IF(G10="","",G17-G19)</f>
-        <v>578582.39999999991</v>
+        <v>448589.26241828827</v>
       </c>
       <c r="H22" s="321"/>
       <c r="I22" s="320" t="str">
@@ -11334,17 +11346,17 @@
       </c>
       <c r="C24" s="264">
         <f>C25/C15</f>
-        <v>0.7874195497403037</v>
+        <v>0.60473610058133831</v>
       </c>
       <c r="D24" s="327"/>
       <c r="E24" s="326">
         <f>E25/E15</f>
-        <v>0.7874195497403037</v>
+        <v>0.42755406084002251</v>
       </c>
       <c r="F24" s="326"/>
       <c r="G24" s="326">
         <f>IF(G15="","",G25/G15)</f>
-        <v>0.78741954974030348</v>
+        <v>0.42755406084002251</v>
       </c>
       <c r="H24" s="326"/>
       <c r="I24" s="326" t="str">
@@ -11359,17 +11371,17 @@
       </c>
       <c r="C25" s="323">
         <f>IF(C22&lt;=0,C22,C22*(1-C23))</f>
-        <v>439196.63999999996</v>
+        <v>425149.435</v>
       </c>
       <c r="D25" s="323"/>
       <c r="E25" s="324">
         <f>IF(E22="","",IF(E22&lt;=0,E22,E22*(1-E23)))</f>
-        <v>439196.63999999996</v>
+        <v>360165.41742237564</v>
       </c>
       <c r="F25" s="323"/>
       <c r="G25" s="324">
         <f>IF(G22="","",IF(G22&lt;=0,G22,G22*(1-G23)))</f>
-        <v>483116.30399999989</v>
+        <v>374572.03411927068</v>
       </c>
       <c r="H25" s="323"/>
       <c r="I25" s="324" t="str">
@@ -12313,8 +12325,8 @@
   </sheetPr>
   <dimension ref="A1:J923"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" zoomScalePageLayoutView="80" workbookViewId="0">
-      <selection activeCell="B28" sqref="B28"/>
+    <sheetView showGridLines="0" topLeftCell="A10" zoomScaleNormal="100" zoomScalePageLayoutView="80" workbookViewId="0">
+      <selection activeCell="C34" sqref="C34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.453125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -12390,15 +12402,15 @@
       </c>
       <c r="C4" s="182">
         <f>Operation!C25</f>
-        <v>439196.63999999996</v>
+        <v>425149.435</v>
       </c>
       <c r="D4" s="45">
         <f>Operation!E25</f>
-        <v>439196.63999999996</v>
+        <v>360165.41742237564</v>
       </c>
       <c r="E4" s="45">
         <f>Operation!G25</f>
-        <v>483116.30399999989</v>
+        <v>374572.03411927068</v>
       </c>
       <c r="F4" s="201" t="str">
         <f>Operation!I25</f>
@@ -12419,11 +12431,11 @@
       <c r="C5" s="257"/>
       <c r="D5" s="258">
         <f>D4/C4-1</f>
-        <v>0</v>
+        <v>-0.1528498269734837</v>
       </c>
       <c r="E5" s="258">
         <f>IF(E4="","",E4/D4-1)</f>
-        <v>9.9999999999999867E-2</v>
+        <v>4.0000000000000036E-2</v>
       </c>
       <c r="F5" s="258" t="str">
         <f>IF(F4="","",F4/E4-1)</f>
@@ -12439,14 +12451,14 @@
         <v>68</v>
       </c>
       <c r="C6" s="65">
-        <v>0.38619999999999999</v>
+        <v>0.3</v>
       </c>
       <c r="D6" s="226">
-        <v>0.38619999999999999</v>
+        <v>0.3</v>
       </c>
       <c r="E6" s="65">
         <f>D6</f>
-        <v>0.38619999999999999</v>
+        <v>0.3</v>
       </c>
       <c r="F6" s="309"/>
       <c r="G6" s="199"/>
@@ -12459,15 +12471,15 @@
       </c>
       <c r="C7" s="310">
         <f>C4*C6</f>
-        <v>169617.74236799998</v>
+        <v>127544.8305</v>
       </c>
       <c r="D7" s="310">
         <f>D4*D6</f>
-        <v>169617.74236799998</v>
+        <v>108049.62522671268</v>
       </c>
       <c r="E7" s="311">
         <f>D7</f>
-        <v>169617.74236799998</v>
+        <v>108049.62522671268</v>
       </c>
       <c r="F7" s="311"/>
       <c r="G7" s="200"/>
@@ -12481,15 +12493,15 @@
       </c>
       <c r="C8" s="192">
         <f>IF(C4="","",C4-C7)</f>
-        <v>269578.89763199998</v>
+        <v>297604.60450000002</v>
       </c>
       <c r="D8" s="191">
         <f>D4-D7</f>
-        <v>269578.89763199998</v>
+        <v>252115.79219566297</v>
       </c>
       <c r="E8" s="191">
         <f>IF(E4="","",E4-E7)</f>
-        <v>313498.56163199991</v>
+        <v>266522.40889255801</v>
       </c>
       <c r="F8" s="191" t="str">
         <f>IF(F4="","",F4-F7)</f>
@@ -12497,7 +12509,7 @@
       </c>
       <c r="G8" s="229">
         <f>IF(F4="",IF(E4="",D8,E8),F8)</f>
-        <v>313498.56163199991</v>
+        <v>266522.40889255801</v>
       </c>
       <c r="H8" s="82"/>
       <c r="I8" s="56"/>
@@ -12509,15 +12521,15 @@
       </c>
       <c r="C9" s="193">
         <f>C8/(Common_Shares/Data!$C$4)</f>
-        <v>0.39015140764759076</v>
+        <v>0.4307119599790839</v>
       </c>
       <c r="D9" s="306">
         <f>D8/(Common_Shares/Data!$C$4)</f>
-        <v>0.39015140764759076</v>
+        <v>0.36487771142087094</v>
       </c>
       <c r="E9" s="306">
         <f>IF(E8="","",E8/(Common_Shares/Data!$C$4))</f>
-        <v>0.45371468683422977</v>
+        <v>0.38572786635920642</v>
       </c>
       <c r="F9" s="306" t="str">
         <f>IF(F8="","",F8/(Common_Shares/Data!$C$4))</f>
@@ -12525,7 +12537,7 @@
       </c>
       <c r="G9" s="307">
         <f>G8*Data!C$4/Dashboard!I5</f>
-        <v>0.45371468683422977</v>
+        <v>0.38572786635920642</v>
       </c>
       <c r="H9" s="82"/>
       <c r="I9" s="56"/>
@@ -12537,11 +12549,11 @@
       </c>
       <c r="C10" s="312">
         <f>C11/C9</f>
-        <v>1.1790294510881296</v>
+        <v>1.0679991333937846</v>
       </c>
       <c r="D10" s="312">
         <f>D11/D9</f>
-        <v>1.2046605261117844</v>
+        <v>1.3703221225899196</v>
       </c>
       <c r="E10" s="344"/>
       <c r="F10" s="344"/>
@@ -12559,8 +12571,8 @@
         <v>0.46</v>
       </c>
       <c r="D11" s="285">
-        <f>0.21+0.26</f>
-        <v>0.47</v>
+        <f>0.21+0.29</f>
+        <v>0.5</v>
       </c>
       <c r="E11" s="345"/>
       <c r="F11" s="345"/>
@@ -12577,13 +12589,13 @@
         <v>0</v>
       </c>
       <c r="D12" s="236">
-        <v>0.26</v>
+        <v>0.28999999999999998</v>
       </c>
       <c r="E12" s="346"/>
       <c r="F12" s="346"/>
       <c r="G12" s="230">
         <f>G9*D27</f>
-        <v>4.5371468683422975</v>
+        <v>3.8572786635920639</v>
       </c>
       <c r="H12" s="82"/>
       <c r="I12" s="56"/>
@@ -12649,11 +12661,11 @@
       </c>
       <c r="D15" s="195">
         <f ca="1">IF(D12="","",MAX(D9-D11+D12,D12)/D14)</f>
-        <v>0.24074074074074073</v>
+        <v>0.26851851851851849</v>
       </c>
       <c r="E15" s="196">
         <f ca="1">IF(E9="","",E9/E14)</f>
-        <v>0.38898721436405154</v>
+        <v>0.33069947390192589</v>
       </c>
       <c r="F15" s="196" t="str">
         <f>IF(F9="","",F9/F14)</f>
@@ -12661,7 +12673,7 @@
       </c>
       <c r="G15" s="233">
         <f ca="1">IF(G12=0,0,G12/G14)</f>
-        <v>3.6017334663338105</v>
+        <v>3.062032165758573</v>
       </c>
       <c r="H15" s="80"/>
       <c r="I15" s="56"/>
@@ -12689,18 +12701,18 @@
       </c>
       <c r="C18" s="84">
         <f>Asset_Model!E59</f>
-        <v>5428874</v>
+        <v>5385923</v>
       </c>
       <c r="D18" s="219">
         <f>C18/(Dashboard!I5/Data!C4)</f>
-        <v>7.857005320693851</v>
+        <v>7.7948439525115862</v>
       </c>
       <c r="E18" s="85" t="s">
         <v>234</v>
       </c>
       <c r="G18" s="137">
         <f>C18+C19+C20+C21</f>
-        <v>5263760.3</v>
+        <v>5190373.5</v>
       </c>
     </row>
     <row r="19" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -12709,18 +12721,18 @@
       </c>
       <c r="C19" s="84">
         <f>Asset_Model!E58</f>
-        <v>58777.299999999996</v>
+        <v>58438.5</v>
       </c>
       <c r="D19" s="219">
         <f>C19/(Dashboard!I5/Data!C4)</f>
-        <v>8.5066177412851843E-2</v>
+        <v>8.4575844905106959E-2</v>
       </c>
       <c r="E19" s="85" t="s">
         <v>235</v>
       </c>
       <c r="G19" s="197">
         <f>(G18+MIN(D4,0))*Data!C$4/Dashboard!I5</f>
-        <v>7.6180424677303353</v>
+        <v>7.5118325099990093</v>
       </c>
     </row>
     <row r="20" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -12729,11 +12741,11 @@
       </c>
       <c r="C20" s="84">
         <f>-Asset_Model!D52</f>
-        <v>-64114</v>
+        <v>-99060</v>
       </c>
       <c r="D20" s="219">
         <f>C20/(Dashboard!I5/Data!C4)</f>
-        <v>-9.2789782767285736E-2</v>
+        <v>-0.14336581528102013</v>
       </c>
       <c r="E20" s="454" t="str">
         <f>IF(F21+G21=G19,"⇒","Error!")</f>
@@ -12752,20 +12764,20 @@
       </c>
       <c r="C21" s="84">
         <f>-Asset_Model!E50</f>
-        <v>-159777</v>
+        <v>-154928</v>
       </c>
       <c r="D21" s="219">
         <f>C21/(Dashboard!I5/Data!C4)</f>
-        <v>-0.23123924760908088</v>
+        <v>-0.22422147213666349</v>
       </c>
       <c r="E21" s="454"/>
       <c r="F21" s="148">
         <f>D18</f>
-        <v>7.857005320693851</v>
+        <v>7.7948439525115862</v>
       </c>
       <c r="G21" s="147">
         <f>SUM(D19:D21)</f>
-        <v>-0.23896285296351477</v>
+        <v>-0.28301144251257665</v>
       </c>
     </row>
     <row r="22" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -12823,15 +12835,15 @@
       </c>
       <c r="E25" s="206">
         <f ca="1">G9*D25/G14</f>
-        <v>2.1610400798002867</v>
+        <v>1.837219299455144</v>
       </c>
       <c r="F25" s="455">
         <f ca="1">SUM(C15:F15)</f>
-        <v>0.62972795510479229</v>
+        <v>0.59921799242044438</v>
       </c>
       <c r="G25" s="206">
         <f ca="1">$F$25+E25+$G$19</f>
-        <v>10.408810502635415</v>
+        <v>9.9482698018745985</v>
       </c>
       <c r="I25" s="74"/>
     </row>
@@ -12848,12 +12860,12 @@
       </c>
       <c r="E26" s="352">
         <f ca="1">G9*D26/G14</f>
-        <v>2.8813867730670486</v>
+        <v>2.4496257326068585</v>
       </c>
       <c r="F26" s="456"/>
       <c r="G26" s="352">
         <f ca="1">$F$25+E26+$G$19</f>
-        <v>11.129157195902177</v>
+        <v>10.560676235026312</v>
       </c>
       <c r="I26" s="74" t="s">
         <v>306</v>
@@ -12872,12 +12884,12 @@
       </c>
       <c r="E27" s="207">
         <f ca="1">G9*D27/G14</f>
-        <v>3.6017334663338105</v>
+        <v>3.062032165758573</v>
       </c>
       <c r="F27" s="457"/>
       <c r="G27" s="207">
         <f ca="1">$F$25+E27+$G$19</f>
-        <v>11.849503889168938</v>
+        <v>11.173082668178026</v>
       </c>
       <c r="I27" s="74" t="s">
         <v>305</v>
@@ -12913,7 +12925,7 @@
       </c>
       <c r="C30" s="252">
         <f ca="1">MIN(Asset_Model!D7,G25*Exchange_Rate)+(ABS(Asset_Model!D7-G25*Exchange_Rate)*'Qualitative Analysis'!E8)</f>
-        <v>13.228473799887135</v>
+        <v>13.106941291608036</v>
       </c>
       <c r="D30" s="23" t="str">
         <f ca="1">IF(C30&lt;E30,"&lt;",IF(C30=E30,"=","&gt;"))</f>
@@ -12921,7 +12933,7 @@
       </c>
       <c r="E30" s="251">
         <f ca="1">G26*Exchange_Rate</f>
-        <v>11.129157195902177</v>
+        <v>10.560676235026312</v>
       </c>
       <c r="F30" s="30"/>
       <c r="H30" s="6"/>
@@ -12957,7 +12969,7 @@
       </c>
       <c r="C33" s="253">
         <f ca="1">MIN(C30,E30)+ABS(C30-E30)*'Qualitative Analysis'!$E$64</f>
-        <v>12.473933713005875</v>
+        <v>12.191758201373373</v>
       </c>
       <c r="D33" s="119" t="str">
         <f>Dashboard!J4</f>
@@ -12965,11 +12977,11 @@
       </c>
       <c r="E33" s="120">
         <f ca="1">(C33-G19)/C9</f>
-        <v>12.446171281436682</v>
+        <v>10.865557788554627</v>
       </c>
       <c r="F33" s="158">
         <f ca="1">C33/(Data!C28*Exchange_Rate*Data!C4/Common_Shares)</f>
-        <v>0.43004218371133557</v>
+        <v>0.42031410786900664</v>
       </c>
       <c r="G33" s="87"/>
       <c r="H33" s="6"/>
@@ -12981,7 +12993,7 @@
       </c>
       <c r="C34" s="254">
         <f ca="1">MAX(Asset_Model!D7,(G12/(1+G34)^G4+F25+G19)*Exchange_Rate)</f>
-        <v>15.108249331388283</v>
+        <v>15.212722284763661</v>
       </c>
       <c r="D34" s="208" t="str">
         <f>D33</f>
@@ -12989,11 +13001,11 @@
       </c>
       <c r="E34" s="120">
         <f ca="1">(C34-G19)/C9</f>
-        <v>19.198205406511239</v>
+        <v>17.879442621325445</v>
       </c>
       <c r="F34" s="158">
         <f ca="1">C34/(Data!C28*Exchange_Rate*Data!C4/Common_Shares)</f>
-        <v>0.52086091557078662</v>
+        <v>0.52446264843565482</v>
       </c>
       <c r="G34" s="281">
         <f>Dashboard!D10+4.5%</f>
@@ -13919,7 +13931,7 @@
   <dimension ref="A2:H77"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B26" sqref="B26"/>
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.453125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>

--- a/financial_models/Opportunities/0071.HK_Stock_Valuation.xlsx
+++ b/financial_models/Opportunities/0071.HK_Stock_Valuation.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jerry.chen\PycharmProjects\Invest_Proc\financial_models\Opportunities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D06905DB-BAB4-44B4-99BA-010A9CC7524C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{DCA008E9-7BC1-40B1-9B59-065137712FF3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2280" yWindow="2280" windowWidth="14400" windowHeight="7360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Dashboard" sheetId="1" r:id="rId1"/>
@@ -3935,66 +3935,78 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="10" fontId="2" fillId="16" borderId="97" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="2" fillId="16" borderId="96" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="169" fontId="1" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="3" fontId="2" fillId="9" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="7" fillId="8" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="171" fontId="1" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="8" fontId="3" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="8" fontId="4" fillId="9" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="8" fontId="4" fillId="9" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="8" fontId="4" fillId="9" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="2" fillId="9" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="7" fillId="8" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="171" fontId="1" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="171" fontId="1" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="6" fontId="3" fillId="0" borderId="45" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="6" fontId="3" fillId="0" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="7" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="7" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="6" fontId="3" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="6" fontId="3" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="168" fontId="1" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="7" fillId="0" borderId="53" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="7" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="7" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="10" fontId="2" fillId="8" borderId="71" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="2" fillId="8" borderId="72" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="2" fillId="8" borderId="73" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="71" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="72" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="73" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="175" fontId="1" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="170" fontId="1" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="170" fontId="1" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="108" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="2" fillId="9" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="2" fillId="9" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="49" fontId="2" fillId="9" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -4021,16 +4033,14 @@
     <xf numFmtId="0" fontId="13" fillId="9" borderId="93" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="9" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="9" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="2" fillId="9" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="2" fillId="9" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="165" fontId="5" fillId="0" borderId="47" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -4048,13 +4058,21 @@
     <xf numFmtId="4" fontId="5" fillId="0" borderId="44" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="71" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="72" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="73" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="9" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="9" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -4067,72 +4085,54 @@
     <xf numFmtId="10" fontId="2" fillId="8" borderId="99" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="6" fontId="3" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="1" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="2" fillId="9" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="8" fontId="4" fillId="9" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="171" fontId="1" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="6" fontId="3" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="8" fontId="3" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="7" fillId="8" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="8" fontId="4" fillId="9" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="8" fontId="4" fillId="9" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="2" fillId="9" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="7" fillId="8" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="171" fontId="1" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="171" fontId="1" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="6" fontId="3" fillId="0" borderId="45" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="6" fontId="3" fillId="0" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="7" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="7" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="2" fillId="16" borderId="97" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="2" fillId="16" borderId="96" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="169" fontId="1" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="1" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="7" fillId="0" borderId="53" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="7" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="7" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="2" fillId="8" borderId="71" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="2" fillId="8" borderId="72" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="2" fillId="8" borderId="73" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="175" fontId="1" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="170" fontId="1" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="170" fontId="1" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="108" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="68" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -4608,33 +4608,33 @@
       <c r="B3" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="387" t="s">
+      <c r="C3" s="399" t="s">
         <v>313</v>
       </c>
-      <c r="D3" s="388"/>
+      <c r="D3" s="400"/>
       <c r="E3" s="15"/>
       <c r="G3" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="I3" s="397" t="s">
+      <c r="I3" s="411" t="s">
         <v>3</v>
       </c>
-      <c r="J3" s="398"/>
+      <c r="J3" s="412"/>
     </row>
     <row r="4" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B4" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="389" t="s">
+      <c r="C4" s="401" t="s">
         <v>314</v>
       </c>
-      <c r="D4" s="390"/>
+      <c r="D4" s="402"/>
       <c r="E4" s="6"/>
       <c r="G4" s="5" t="s">
         <v>5</v>
       </c>
       <c r="I4" s="32">
-        <v>11.96</v>
+        <v>11.8</v>
       </c>
       <c r="J4" s="33" t="s">
         <v>6</v>
@@ -4645,10 +4645,10 @@
       <c r="B5" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="C5" s="391">
+      <c r="C5" s="403">
         <v>44959</v>
       </c>
-      <c r="D5" s="390"/>
+      <c r="D5" s="402"/>
       <c r="E5" s="122" t="str">
         <f ca="1">IF(C5+30&gt;=TODAY(),"Patience Premium","")</f>
         <v/>
@@ -4656,10 +4656,10 @@
       <c r="G5" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="I5" s="399">
+      <c r="I5" s="394">
         <v>690959695</v>
       </c>
-      <c r="J5" s="400"/>
+      <c r="J5" s="395"/>
       <c r="K5" s="151"/>
       <c r="L5" s="85"/>
     </row>
@@ -4682,11 +4682,11 @@
         <v>9</v>
       </c>
       <c r="H6" s="133"/>
-      <c r="I6" s="401">
+      <c r="I6" s="413">
         <f>I4*I5/1000000</f>
-        <v>8263.8779522000004</v>
-      </c>
-      <c r="J6" s="402"/>
+        <v>8153.3244010000008</v>
+      </c>
+      <c r="J6" s="414"/>
       <c r="K6" s="151"/>
     </row>
     <row r="7" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -4726,11 +4726,11 @@
       </c>
       <c r="I9" s="121">
         <f>IF(Data!F3&lt;=0,"NNI",I4/((Data!F3*I12)/(I5/Data!C4)))</f>
-        <v>25.04524197685766</v>
+        <v>24.710188572484981</v>
       </c>
       <c r="J9" s="48">
         <f>IF(I9="NNI","NNI",1/I9)</f>
-        <v>3.9927743597926557E-2</v>
+        <v>4.0469136731457772E-2</v>
       </c>
     </row>
     <row r="10" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -4749,41 +4749,41 @@
       </c>
       <c r="I10" s="138">
         <f>I4/(Data!C28*I12*Data!C4/Common_Shares)</f>
-        <v>0.41232418221245931</v>
+        <v>0.40680813964105517</v>
       </c>
       <c r="J10" s="130">
         <f>IF(Asset_Model!D60/'FCFF Model'!C4&lt;0,"Negative EV",Asset_Model!D60/'FCFF Model'!C4)</f>
-        <v>7.1605080510103445</v>
+        <v>6.900473479401426</v>
       </c>
     </row>
     <row r="11" spans="1:12" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B11" s="313" t="s">
         <v>273</v>
       </c>
-      <c r="C11" s="411">
+      <c r="C11" s="425">
         <f ca="1">C12-D10</f>
         <v>5.1000000000000004E-2</v>
       </c>
-      <c r="D11" s="412"/>
+      <c r="D11" s="426"/>
       <c r="E11" s="13"/>
       <c r="G11" s="5" t="s">
         <v>15</v>
       </c>
       <c r="H11" s="6"/>
-      <c r="I11" s="409" t="s">
+      <c r="I11" s="423" t="s">
         <v>6</v>
       </c>
-      <c r="J11" s="410"/>
+      <c r="J11" s="424"/>
     </row>
     <row r="12" spans="1:12" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
       <c r="B12" s="314" t="s">
         <v>146</v>
       </c>
-      <c r="C12" s="365">
+      <c r="C12" s="427">
         <f ca="1">IF(C10="US",6%,8%)*IF($C$5+30&gt;=TODAY(),1.2,1)</f>
         <v>0.08</v>
       </c>
-      <c r="D12" s="366"/>
+      <c r="D12" s="428"/>
       <c r="G12" s="134" t="s">
         <v>16</v>
       </c>
@@ -4852,36 +4852,36 @@
     <row r="16" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B16" s="131">
         <f>I4</f>
-        <v>11.96</v>
-      </c>
-      <c r="C16" s="375">
+        <v>11.8</v>
+      </c>
+      <c r="C16" s="434">
         <v>0.1</v>
       </c>
       <c r="D16" s="159">
         <f ca="1">H14/B16-1-C16</f>
-        <v>-8.0622223965437195E-2</v>
-      </c>
-      <c r="E16" s="370">
+        <v>-6.6800152425985498E-2</v>
+      </c>
+      <c r="E16" s="431">
         <f>'FCFF Model'!D11*Exchange_Rate</f>
         <v>0.5</v>
       </c>
       <c r="F16" s="161">
         <f>E16/B16</f>
-        <v>4.1806020066889632E-2</v>
-      </c>
-      <c r="G16" s="378" t="s">
+        <v>4.2372881355932202E-2</v>
+      </c>
+      <c r="G16" s="418" t="s">
         <v>25</v>
       </c>
-      <c r="H16" s="403">
+      <c r="H16" s="415">
         <f>('FCFF Model'!G19)*Exchange_Rate</f>
         <v>7.5118325099990093</v>
       </c>
-      <c r="I16" s="378" t="s">
+      <c r="I16" s="418" t="s">
         <v>26</v>
       </c>
       <c r="J16" s="206">
         <f>B16-$H$16</f>
-        <v>4.4481674900009915</v>
+        <v>4.2881674900009914</v>
       </c>
     </row>
     <row r="17" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -4889,19 +4889,19 @@
         <f ca="1">H14/(1+C16)</f>
         <v>11.083416546703065</v>
       </c>
-      <c r="C17" s="376"/>
+      <c r="C17" s="435"/>
       <c r="D17" s="289">
         <f ca="1">H14/B17-1-C16</f>
         <v>0</v>
       </c>
-      <c r="E17" s="371"/>
+      <c r="E17" s="432"/>
       <c r="F17" s="162">
         <f ca="1">E16/B17</f>
         <v>4.51124432518719E-2</v>
       </c>
-      <c r="G17" s="379"/>
-      <c r="H17" s="404"/>
-      <c r="I17" s="379"/>
+      <c r="G17" s="419"/>
+      <c r="H17" s="416"/>
+      <c r="I17" s="419"/>
       <c r="J17" s="205">
         <f ca="1">B17-$H$16</f>
         <v>3.5715840367040554</v>
@@ -4911,19 +4911,19 @@
       <c r="B18" s="354">
         <v>11.08</v>
       </c>
-      <c r="C18" s="377"/>
+      <c r="C18" s="436"/>
       <c r="D18" s="160">
         <f ca="1">H14/B18-1-C16</f>
         <v>3.3918784958250625E-4</v>
       </c>
-      <c r="E18" s="372"/>
+      <c r="E18" s="433"/>
       <c r="F18" s="163">
         <f>E16/B18</f>
         <v>4.5126353790613721E-2</v>
       </c>
-      <c r="G18" s="380"/>
-      <c r="H18" s="405"/>
-      <c r="I18" s="380"/>
+      <c r="G18" s="420"/>
+      <c r="H18" s="417"/>
+      <c r="I18" s="420"/>
       <c r="J18" s="207">
         <f>B18-$H$16</f>
         <v>3.5681674900009908</v>
@@ -4957,42 +4957,42 @@
       <c r="B21" s="24" t="s">
         <v>28</v>
       </c>
-      <c r="C21" s="394"/>
-      <c r="D21" s="395"/>
-      <c r="E21" s="395"/>
-      <c r="F21" s="395"/>
-      <c r="G21" s="395"/>
-      <c r="H21" s="395"/>
-      <c r="I21" s="395"/>
-      <c r="J21" s="396"/>
+      <c r="C21" s="406"/>
+      <c r="D21" s="407"/>
+      <c r="E21" s="407"/>
+      <c r="F21" s="407"/>
+      <c r="G21" s="407"/>
+      <c r="H21" s="407"/>
+      <c r="I21" s="407"/>
+      <c r="J21" s="408"/>
     </row>
     <row r="22" spans="1:10" ht="52.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="6"/>
       <c r="B22" s="24" t="s">
         <v>29</v>
       </c>
-      <c r="C22" s="407"/>
-      <c r="D22" s="408"/>
-      <c r="E22" s="408"/>
-      <c r="F22" s="408"/>
-      <c r="G22" s="407"/>
-      <c r="H22" s="407"/>
-      <c r="I22" s="408"/>
-      <c r="J22" s="408"/>
+      <c r="C22" s="422"/>
+      <c r="D22" s="370"/>
+      <c r="E22" s="370"/>
+      <c r="F22" s="370"/>
+      <c r="G22" s="422"/>
+      <c r="H22" s="422"/>
+      <c r="I22" s="370"/>
+      <c r="J22" s="370"/>
     </row>
     <row r="23" spans="1:10" ht="52.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="6"/>
       <c r="B23" s="25" t="s">
         <v>30</v>
       </c>
-      <c r="C23" s="373"/>
-      <c r="D23" s="374"/>
-      <c r="E23" s="374"/>
-      <c r="F23" s="374"/>
-      <c r="G23" s="373"/>
-      <c r="H23" s="373"/>
-      <c r="I23" s="374"/>
-      <c r="J23" s="374"/>
+      <c r="C23" s="409"/>
+      <c r="D23" s="410"/>
+      <c r="E23" s="410"/>
+      <c r="F23" s="410"/>
+      <c r="G23" s="409"/>
+      <c r="H23" s="409"/>
+      <c r="I23" s="410"/>
+      <c r="J23" s="410"/>
     </row>
     <row r="24" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B24" s="6"/>
@@ -5036,207 +5036,207 @@
       <c r="B26" s="23" t="s">
         <v>33</v>
       </c>
-      <c r="C26" s="392">
+      <c r="C26" s="404">
         <v>44988</v>
       </c>
-      <c r="D26" s="393"/>
-      <c r="E26" s="384" t="str">
+      <c r="D26" s="405"/>
+      <c r="E26" s="440" t="str">
         <f>IF(C26="","","Action_Planning")</f>
         <v>Action_Planning</v>
       </c>
-      <c r="F26" s="385"/>
-      <c r="G26" s="385"/>
-      <c r="H26" s="386"/>
-      <c r="I26" s="406" t="s">
+      <c r="F26" s="441"/>
+      <c r="G26" s="441"/>
+      <c r="H26" s="442"/>
+      <c r="I26" s="421" t="s">
         <v>34</v>
       </c>
-      <c r="J26" s="406"/>
+      <c r="J26" s="421"/>
     </row>
     <row r="27" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B27" s="23" t="s">
         <v>35</v>
       </c>
-      <c r="C27" s="369">
+      <c r="C27" s="430">
         <f>C31/D25</f>
         <v>5.9499999999999997E-2</v>
       </c>
-      <c r="D27" s="368"/>
-      <c r="E27" s="367">
+      <c r="D27" s="393"/>
+      <c r="E27" s="429">
         <f>E31/D25</f>
         <v>5.5399999999999998E-2</v>
       </c>
-      <c r="F27" s="368"/>
-      <c r="G27" s="382">
+      <c r="F27" s="393"/>
+      <c r="G27" s="438">
         <f>G31/D25</f>
         <v>0</v>
       </c>
-      <c r="H27" s="383"/>
-      <c r="I27" s="381">
+      <c r="H27" s="439"/>
+      <c r="I27" s="437">
         <f>C27+E27+G27</f>
         <v>0.1149</v>
       </c>
-      <c r="J27" s="381"/>
+      <c r="J27" s="437"/>
     </row>
     <row r="28" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B28" s="23" t="s">
         <v>36</v>
       </c>
-      <c r="C28" s="417">
+      <c r="C28" s="365">
         <v>3000</v>
       </c>
-      <c r="D28" s="408"/>
-      <c r="E28" s="417">
+      <c r="D28" s="370"/>
+      <c r="E28" s="365">
         <v>3000</v>
       </c>
-      <c r="F28" s="408"/>
-      <c r="G28" s="399"/>
-      <c r="H28" s="400"/>
-      <c r="I28" s="416">
+      <c r="F28" s="370"/>
+      <c r="G28" s="394"/>
+      <c r="H28" s="395"/>
+      <c r="I28" s="398">
         <f>C28+E28+G28</f>
         <v>6000</v>
       </c>
-      <c r="J28" s="416"/>
+      <c r="J28" s="398"/>
     </row>
     <row r="29" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B29" s="23" t="s">
         <v>37</v>
       </c>
-      <c r="C29" s="418">
+      <c r="C29" s="369">
         <v>11.9</v>
       </c>
-      <c r="D29" s="408"/>
-      <c r="E29" s="418">
+      <c r="D29" s="370"/>
+      <c r="E29" s="369">
         <v>11.08</v>
       </c>
-      <c r="F29" s="408"/>
-      <c r="G29" s="428"/>
-      <c r="H29" s="429"/>
-      <c r="I29" s="413"/>
-      <c r="J29" s="413"/>
+      <c r="F29" s="370"/>
+      <c r="G29" s="371"/>
+      <c r="H29" s="372"/>
+      <c r="I29" s="396"/>
+      <c r="J29" s="396"/>
     </row>
     <row r="30" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B30" s="23" t="s">
         <v>38</v>
       </c>
-      <c r="C30" s="419">
+      <c r="C30" s="367">
         <f>C29*$I$5/1000000</f>
         <v>8222.4203705</v>
       </c>
-      <c r="D30" s="420"/>
-      <c r="E30" s="419">
+      <c r="D30" s="377"/>
+      <c r="E30" s="367">
         <f>E29*$I$5/1000000</f>
         <v>7655.8334206</v>
       </c>
-      <c r="F30" s="420"/>
-      <c r="G30" s="436">
+      <c r="F30" s="377"/>
+      <c r="G30" s="380">
         <f>G29*$I$5/1000000</f>
         <v>0</v>
       </c>
-      <c r="H30" s="437"/>
-      <c r="I30" s="414"/>
-      <c r="J30" s="414"/>
+      <c r="H30" s="381"/>
+      <c r="I30" s="397"/>
+      <c r="J30" s="397"/>
     </row>
     <row r="31" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B31" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="C31" s="423">
+      <c r="C31" s="389">
         <f>C28*C29</f>
         <v>35700</v>
       </c>
-      <c r="D31" s="424"/>
-      <c r="E31" s="415">
+      <c r="D31" s="390"/>
+      <c r="E31" s="391">
         <f>E28*E29</f>
         <v>33240</v>
       </c>
-      <c r="F31" s="425"/>
-      <c r="G31" s="438">
+      <c r="F31" s="392"/>
+      <c r="G31" s="382">
         <f>G28*G29</f>
         <v>0</v>
       </c>
-      <c r="H31" s="439"/>
-      <c r="I31" s="415">
+      <c r="H31" s="383"/>
+      <c r="I31" s="391">
         <f>C31+E31+G31</f>
         <v>68940</v>
       </c>
-      <c r="J31" s="415"/>
+      <c r="J31" s="391"/>
     </row>
     <row r="32" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B32" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="C32" s="421"/>
-      <c r="D32" s="422"/>
-      <c r="E32" s="426">
+      <c r="C32" s="387"/>
+      <c r="D32" s="388"/>
+      <c r="E32" s="368">
         <f>IF(C31=0,"-",(C31+E31)/(C28+E28))</f>
         <v>11.49</v>
       </c>
-      <c r="F32" s="368"/>
+      <c r="F32" s="393"/>
       <c r="G32" s="117"/>
       <c r="H32" s="117"/>
-      <c r="I32" s="426">
+      <c r="I32" s="368">
         <f>IF(I31=0,"",I31/I28)</f>
         <v>11.49</v>
       </c>
-      <c r="J32" s="426"/>
+      <c r="J32" s="368"/>
     </row>
     <row r="33" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B33" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="C33" s="434"/>
-      <c r="D33" s="435"/>
-      <c r="E33" s="419">
+      <c r="C33" s="378"/>
+      <c r="D33" s="379"/>
+      <c r="E33" s="367">
         <f>IF(E32="-","-",E32*$I$5/1000000)</f>
         <v>7939.12689555</v>
       </c>
-      <c r="F33" s="420"/>
+      <c r="F33" s="377"/>
       <c r="G33" s="118"/>
       <c r="H33" s="118"/>
-      <c r="I33" s="419">
+      <c r="I33" s="367">
         <f>IF(I32="","",I32*$I$5/1000000)</f>
         <v>7939.12689555</v>
       </c>
-      <c r="J33" s="419"/>
+      <c r="J33" s="367"/>
     </row>
     <row r="34" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="35" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B35" s="146" t="s">
         <v>326</v>
       </c>
-      <c r="C35" s="430">
+      <c r="C35" s="373">
         <f>E29</f>
         <v>11.08</v>
       </c>
-      <c r="D35" s="431"/>
-      <c r="G35" s="432" t="s">
+      <c r="D35" s="374"/>
+      <c r="G35" s="375" t="s">
         <v>327</v>
       </c>
-      <c r="H35" s="433"/>
-      <c r="I35" s="430">
+      <c r="H35" s="376"/>
+      <c r="I35" s="373">
         <f ca="1">F14</f>
         <v>13.106941291608036</v>
       </c>
-      <c r="J35" s="431"/>
+      <c r="J35" s="374"/>
     </row>
     <row r="36" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B36" s="146" t="s">
         <v>328</v>
       </c>
-      <c r="C36" s="417">
+      <c r="C36" s="365">
         <f>E28</f>
         <v>3000</v>
       </c>
-      <c r="D36" s="427"/>
-      <c r="G36" s="440" t="s">
+      <c r="D36" s="366"/>
+      <c r="G36" s="384" t="s">
         <v>338</v>
       </c>
-      <c r="H36" s="440"/>
-      <c r="I36" s="441">
+      <c r="H36" s="384"/>
+      <c r="I36" s="385">
         <f ca="1">IF(C26="",0,I35/C29-1)</f>
         <v>0.10142363795025511</v>
       </c>
-      <c r="J36" s="442"/>
+      <c r="J36" s="386"/>
     </row>
     <row r="37" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="38" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -6304,34 +6304,16 @@
     <row r="966" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <mergeCells count="54">
-    <mergeCell ref="C36:D36"/>
-    <mergeCell ref="I33:J33"/>
-    <mergeCell ref="I32:J32"/>
-    <mergeCell ref="C29:D29"/>
-    <mergeCell ref="G29:H29"/>
-    <mergeCell ref="C35:D35"/>
-    <mergeCell ref="G35:H35"/>
-    <mergeCell ref="I35:J35"/>
-    <mergeCell ref="C30:D30"/>
-    <mergeCell ref="C33:D33"/>
-    <mergeCell ref="E33:F33"/>
-    <mergeCell ref="G30:H30"/>
-    <mergeCell ref="G31:H31"/>
-    <mergeCell ref="G36:H36"/>
-    <mergeCell ref="I36:J36"/>
-    <mergeCell ref="C28:D28"/>
-    <mergeCell ref="E29:F29"/>
-    <mergeCell ref="E30:F30"/>
-    <mergeCell ref="E28:F28"/>
-    <mergeCell ref="C32:D32"/>
-    <mergeCell ref="C31:D31"/>
-    <mergeCell ref="E31:F31"/>
-    <mergeCell ref="E32:F32"/>
-    <mergeCell ref="G28:H28"/>
-    <mergeCell ref="I29:J29"/>
-    <mergeCell ref="I30:J30"/>
-    <mergeCell ref="I31:J31"/>
-    <mergeCell ref="I28:J28"/>
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="E27:F27"/>
+    <mergeCell ref="C27:D27"/>
+    <mergeCell ref="E16:E18"/>
+    <mergeCell ref="G23:J23"/>
+    <mergeCell ref="C16:C18"/>
+    <mergeCell ref="G16:G18"/>
+    <mergeCell ref="I27:J27"/>
+    <mergeCell ref="G27:H27"/>
+    <mergeCell ref="E26:H26"/>
     <mergeCell ref="C3:D3"/>
     <mergeCell ref="C4:D4"/>
     <mergeCell ref="C5:D5"/>
@@ -6348,16 +6330,34 @@
     <mergeCell ref="I11:J11"/>
     <mergeCell ref="C22:F22"/>
     <mergeCell ref="C11:D11"/>
-    <mergeCell ref="C12:D12"/>
-    <mergeCell ref="E27:F27"/>
-    <mergeCell ref="C27:D27"/>
-    <mergeCell ref="E16:E18"/>
-    <mergeCell ref="G23:J23"/>
-    <mergeCell ref="C16:C18"/>
-    <mergeCell ref="G16:G18"/>
-    <mergeCell ref="I27:J27"/>
-    <mergeCell ref="G27:H27"/>
-    <mergeCell ref="E26:H26"/>
+    <mergeCell ref="G28:H28"/>
+    <mergeCell ref="I29:J29"/>
+    <mergeCell ref="I30:J30"/>
+    <mergeCell ref="I31:J31"/>
+    <mergeCell ref="I28:J28"/>
+    <mergeCell ref="C28:D28"/>
+    <mergeCell ref="E29:F29"/>
+    <mergeCell ref="E30:F30"/>
+    <mergeCell ref="E28:F28"/>
+    <mergeCell ref="C32:D32"/>
+    <mergeCell ref="C31:D31"/>
+    <mergeCell ref="E31:F31"/>
+    <mergeCell ref="E32:F32"/>
+    <mergeCell ref="C36:D36"/>
+    <mergeCell ref="I33:J33"/>
+    <mergeCell ref="I32:J32"/>
+    <mergeCell ref="C29:D29"/>
+    <mergeCell ref="G29:H29"/>
+    <mergeCell ref="C35:D35"/>
+    <mergeCell ref="G35:H35"/>
+    <mergeCell ref="I35:J35"/>
+    <mergeCell ref="C30:D30"/>
+    <mergeCell ref="C33:D33"/>
+    <mergeCell ref="E33:F33"/>
+    <mergeCell ref="G30:H30"/>
+    <mergeCell ref="G31:H31"/>
+    <mergeCell ref="G36:H36"/>
+    <mergeCell ref="I36:J36"/>
   </mergeCells>
   <conditionalFormatting sqref="C35:D36">
     <cfRule type="containsBlanks" priority="6">
@@ -10607,7 +10607,7 @@
         <f>SUM(I11:I13)+SUM(I28:I30)</f>
         <v>99060</v>
       </c>
-      <c r="E53" s="424"/>
+      <c r="E53" s="390"/>
       <c r="F53" s="5"/>
       <c r="G53" s="5"/>
       <c r="H53" s="3" t="s">
@@ -10626,7 +10626,7 @@
       <c r="D54" s="451">
         <v>0</v>
       </c>
-      <c r="E54" s="408"/>
+      <c r="E54" s="370"/>
       <c r="F54" s="6" t="s">
         <v>133</v>
       </c>
@@ -10640,7 +10640,7 @@
       <c r="D55" s="451">
         <v>0</v>
       </c>
-      <c r="E55" s="408"/>
+      <c r="E55" s="370"/>
       <c r="F55" s="5" t="s">
         <v>134</v>
       </c>
@@ -10704,7 +10704,7 @@
       <c r="C60" s="6"/>
       <c r="D60" s="449">
         <f>((Dashboard!I6*Data!C4)+D52+E50-C58-C59)</f>
-        <v>3044285.9521999992</v>
+        <v>2933732.4010000005</v>
       </c>
       <c r="E60" s="450"/>
       <c r="F60" s="6"/>
@@ -10723,11 +10723,11 @@
       <c r="B63" s="3" t="s">
         <v>264</v>
       </c>
-      <c r="D63" s="441">
+      <c r="D63" s="385">
         <f>((C26-C11-C12-C14-C15-C16*G16-C19*G19-C20*G20)-I26)/Data!C7</f>
         <v>-0.23219181652332552</v>
       </c>
-      <c r="E63" s="442"/>
+      <c r="E63" s="386"/>
     </row>
     <row r="64" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B64" s="3" t="s">

--- a/financial_models/Opportunities/0071.HK_Stock_Valuation.xlsx
+++ b/financial_models/Opportunities/0071.HK_Stock_Valuation.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jerry.chen\PycharmProjects\Invest_Proc\financial_models\Opportunities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{DCA008E9-7BC1-40B1-9B59-065137712FF3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DBD92466-572B-43C7-AE39-4C3014E8DA95}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2280" yWindow="2280" windowWidth="14400" windowHeight="7360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Dashboard" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="417" uniqueCount="353">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="418" uniqueCount="354">
   <si>
     <t>Company Info:</t>
   </si>
@@ -1240,6 +1240,9 @@
   </si>
   <si>
     <t>5. The probability of a recession affecting the company</t>
+  </si>
+  <si>
+    <t>FY</t>
   </si>
 </sst>
 </file>
@@ -3011,7 +3014,7 @@
     <xf numFmtId="43" fontId="26" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="459">
+  <cellXfs count="458">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -3665,9 +3668,6 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="182" fontId="2" fillId="8" borderId="47" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -3935,20 +3935,167 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="10" fontId="2" fillId="16" borderId="97" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="2" fillId="16" borderId="96" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="169" fontId="1" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="168" fontId="1" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="7" fillId="0" borderId="53" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="7" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="7" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="2" fillId="8" borderId="71" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="2" fillId="8" borderId="72" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="2" fillId="8" borderId="73" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="71" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="72" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="73" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="175" fontId="1" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="170" fontId="1" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="170" fontId="1" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="108" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="9" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="2" fillId="9" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="2" fillId="9" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="7" fillId="8" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="91" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="92" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="93" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="2" fillId="9" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="2" fillId="9" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="47" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="48" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="5" fillId="0" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="5" fillId="0" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="5" fillId="0" borderId="44" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="2" fillId="8" borderId="98" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="2" fillId="8" borderId="99" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="6" fontId="3" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="3" fontId="2" fillId="9" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="8" fontId="4" fillId="9" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="171" fontId="1" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="6" fontId="3" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="8" fontId="3" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="3" fontId="7" fillId="8" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="171" fontId="1" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="8" fontId="3" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="8" fontId="4" fillId="9" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="8" fontId="4" fillId="9" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -3965,7 +4112,6 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="12" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="12" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="171" fontId="1" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3987,152 +4133,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="10" fontId="7" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="6" fontId="3" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="6" fontId="3" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="2" fillId="9" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="2" fillId="9" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="1" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="9" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="2" fillId="9" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="2" fillId="9" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="7" fillId="8" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="91" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="92" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="93" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="5" fillId="0" borderId="47" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="5" fillId="0" borderId="48" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="5" fillId="0" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="5" fillId="0" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="5" fillId="0" borderId="44" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="71" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="72" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="73" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="2" fillId="8" borderId="98" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="2" fillId="8" borderId="99" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="2" fillId="16" borderId="97" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="2" fillId="16" borderId="96" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="169" fontId="1" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="1" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="7" fillId="0" borderId="53" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="7" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="7" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="2" fillId="8" borderId="71" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="2" fillId="8" borderId="72" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="2" fillId="8" borderId="73" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="175" fontId="1" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="170" fontId="1" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="170" fontId="1" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="108" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="68" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -4563,8 +4563,8 @@
   </sheetPr>
   <dimension ref="A1:L966"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A25" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F47" sqref="F47"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.453125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -4592,7 +4592,7 @@
       <c r="B2" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="308" t="str">
+      <c r="C2" s="307" t="str">
         <f>C3&amp;" : "&amp;C4</f>
         <v>0071.HK : MIRAMAR HOTEL</v>
       </c>
@@ -4608,27 +4608,27 @@
       <c r="B3" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="399" t="s">
+      <c r="C3" s="386" t="s">
         <v>313</v>
       </c>
-      <c r="D3" s="400"/>
+      <c r="D3" s="387"/>
       <c r="E3" s="15"/>
       <c r="G3" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="I3" s="411" t="s">
+      <c r="I3" s="396" t="s">
         <v>3</v>
       </c>
-      <c r="J3" s="412"/>
+      <c r="J3" s="397"/>
     </row>
     <row r="4" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B4" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="401" t="s">
+      <c r="C4" s="388" t="s">
         <v>314</v>
       </c>
-      <c r="D4" s="402"/>
+      <c r="D4" s="389"/>
       <c r="E4" s="6"/>
       <c r="G4" s="5" t="s">
         <v>5</v>
@@ -4645,10 +4645,10 @@
       <c r="B5" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="C5" s="403">
+      <c r="C5" s="390">
         <v>44959</v>
       </c>
-      <c r="D5" s="402"/>
+      <c r="D5" s="389"/>
       <c r="E5" s="122" t="str">
         <f ca="1">IF(C5+30&gt;=TODAY(),"Patience Premium","")</f>
         <v/>
@@ -4656,10 +4656,10 @@
       <c r="G5" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="I5" s="394">
+      <c r="I5" s="398">
         <v>690959695</v>
       </c>
-      <c r="J5" s="395"/>
+      <c r="J5" s="399"/>
       <c r="K5" s="151"/>
       <c r="L5" s="85"/>
     </row>
@@ -4667,26 +4667,26 @@
       <c r="B6" s="12" t="s">
         <v>252</v>
       </c>
-      <c r="C6" s="270">
+      <c r="C6" s="269">
         <v>8</v>
       </c>
-      <c r="D6" s="271">
+      <c r="D6" s="270">
         <f>EOMONTH(EDATE(Asset_Model!D9,C6),0)</f>
         <v>45169</v>
       </c>
-      <c r="E6" s="353">
-        <f>Data!C3</f>
-        <v>44561</v>
+      <c r="E6" s="352">
+        <f>IF(Asset_Model!E9="FY",Asset_Model!D9,Data!C3)</f>
+        <v>44926</v>
       </c>
       <c r="G6" s="134" t="s">
         <v>9</v>
       </c>
       <c r="H6" s="133"/>
-      <c r="I6" s="413">
+      <c r="I6" s="400">
         <f>I4*I5/1000000</f>
         <v>8153.3244010000008</v>
       </c>
-      <c r="J6" s="414"/>
+      <c r="J6" s="401"/>
       <c r="K6" s="151"/>
     </row>
     <row r="7" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -4718,8 +4718,8 @@
       <c r="B9" s="21" t="s">
         <v>12</v>
       </c>
-      <c r="C9" s="301"/>
-      <c r="D9" s="299"/>
+      <c r="C9" s="300"/>
+      <c r="D9" s="298"/>
       <c r="E9" s="5"/>
       <c r="G9" s="5" t="s">
         <v>13</v>
@@ -4737,10 +4737,10 @@
       <c r="B10" s="3" t="s">
         <v>269</v>
       </c>
-      <c r="C10" s="300" t="s">
+      <c r="C10" s="299" t="s">
         <v>270</v>
       </c>
-      <c r="D10" s="300">
+      <c r="D10" s="299">
         <v>2.8999999999999998E-2</v>
       </c>
       <c r="E10" s="5"/>
@@ -4757,33 +4757,33 @@
       </c>
     </row>
     <row r="11" spans="1:12" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B11" s="313" t="s">
+      <c r="B11" s="312" t="s">
         <v>273</v>
       </c>
-      <c r="C11" s="425">
+      <c r="C11" s="410">
         <f ca="1">C12-D10</f>
         <v>5.1000000000000004E-2</v>
       </c>
-      <c r="D11" s="426"/>
+      <c r="D11" s="411"/>
       <c r="E11" s="13"/>
       <c r="G11" s="5" t="s">
         <v>15</v>
       </c>
       <c r="H11" s="6"/>
-      <c r="I11" s="423" t="s">
+      <c r="I11" s="408" t="s">
         <v>6</v>
       </c>
-      <c r="J11" s="424"/>
+      <c r="J11" s="409"/>
     </row>
     <row r="12" spans="1:12" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="314" t="s">
+      <c r="B12" s="313" t="s">
         <v>146</v>
       </c>
-      <c r="C12" s="427">
+      <c r="C12" s="364">
         <f ca="1">IF(C10="US",6%,8%)*IF($C$5+30&gt;=TODAY(),1.2,1)</f>
         <v>0.08</v>
       </c>
-      <c r="D12" s="428"/>
+      <c r="D12" s="365"/>
       <c r="G12" s="134" t="s">
         <v>16</v>
       </c>
@@ -4854,14 +4854,14 @@
         <f>I4</f>
         <v>11.8</v>
       </c>
-      <c r="C16" s="434">
+      <c r="C16" s="374">
         <v>0.1</v>
       </c>
       <c r="D16" s="159">
         <f ca="1">H14/B16-1-C16</f>
         <v>-6.6800152425985498E-2</v>
       </c>
-      <c r="E16" s="431">
+      <c r="E16" s="369">
         <f>'FCFF Model'!D11*Exchange_Rate</f>
         <v>0.5</v>
       </c>
@@ -4869,14 +4869,14 @@
         <f>E16/B16</f>
         <v>4.2372881355932202E-2</v>
       </c>
-      <c r="G16" s="418" t="s">
+      <c r="G16" s="377" t="s">
         <v>25</v>
       </c>
-      <c r="H16" s="415">
+      <c r="H16" s="402">
         <f>('FCFF Model'!G19)*Exchange_Rate</f>
         <v>7.5118325099990093</v>
       </c>
-      <c r="I16" s="418" t="s">
+      <c r="I16" s="377" t="s">
         <v>26</v>
       </c>
       <c r="J16" s="206">
@@ -4885,45 +4885,45 @@
       </c>
     </row>
     <row r="17" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B17" s="290">
+      <c r="B17" s="289">
         <f ca="1">H14/(1+C16)</f>
         <v>11.083416546703065</v>
       </c>
-      <c r="C17" s="435"/>
-      <c r="D17" s="289">
+      <c r="C17" s="375"/>
+      <c r="D17" s="288">
         <f ca="1">H14/B17-1-C16</f>
         <v>0</v>
       </c>
-      <c r="E17" s="432"/>
+      <c r="E17" s="370"/>
       <c r="F17" s="162">
         <f ca="1">E16/B17</f>
         <v>4.51124432518719E-2</v>
       </c>
-      <c r="G17" s="419"/>
-      <c r="H17" s="416"/>
-      <c r="I17" s="419"/>
+      <c r="G17" s="378"/>
+      <c r="H17" s="403"/>
+      <c r="I17" s="378"/>
       <c r="J17" s="205">
         <f ca="1">B17-$H$16</f>
         <v>3.5715840367040554</v>
       </c>
     </row>
     <row r="18" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B18" s="354">
+      <c r="B18" s="353">
         <v>11.08</v>
       </c>
-      <c r="C18" s="436"/>
+      <c r="C18" s="376"/>
       <c r="D18" s="160">
         <f ca="1">H14/B18-1-C16</f>
         <v>3.3918784958250625E-4</v>
       </c>
-      <c r="E18" s="433"/>
+      <c r="E18" s="371"/>
       <c r="F18" s="163">
         <f>E16/B18</f>
         <v>4.5126353790613721E-2</v>
       </c>
-      <c r="G18" s="420"/>
-      <c r="H18" s="417"/>
-      <c r="I18" s="420"/>
+      <c r="G18" s="379"/>
+      <c r="H18" s="404"/>
+      <c r="I18" s="379"/>
       <c r="J18" s="207">
         <f>B18-$H$16</f>
         <v>3.5681674900009908</v>
@@ -4941,7 +4941,7 @@
       <c r="C20" s="5" t="s">
         <v>250</v>
       </c>
-      <c r="D20" s="291" t="s">
+      <c r="D20" s="290" t="s">
         <v>329</v>
       </c>
       <c r="E20" s="266" t="s">
@@ -4957,42 +4957,42 @@
       <c r="B21" s="24" t="s">
         <v>28</v>
       </c>
-      <c r="C21" s="406"/>
-      <c r="D21" s="407"/>
-      <c r="E21" s="407"/>
-      <c r="F21" s="407"/>
-      <c r="G21" s="407"/>
-      <c r="H21" s="407"/>
-      <c r="I21" s="407"/>
-      <c r="J21" s="408"/>
+      <c r="C21" s="393"/>
+      <c r="D21" s="394"/>
+      <c r="E21" s="394"/>
+      <c r="F21" s="394"/>
+      <c r="G21" s="394"/>
+      <c r="H21" s="394"/>
+      <c r="I21" s="394"/>
+      <c r="J21" s="395"/>
     </row>
     <row r="22" spans="1:10" ht="52.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="6"/>
       <c r="B22" s="24" t="s">
         <v>29</v>
       </c>
-      <c r="C22" s="422"/>
-      <c r="D22" s="370"/>
-      <c r="E22" s="370"/>
-      <c r="F22" s="370"/>
-      <c r="G22" s="422"/>
-      <c r="H22" s="422"/>
-      <c r="I22" s="370"/>
-      <c r="J22" s="370"/>
+      <c r="C22" s="406"/>
+      <c r="D22" s="407"/>
+      <c r="E22" s="407"/>
+      <c r="F22" s="407"/>
+      <c r="G22" s="406"/>
+      <c r="H22" s="406"/>
+      <c r="I22" s="407"/>
+      <c r="J22" s="407"/>
     </row>
     <row r="23" spans="1:10" ht="52.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="6"/>
       <c r="B23" s="25" t="s">
         <v>30</v>
       </c>
-      <c r="C23" s="409"/>
-      <c r="D23" s="410"/>
-      <c r="E23" s="410"/>
-      <c r="F23" s="410"/>
-      <c r="G23" s="409"/>
-      <c r="H23" s="409"/>
-      <c r="I23" s="410"/>
-      <c r="J23" s="410"/>
+      <c r="C23" s="372"/>
+      <c r="D23" s="373"/>
+      <c r="E23" s="373"/>
+      <c r="F23" s="373"/>
+      <c r="G23" s="372"/>
+      <c r="H23" s="372"/>
+      <c r="I23" s="373"/>
+      <c r="J23" s="373"/>
     </row>
     <row r="24" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B24" s="6"/>
@@ -5021,13 +5021,13 @@
         <v>324</v>
       </c>
       <c r="G25" s="12"/>
-      <c r="H25" s="355">
+      <c r="H25" s="354">
         <v>0.15</v>
       </c>
       <c r="I25" s="30" t="s">
         <v>325</v>
       </c>
-      <c r="J25" s="356">
+      <c r="J25" s="355">
         <f ca="1">H14/(H25+C16+1)</f>
         <v>9.7534065610986982</v>
       </c>
@@ -5036,214 +5036,214 @@
       <c r="B26" s="23" t="s">
         <v>33</v>
       </c>
-      <c r="C26" s="404">
+      <c r="C26" s="391">
         <v>44988</v>
       </c>
-      <c r="D26" s="405"/>
-      <c r="E26" s="440" t="str">
+      <c r="D26" s="392"/>
+      <c r="E26" s="383" t="str">
         <f>IF(C26="","","Action_Planning")</f>
         <v>Action_Planning</v>
       </c>
-      <c r="F26" s="441"/>
-      <c r="G26" s="441"/>
-      <c r="H26" s="442"/>
-      <c r="I26" s="421" t="s">
+      <c r="F26" s="384"/>
+      <c r="G26" s="384"/>
+      <c r="H26" s="385"/>
+      <c r="I26" s="405" t="s">
         <v>34</v>
       </c>
-      <c r="J26" s="421"/>
+      <c r="J26" s="405"/>
     </row>
     <row r="27" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B27" s="23" t="s">
         <v>35</v>
       </c>
-      <c r="C27" s="430">
+      <c r="C27" s="368">
         <f>C31/D25</f>
         <v>5.9499999999999997E-2</v>
       </c>
-      <c r="D27" s="393"/>
-      <c r="E27" s="429">
+      <c r="D27" s="367"/>
+      <c r="E27" s="366">
         <f>E31/D25</f>
         <v>5.5399999999999998E-2</v>
       </c>
-      <c r="F27" s="393"/>
-      <c r="G27" s="438">
+      <c r="F27" s="367"/>
+      <c r="G27" s="381">
         <f>G31/D25</f>
         <v>0</v>
       </c>
-      <c r="H27" s="439"/>
-      <c r="I27" s="437">
+      <c r="H27" s="382"/>
+      <c r="I27" s="380">
         <f>C27+E27+G27</f>
         <v>0.1149</v>
       </c>
-      <c r="J27" s="437"/>
+      <c r="J27" s="380"/>
     </row>
     <row r="28" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B28" s="23" t="s">
         <v>36</v>
       </c>
-      <c r="C28" s="365">
+      <c r="C28" s="416">
         <v>3000</v>
       </c>
-      <c r="D28" s="370"/>
-      <c r="E28" s="365">
+      <c r="D28" s="407"/>
+      <c r="E28" s="416">
         <v>3000</v>
       </c>
-      <c r="F28" s="370"/>
-      <c r="G28" s="394"/>
-      <c r="H28" s="395"/>
-      <c r="I28" s="398">
+      <c r="F28" s="407"/>
+      <c r="G28" s="398"/>
+      <c r="H28" s="399"/>
+      <c r="I28" s="415">
         <f>C28+E28+G28</f>
         <v>6000</v>
       </c>
-      <c r="J28" s="398"/>
+      <c r="J28" s="415"/>
     </row>
     <row r="29" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B29" s="23" t="s">
         <v>37</v>
       </c>
-      <c r="C29" s="369">
+      <c r="C29" s="417">
         <v>11.9</v>
       </c>
-      <c r="D29" s="370"/>
-      <c r="E29" s="369">
+      <c r="D29" s="407"/>
+      <c r="E29" s="417">
         <v>11.08</v>
       </c>
-      <c r="F29" s="370"/>
-      <c r="G29" s="371"/>
-      <c r="H29" s="372"/>
-      <c r="I29" s="396"/>
-      <c r="J29" s="396"/>
+      <c r="F29" s="407"/>
+      <c r="G29" s="427"/>
+      <c r="H29" s="428"/>
+      <c r="I29" s="412"/>
+      <c r="J29" s="412"/>
     </row>
     <row r="30" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B30" s="23" t="s">
         <v>38</v>
       </c>
-      <c r="C30" s="367">
+      <c r="C30" s="418">
         <f>C29*$I$5/1000000</f>
         <v>8222.4203705</v>
       </c>
-      <c r="D30" s="377"/>
-      <c r="E30" s="367">
+      <c r="D30" s="419"/>
+      <c r="E30" s="418">
         <f>E29*$I$5/1000000</f>
         <v>7655.8334206</v>
       </c>
-      <c r="F30" s="377"/>
-      <c r="G30" s="380">
+      <c r="F30" s="419"/>
+      <c r="G30" s="435">
         <f>G29*$I$5/1000000</f>
         <v>0</v>
       </c>
-      <c r="H30" s="381"/>
-      <c r="I30" s="397"/>
-      <c r="J30" s="397"/>
+      <c r="H30" s="436"/>
+      <c r="I30" s="413"/>
+      <c r="J30" s="413"/>
     </row>
     <row r="31" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B31" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="C31" s="389">
+      <c r="C31" s="422">
         <f>C28*C29</f>
         <v>35700</v>
       </c>
-      <c r="D31" s="390"/>
-      <c r="E31" s="391">
+      <c r="D31" s="423"/>
+      <c r="E31" s="414">
         <f>E28*E29</f>
         <v>33240</v>
       </c>
-      <c r="F31" s="392"/>
-      <c r="G31" s="382">
+      <c r="F31" s="424"/>
+      <c r="G31" s="437">
         <f>G28*G29</f>
         <v>0</v>
       </c>
-      <c r="H31" s="383"/>
-      <c r="I31" s="391">
+      <c r="H31" s="438"/>
+      <c r="I31" s="414">
         <f>C31+E31+G31</f>
         <v>68940</v>
       </c>
-      <c r="J31" s="391"/>
+      <c r="J31" s="414"/>
     </row>
     <row r="32" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B32" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="C32" s="387"/>
-      <c r="D32" s="388"/>
-      <c r="E32" s="368">
+      <c r="C32" s="420"/>
+      <c r="D32" s="421"/>
+      <c r="E32" s="425">
         <f>IF(C31=0,"-",(C31+E31)/(C28+E28))</f>
         <v>11.49</v>
       </c>
-      <c r="F32" s="393"/>
+      <c r="F32" s="367"/>
       <c r="G32" s="117"/>
       <c r="H32" s="117"/>
-      <c r="I32" s="368">
+      <c r="I32" s="425">
         <f>IF(I31=0,"",I31/I28)</f>
         <v>11.49</v>
       </c>
-      <c r="J32" s="368"/>
+      <c r="J32" s="425"/>
     </row>
     <row r="33" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B33" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="C33" s="378"/>
-      <c r="D33" s="379"/>
-      <c r="E33" s="367">
+      <c r="C33" s="433"/>
+      <c r="D33" s="434"/>
+      <c r="E33" s="418">
         <f>IF(E32="-","-",E32*$I$5/1000000)</f>
         <v>7939.12689555</v>
       </c>
-      <c r="F33" s="377"/>
+      <c r="F33" s="419"/>
       <c r="G33" s="118"/>
       <c r="H33" s="118"/>
-      <c r="I33" s="367">
+      <c r="I33" s="418">
         <f>IF(I32="","",I32*$I$5/1000000)</f>
         <v>7939.12689555</v>
       </c>
-      <c r="J33" s="367"/>
+      <c r="J33" s="418"/>
     </row>
     <row r="34" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="35" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B35" s="146" t="s">
         <v>326</v>
       </c>
-      <c r="C35" s="373">
+      <c r="C35" s="429">
         <f>E29</f>
         <v>11.08</v>
       </c>
-      <c r="D35" s="374"/>
-      <c r="G35" s="375" t="s">
+      <c r="D35" s="430"/>
+      <c r="G35" s="431" t="s">
         <v>327</v>
       </c>
-      <c r="H35" s="376"/>
-      <c r="I35" s="373">
+      <c r="H35" s="432"/>
+      <c r="I35" s="429">
         <f ca="1">F14</f>
         <v>13.106941291608036</v>
       </c>
-      <c r="J35" s="374"/>
+      <c r="J35" s="430"/>
     </row>
     <row r="36" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B36" s="146" t="s">
         <v>328</v>
       </c>
-      <c r="C36" s="365">
+      <c r="C36" s="416">
         <f>E28</f>
         <v>3000</v>
       </c>
-      <c r="D36" s="366"/>
-      <c r="G36" s="384" t="s">
+      <c r="D36" s="426"/>
+      <c r="G36" s="439" t="s">
         <v>338</v>
       </c>
-      <c r="H36" s="384"/>
-      <c r="I36" s="385">
+      <c r="H36" s="439"/>
+      <c r="I36" s="440">
         <f ca="1">IF(C26="",0,I35/C29-1)</f>
         <v>0.10142363795025511</v>
       </c>
-      <c r="J36" s="386"/>
+      <c r="J36" s="441"/>
     </row>
     <row r="37" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="38" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B38" s="21" t="s">
         <v>339</v>
       </c>
-      <c r="G38" s="347" t="s">
+      <c r="G38" s="346" t="s">
         <v>137</v>
       </c>
       <c r="H38" s="133"/>
@@ -5258,7 +5258,7 @@
         <f>'Qualitative Analysis'!E8</f>
         <v>0.6</v>
       </c>
-      <c r="G39" s="357"/>
+      <c r="G39" s="356"/>
       <c r="H39" s="116"/>
       <c r="I39" s="116"/>
       <c r="J39" s="116"/>
@@ -5280,12 +5280,12 @@
       <c r="B41" s="3" t="s">
         <v>342</v>
       </c>
-      <c r="E41" s="358"/>
-      <c r="F41" s="359">
+      <c r="E41" s="357"/>
+      <c r="F41" s="358">
         <f>'Qualitative Analysis'!E64</f>
         <v>0.64057823129251701</v>
       </c>
-      <c r="G41" s="357" t="s">
+      <c r="G41" s="356" t="s">
         <v>343</v>
       </c>
       <c r="H41" s="116"/>
@@ -5296,7 +5296,7 @@
       <c r="B42" s="3" t="s">
         <v>351</v>
       </c>
-      <c r="E42" s="358">
+      <c r="E42" s="357">
         <f ca="1">IF(F42="Strongly disagree",0,IF(F42="disagree",1,IF(F42="So-so",2,IF(F42="agree",3,4))))/4</f>
         <v>0.5</v>
       </c>
@@ -5315,7 +5315,7 @@
       <c r="B43" s="3" t="s">
         <v>352</v>
       </c>
-      <c r="F43" s="360">
+      <c r="F43" s="359">
         <v>0.6</v>
       </c>
       <c r="G43" s="116"/>
@@ -5328,7 +5328,7 @@
       <c r="B45" s="3" t="s">
         <v>345</v>
       </c>
-      <c r="F45" s="359">
+      <c r="F45" s="358">
         <f ca="1">I35/C29-1</f>
         <v>0.10142363795025511</v>
       </c>
@@ -5337,7 +5337,7 @@
       <c r="B46" s="3" t="s">
         <v>346</v>
       </c>
-      <c r="F46" s="359">
+      <c r="F46" s="358">
         <f ca="1">D14/C29-1</f>
         <v>-0.1125482155440074</v>
       </c>
@@ -5357,11 +5357,11 @@
       <c r="B49" s="3" t="s">
         <v>348</v>
       </c>
-      <c r="E49" s="361">
+      <c r="E49" s="360">
         <f ca="1">F45/ABS(F46)</f>
         <v>0.90115722812679799</v>
       </c>
-      <c r="F49" s="362">
+      <c r="F49" s="361">
         <f ca="1">IF(F46&gt;=0,100,F45/ABS(F46))</f>
         <v>0.90115722812679799</v>
       </c>
@@ -5375,11 +5375,11 @@
         <f ca="1">MAX(F48-ABS((1-F48)/F49),0)/2</f>
         <v>6.5527029120272029E-2</v>
       </c>
-      <c r="F50" s="363">
+      <c r="F50" s="362">
         <f ca="1">MIN(E50,H50)</f>
         <v>6.5527029120272029E-2</v>
       </c>
-      <c r="G50" s="364" t="s">
+      <c r="G50" s="363" t="s">
         <v>350</v>
       </c>
       <c r="H50" s="78">
@@ -6304,16 +6304,34 @@
     <row r="966" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <mergeCells count="54">
-    <mergeCell ref="C12:D12"/>
-    <mergeCell ref="E27:F27"/>
-    <mergeCell ref="C27:D27"/>
-    <mergeCell ref="E16:E18"/>
-    <mergeCell ref="G23:J23"/>
-    <mergeCell ref="C16:C18"/>
-    <mergeCell ref="G16:G18"/>
-    <mergeCell ref="I27:J27"/>
-    <mergeCell ref="G27:H27"/>
-    <mergeCell ref="E26:H26"/>
+    <mergeCell ref="C36:D36"/>
+    <mergeCell ref="I33:J33"/>
+    <mergeCell ref="I32:J32"/>
+    <mergeCell ref="C29:D29"/>
+    <mergeCell ref="G29:H29"/>
+    <mergeCell ref="C35:D35"/>
+    <mergeCell ref="G35:H35"/>
+    <mergeCell ref="I35:J35"/>
+    <mergeCell ref="C30:D30"/>
+    <mergeCell ref="C33:D33"/>
+    <mergeCell ref="E33:F33"/>
+    <mergeCell ref="G30:H30"/>
+    <mergeCell ref="G31:H31"/>
+    <mergeCell ref="G36:H36"/>
+    <mergeCell ref="I36:J36"/>
+    <mergeCell ref="C28:D28"/>
+    <mergeCell ref="E29:F29"/>
+    <mergeCell ref="E30:F30"/>
+    <mergeCell ref="E28:F28"/>
+    <mergeCell ref="C32:D32"/>
+    <mergeCell ref="C31:D31"/>
+    <mergeCell ref="E31:F31"/>
+    <mergeCell ref="E32:F32"/>
+    <mergeCell ref="G28:H28"/>
+    <mergeCell ref="I29:J29"/>
+    <mergeCell ref="I30:J30"/>
+    <mergeCell ref="I31:J31"/>
+    <mergeCell ref="I28:J28"/>
     <mergeCell ref="C3:D3"/>
     <mergeCell ref="C4:D4"/>
     <mergeCell ref="C5:D5"/>
@@ -6330,34 +6348,16 @@
     <mergeCell ref="I11:J11"/>
     <mergeCell ref="C22:F22"/>
     <mergeCell ref="C11:D11"/>
-    <mergeCell ref="G28:H28"/>
-    <mergeCell ref="I29:J29"/>
-    <mergeCell ref="I30:J30"/>
-    <mergeCell ref="I31:J31"/>
-    <mergeCell ref="I28:J28"/>
-    <mergeCell ref="C28:D28"/>
-    <mergeCell ref="E29:F29"/>
-    <mergeCell ref="E30:F30"/>
-    <mergeCell ref="E28:F28"/>
-    <mergeCell ref="C32:D32"/>
-    <mergeCell ref="C31:D31"/>
-    <mergeCell ref="E31:F31"/>
-    <mergeCell ref="E32:F32"/>
-    <mergeCell ref="C36:D36"/>
-    <mergeCell ref="I33:J33"/>
-    <mergeCell ref="I32:J32"/>
-    <mergeCell ref="C29:D29"/>
-    <mergeCell ref="G29:H29"/>
-    <mergeCell ref="C35:D35"/>
-    <mergeCell ref="G35:H35"/>
-    <mergeCell ref="I35:J35"/>
-    <mergeCell ref="C30:D30"/>
-    <mergeCell ref="C33:D33"/>
-    <mergeCell ref="E33:F33"/>
-    <mergeCell ref="G30:H30"/>
-    <mergeCell ref="G31:H31"/>
-    <mergeCell ref="G36:H36"/>
-    <mergeCell ref="I36:J36"/>
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="E27:F27"/>
+    <mergeCell ref="C27:D27"/>
+    <mergeCell ref="E16:E18"/>
+    <mergeCell ref="G23:J23"/>
+    <mergeCell ref="C16:C18"/>
+    <mergeCell ref="G16:G18"/>
+    <mergeCell ref="I27:J27"/>
+    <mergeCell ref="G27:H27"/>
+    <mergeCell ref="E26:H26"/>
   </mergeCells>
   <conditionalFormatting sqref="C35:D36">
     <cfRule type="containsBlanks" priority="6">
@@ -6533,47 +6533,47 @@
     <row r="6" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="9"/>
       <c r="B6" s="42"/>
-      <c r="C6" s="279">
+      <c r="C6" s="278">
         <f>C3</f>
         <v>44561</v>
       </c>
-      <c r="D6" s="280">
+      <c r="D6" s="279">
         <f>EOMONTH(EDATE(C6,-12),0)</f>
         <v>44196</v>
       </c>
-      <c r="E6" s="280">
+      <c r="E6" s="279">
         <f t="shared" ref="E6:M6" si="0">EOMONTH(EDATE(D6,-12),0)</f>
         <v>43830</v>
       </c>
-      <c r="F6" s="280">
+      <c r="F6" s="279">
         <f t="shared" si="0"/>
         <v>43465</v>
       </c>
-      <c r="G6" s="280">
+      <c r="G6" s="279">
         <f t="shared" si="0"/>
         <v>43100</v>
       </c>
-      <c r="H6" s="280">
+      <c r="H6" s="279">
         <f t="shared" si="0"/>
         <v>42735</v>
       </c>
-      <c r="I6" s="280">
+      <c r="I6" s="279">
         <f t="shared" si="0"/>
         <v>42369</v>
       </c>
-      <c r="J6" s="280">
+      <c r="J6" s="279">
         <f t="shared" si="0"/>
         <v>42004</v>
       </c>
-      <c r="K6" s="280">
+      <c r="K6" s="279">
         <f t="shared" si="0"/>
         <v>41639</v>
       </c>
-      <c r="L6" s="280">
+      <c r="L6" s="279">
         <f t="shared" si="0"/>
         <v>41274</v>
       </c>
-      <c r="M6" s="280">
+      <c r="M6" s="279">
         <f t="shared" si="0"/>
         <v>40908</v>
       </c>
@@ -7231,7 +7231,7 @@
       <c r="B24" s="141" t="s">
         <v>60</v>
       </c>
-      <c r="C24" s="273">
+      <c r="C24" s="272">
         <v>39109</v>
       </c>
       <c r="D24" s="140">
@@ -7592,7 +7592,7 @@
         <f t="shared" ref="L34" si="17">IF(M7="","",L30-M30+L33+IF($C$49="Yes",L51,0))</f>
         <v/>
       </c>
-      <c r="M34" s="343" t="str">
+      <c r="M34" s="342" t="str">
         <f t="shared" ref="M34" si="18">IF(N7="","",M30-N30+M33+IF($C$49="Yes",M51,0))</f>
         <v/>
       </c>
@@ -8118,7 +8118,7 @@
       <c r="B49" s="5" t="s">
         <v>77</v>
       </c>
-      <c r="C49" s="342" t="s">
+      <c r="C49" s="341" t="s">
         <v>78</v>
       </c>
       <c r="D49" s="6"/>
@@ -8134,9 +8134,9 @@
     <row r="50" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A50" s="9"/>
       <c r="B50" s="5"/>
-      <c r="C50" s="339"/>
+      <c r="C50" s="338"/>
       <c r="D50" s="6"/>
-      <c r="E50" s="339"/>
+      <c r="E50" s="338"/>
       <c r="F50" s="6"/>
       <c r="G50" s="6"/>
       <c r="H50" s="6"/>
@@ -8148,7 +8148,7 @@
     </row>
     <row r="51" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A51" s="9"/>
-      <c r="B51" s="340" t="s">
+      <c r="B51" s="339" t="s">
         <v>294</v>
       </c>
       <c r="C51" s="165"/>
@@ -8165,50 +8165,50 @@
     </row>
     <row r="52" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A52" s="9"/>
-      <c r="B52" s="341" t="s">
+      <c r="B52" s="340" t="s">
         <v>295</v>
       </c>
-      <c r="C52" s="348" t="str">
+      <c r="C52" s="347" t="str">
         <f>IF(C51="","",C51/C7)</f>
         <v/>
       </c>
-      <c r="D52" s="348" t="str">
+      <c r="D52" s="347" t="str">
         <f t="shared" ref="D52:M52" si="27">IF(D51="","",D51/D7)</f>
         <v/>
       </c>
-      <c r="E52" s="348" t="str">
+      <c r="E52" s="347" t="str">
         <f t="shared" si="27"/>
         <v/>
       </c>
-      <c r="F52" s="348" t="str">
+      <c r="F52" s="347" t="str">
         <f t="shared" si="27"/>
         <v/>
       </c>
-      <c r="G52" s="348" t="str">
+      <c r="G52" s="347" t="str">
         <f t="shared" si="27"/>
         <v/>
       </c>
-      <c r="H52" s="348" t="str">
+      <c r="H52" s="347" t="str">
         <f>IF(H51="","",H51/H7)</f>
         <v/>
       </c>
-      <c r="I52" s="348" t="str">
+      <c r="I52" s="347" t="str">
         <f t="shared" si="27"/>
         <v/>
       </c>
-      <c r="J52" s="348" t="str">
+      <c r="J52" s="347" t="str">
         <f t="shared" si="27"/>
         <v/>
       </c>
-      <c r="K52" s="348" t="str">
+      <c r="K52" s="347" t="str">
         <f t="shared" si="27"/>
         <v/>
       </c>
-      <c r="L52" s="348" t="str">
+      <c r="L52" s="347" t="str">
         <f t="shared" si="27"/>
         <v/>
       </c>
-      <c r="M52" s="349" t="str">
+      <c r="M52" s="348" t="str">
         <f t="shared" si="27"/>
         <v/>
       </c>
@@ -9579,7 +9579,7 @@
   <dimension ref="A2:K65"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="E40" sqref="E40"/>
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.453125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -9608,7 +9608,7 @@
       <c r="G2" s="12"/>
       <c r="H2" s="12"/>
       <c r="I2" s="12"/>
-      <c r="K2" s="347" t="s">
+      <c r="K2" s="346" t="s">
         <v>137</v>
       </c>
     </row>
@@ -9617,7 +9617,7 @@
         <v>255</v>
       </c>
       <c r="C3" s="6"/>
-      <c r="D3" s="274">
+      <c r="D3" s="273">
         <v>20121092</v>
       </c>
       <c r="E3" s="156" t="str">
@@ -9626,10 +9626,10 @@
       </c>
       <c r="F3" s="6"/>
       <c r="G3" s="6"/>
-      <c r="H3" s="275" t="s">
+      <c r="H3" s="274" t="s">
         <v>256</v>
       </c>
-      <c r="I3" s="276">
+      <c r="I3" s="275">
         <v>19966164</v>
       </c>
       <c r="K3" s="74"/>
@@ -9639,7 +9639,7 @@
         <v>222</v>
       </c>
       <c r="C4" s="6"/>
-      <c r="D4" s="277">
+      <c r="D4" s="276">
         <f>D3-I3</f>
         <v>154928</v>
       </c>
@@ -9727,12 +9727,11 @@
         <v>251</v>
       </c>
       <c r="C9" s="255"/>
-      <c r="D9" s="272">
+      <c r="D9" s="271">
         <v>44926</v>
       </c>
-      <c r="E9" s="269" t="str">
-        <f>IF(D9=Data!C3,"FY","Quarter")</f>
-        <v>Quarter</v>
+      <c r="E9" s="290" t="s">
+        <v>353</v>
       </c>
       <c r="F9" s="133"/>
       <c r="G9" s="133"/>
@@ -10590,11 +10589,11 @@
         <v>262</v>
       </c>
       <c r="C52" s="5"/>
-      <c r="D52" s="443">
+      <c r="D52" s="442">
         <f>D53+D54+D55</f>
         <v>99060</v>
       </c>
-      <c r="E52" s="444"/>
+      <c r="E52" s="443"/>
       <c r="F52" s="53"/>
       <c r="G52" s="53"/>
     </row>
@@ -10603,11 +10602,11 @@
         <v>232</v>
       </c>
       <c r="C53" s="6"/>
-      <c r="D53" s="446">
+      <c r="D53" s="445">
         <f>SUM(I11:I13)+SUM(I28:I30)</f>
         <v>99060</v>
       </c>
-      <c r="E53" s="390"/>
+      <c r="E53" s="423"/>
       <c r="F53" s="5"/>
       <c r="G53" s="5"/>
       <c r="H53" s="3" t="s">
@@ -10623,10 +10622,10 @@
         <v>132</v>
       </c>
       <c r="C54" s="6"/>
-      <c r="D54" s="451">
+      <c r="D54" s="450">
         <v>0</v>
       </c>
-      <c r="E54" s="370"/>
+      <c r="E54" s="407"/>
       <c r="F54" s="6" t="s">
         <v>133</v>
       </c>
@@ -10637,10 +10636,10 @@
         <v>131</v>
       </c>
       <c r="C55" s="6"/>
-      <c r="D55" s="451">
+      <c r="D55" s="450">
         <v>0</v>
       </c>
-      <c r="E55" s="370"/>
+      <c r="E55" s="407"/>
       <c r="F55" s="5" t="s">
         <v>134</v>
       </c>
@@ -10655,8 +10654,8 @@
         <v>135</v>
       </c>
       <c r="C57" s="5"/>
-      <c r="D57" s="445"/>
-      <c r="E57" s="445"/>
+      <c r="D57" s="444"/>
+      <c r="E57" s="444"/>
       <c r="F57" s="19"/>
       <c r="G57" s="19"/>
     </row>
@@ -10702,11 +10701,11 @@
         <v>136</v>
       </c>
       <c r="C60" s="6"/>
-      <c r="D60" s="449">
+      <c r="D60" s="448">
         <f>((Dashboard!I6*Data!C4)+D52+E50-C58-C59)</f>
         <v>2933732.4010000005</v>
       </c>
-      <c r="E60" s="450"/>
+      <c r="E60" s="449"/>
       <c r="F60" s="6"/>
       <c r="G60" s="6"/>
     </row>
@@ -10715,7 +10714,7 @@
       <c r="E61" s="6"/>
     </row>
     <row r="62" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B62" s="292" t="s">
+      <c r="B62" s="291" t="s">
         <v>261</v>
       </c>
     </row>
@@ -10723,33 +10722,33 @@
       <c r="B63" s="3" t="s">
         <v>264</v>
       </c>
-      <c r="D63" s="385">
+      <c r="D63" s="440">
         <f>((C26-C11-C12-C14-C15-C16*G16-C19*G19-C20*G20)-I26)/Data!C7</f>
         <v>-0.23219181652332552</v>
       </c>
-      <c r="E63" s="386"/>
+      <c r="E63" s="441"/>
     </row>
     <row r="64" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B64" s="3" t="s">
         <v>263</v>
       </c>
-      <c r="D64" s="447">
+      <c r="D64" s="446">
         <v>7.51E-2</v>
       </c>
-      <c r="E64" s="448"/>
+      <c r="E64" s="447"/>
       <c r="F64" s="266" t="s">
         <v>248</v>
       </c>
     </row>
     <row r="65" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B65" s="292" t="s">
+      <c r="B65" s="291" t="s">
         <v>265</v>
       </c>
-      <c r="D65" s="447">
+      <c r="D65" s="446">
         <f>D64</f>
         <v>7.51E-2</v>
       </c>
-      <c r="E65" s="448"/>
+      <c r="E65" s="447"/>
     </row>
   </sheetData>
   <mergeCells count="9">
@@ -10763,10 +10762,13 @@
     <mergeCell ref="D54:E54"/>
     <mergeCell ref="D55:E55"/>
   </mergeCells>
-  <dataValidations count="2">
+  <dataValidations count="3">
     <dataValidation allowBlank="1" sqref="D49" xr:uid="{00000000-0002-0000-0200-000000000000}"/>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F33:F35 F19:F20 F16 F31" xr:uid="{DBDA56F9-BDA2-428A-9035-F60711F90E5E}">
       <formula1>"Y,N"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E9" xr:uid="{A3B3D97F-C7F3-4297-8ECB-32CE2A036ED7}">
+      <formula1>"FY, Quarter"</formula1>
     </dataValidation>
   </dataValidations>
   <hyperlinks>
@@ -10785,7 +10787,7 @@
   <dimension ref="A1:M908"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScalePageLayoutView="80" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.453125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -10818,22 +10820,22 @@
       <c r="B2" s="92" t="s">
         <v>245</v>
       </c>
-      <c r="C2" s="286" t="s">
+      <c r="C2" s="285" t="s">
         <v>259</v>
       </c>
-      <c r="D2" s="286"/>
-      <c r="E2" s="286">
+      <c r="D2" s="285"/>
+      <c r="E2" s="285">
         <v>1</v>
       </c>
-      <c r="F2" s="286"/>
-      <c r="G2" s="286">
+      <c r="F2" s="285"/>
+      <c r="G2" s="285">
         <v>2</v>
       </c>
       <c r="H2" s="12"/>
-      <c r="I2" s="286">
+      <c r="I2" s="285">
         <v>3</v>
       </c>
-      <c r="J2" s="286"/>
+      <c r="J2" s="285"/>
       <c r="K2" s="12"/>
       <c r="L2" s="12"/>
     </row>
@@ -10842,46 +10844,46 @@
         <f>'FCFF Model'!B3</f>
         <v>(Numbers in 1000HKD)</v>
       </c>
-      <c r="C3" s="278">
-        <f>Data!C3</f>
-        <v>44561</v>
+      <c r="C3" s="277">
+        <f>IF(Asset_Model!E9="FY",Asset_Model!D9,Data!C3)</f>
+        <v>44926</v>
       </c>
       <c r="D3" s="28" t="s">
         <v>247</v>
       </c>
-      <c r="E3" s="278">
+      <c r="E3" s="277">
         <f>EOMONTH(EDATE(C3,12),0)</f>
-        <v>44926</v>
+        <v>45291</v>
       </c>
       <c r="F3" s="28" t="s">
         <v>247</v>
       </c>
-      <c r="G3" s="278">
+      <c r="G3" s="277">
         <f>IF(G10="","",EOMONTH(EDATE(E3,12),0))</f>
-        <v>45291</v>
+        <v>45657</v>
       </c>
       <c r="H3" s="28"/>
-      <c r="I3" s="278" t="str">
+      <c r="I3" s="277" t="str">
         <f>IF(I21="","",EOMONTH(EDATE(G3,12),0))</f>
         <v/>
       </c>
-      <c r="J3" s="297"/>
+      <c r="J3" s="296"/>
       <c r="L3" s="72" t="s">
         <v>137</v>
       </c>
     </row>
     <row r="4" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="293" t="s">
+      <c r="B4" s="292" t="s">
         <v>315</v>
       </c>
-      <c r="C4" s="294">
+      <c r="C4" s="293">
         <v>800033</v>
       </c>
       <c r="D4" s="260">
         <f>C4/C9</f>
         <v>0.57879833399771818</v>
       </c>
-      <c r="E4" s="294">
+      <c r="E4" s="293">
         <f>C4*1.02</f>
         <v>816033.66</v>
       </c>
@@ -10889,23 +10891,23 @@
       <c r="G4" s="222"/>
       <c r="H4" s="260"/>
       <c r="I4" s="222"/>
-      <c r="J4" s="287"/>
+      <c r="J4" s="286"/>
       <c r="K4" s="6"/>
       <c r="L4" s="74"/>
       <c r="M4" s="57"/>
     </row>
     <row r="5" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="293" t="s">
+      <c r="B5" s="292" t="s">
         <v>316</v>
       </c>
-      <c r="C5" s="294">
+      <c r="C5" s="293">
         <v>318356</v>
       </c>
       <c r="D5" s="260">
         <f>C5/C9</f>
         <v>0.23032040230612683</v>
       </c>
-      <c r="E5" s="294">
+      <c r="E5" s="293">
         <f>C5*1.04</f>
         <v>331090.24</v>
       </c>
@@ -10913,23 +10915,23 @@
       <c r="G5" s="222"/>
       <c r="H5" s="260"/>
       <c r="I5" s="222"/>
-      <c r="J5" s="287"/>
+      <c r="J5" s="286"/>
       <c r="K5" s="6"/>
       <c r="L5" s="74"/>
       <c r="M5" s="57"/>
     </row>
     <row r="6" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="293" t="s">
+      <c r="B6" s="292" t="s">
         <v>317</v>
       </c>
-      <c r="C6" s="294">
+      <c r="C6" s="293">
         <v>173280</v>
       </c>
       <c r="D6" s="260">
         <f>C6/C9</f>
         <v>0.12536254793880328</v>
       </c>
-      <c r="E6" s="294">
+      <c r="E6" s="293">
         <f>C6*1.03</f>
         <v>178478.4</v>
       </c>
@@ -10937,23 +10939,23 @@
       <c r="G6" s="222"/>
       <c r="H6" s="260"/>
       <c r="I6" s="222"/>
-      <c r="J6" s="287"/>
+      <c r="J6" s="286"/>
       <c r="K6" s="6"/>
       <c r="L6" s="74"/>
       <c r="M6" s="57"/>
     </row>
     <row r="7" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="293" t="s">
+      <c r="B7" s="292" t="s">
         <v>318</v>
       </c>
-      <c r="C7" s="294">
+      <c r="C7" s="293">
         <v>90562</v>
       </c>
       <c r="D7" s="260">
         <f>C7/C9</f>
         <v>6.55187157573517E-2</v>
       </c>
-      <c r="E7" s="294">
+      <c r="E7" s="293">
         <f>C7*1.4</f>
         <v>126786.79999999999</v>
       </c>
@@ -10961,30 +10963,30 @@
       <c r="G7" s="222"/>
       <c r="H7" s="260"/>
       <c r="I7" s="222"/>
-      <c r="J7" s="287"/>
+      <c r="J7" s="286"/>
       <c r="K7" s="6"/>
       <c r="L7" s="74"/>
       <c r="M7" s="57"/>
     </row>
     <row r="8" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="293" t="s">
+      <c r="B8" s="292" t="s">
         <v>319</v>
       </c>
-      <c r="C8" s="294">
+      <c r="C8" s="293">
         <v>0</v>
       </c>
       <c r="D8" s="260">
         <f>C8/C9</f>
         <v>0</v>
       </c>
-      <c r="E8" s="294">
+      <c r="E8" s="293">
         <v>0</v>
       </c>
       <c r="F8" s="260"/>
       <c r="G8" s="222"/>
       <c r="H8" s="260"/>
       <c r="I8" s="222"/>
-      <c r="J8" s="287"/>
+      <c r="J8" s="286"/>
       <c r="K8" s="6"/>
       <c r="L8" s="74"/>
       <c r="M8" s="57"/>
@@ -10998,18 +11000,18 @@
         <v>1382231</v>
       </c>
       <c r="D9" s="259"/>
-      <c r="E9" s="338">
+      <c r="E9" s="337">
         <f>SUM(E4:E8)</f>
         <v>1452389.0999999999</v>
       </c>
       <c r="F9" s="259"/>
-      <c r="G9" s="338">
+      <c r="G9" s="337">
         <f>E9*1.04</f>
         <v>1510484.6639999999</v>
       </c>
       <c r="H9" s="259"/>
       <c r="I9" s="228"/>
-      <c r="J9" s="288"/>
+      <c r="J9" s="287"/>
       <c r="K9" s="6"/>
       <c r="L9" s="74" t="s">
         <v>266</v>
@@ -11033,79 +11035,79 @@
       </c>
       <c r="H10" s="261"/>
       <c r="I10" s="73"/>
-      <c r="J10" s="328"/>
+      <c r="J10" s="327"/>
       <c r="K10" s="6"/>
       <c r="L10" s="74"/>
       <c r="M10" s="57"/>
     </row>
     <row r="11" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="293" t="s">
+      <c r="B11" s="292" t="s">
         <v>320</v>
       </c>
-      <c r="C11" s="294">
+      <c r="C11" s="293">
         <v>102689</v>
       </c>
       <c r="D11" s="260"/>
-      <c r="E11" s="294"/>
+      <c r="E11" s="293"/>
       <c r="F11" s="260"/>
       <c r="G11" s="222"/>
       <c r="H11" s="260"/>
       <c r="I11" s="222"/>
-      <c r="J11" s="287"/>
+      <c r="J11" s="286"/>
       <c r="K11" s="6"/>
       <c r="L11" s="74"/>
       <c r="M11" s="57"/>
     </row>
     <row r="12" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="293" t="s">
+      <c r="B12" s="292" t="s">
         <v>321</v>
       </c>
-      <c r="C12" s="294">
+      <c r="C12" s="293">
         <v>411606</v>
       </c>
       <c r="D12" s="260"/>
-      <c r="E12" s="294"/>
+      <c r="E12" s="293"/>
       <c r="F12" s="260"/>
       <c r="G12" s="222"/>
       <c r="H12" s="260"/>
       <c r="I12" s="222"/>
-      <c r="J12" s="287"/>
+      <c r="J12" s="286"/>
       <c r="K12" s="6"/>
       <c r="L12" s="74"/>
       <c r="M12" s="57"/>
     </row>
     <row r="13" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B13" s="293" t="s">
+      <c r="B13" s="292" t="s">
         <v>322</v>
       </c>
-      <c r="C13" s="294">
+      <c r="C13" s="293">
         <v>111319</v>
       </c>
       <c r="D13" s="260"/>
-      <c r="E13" s="294"/>
+      <c r="E13" s="293"/>
       <c r="F13" s="260"/>
       <c r="G13" s="222"/>
       <c r="H13" s="260"/>
       <c r="I13" s="222"/>
-      <c r="J13" s="287"/>
+      <c r="J13" s="286"/>
       <c r="K13" s="6"/>
       <c r="L13" s="74"/>
       <c r="M13" s="57"/>
     </row>
     <row r="14" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B14" s="293" t="s">
+      <c r="B14" s="292" t="s">
         <v>323</v>
       </c>
-      <c r="C14" s="294">
+      <c r="C14" s="293">
         <v>77419</v>
       </c>
       <c r="D14" s="260"/>
-      <c r="E14" s="294"/>
+      <c r="E14" s="293"/>
       <c r="F14" s="260"/>
       <c r="G14" s="222"/>
       <c r="H14" s="260"/>
       <c r="I14" s="222"/>
-      <c r="J14" s="287"/>
+      <c r="J14" s="286"/>
       <c r="K14" s="6"/>
       <c r="L14" s="74"/>
       <c r="M14" s="57"/>
@@ -11124,16 +11126,16 @@
         <v>842385.67800000007</v>
       </c>
       <c r="F15" s="262"/>
-      <c r="G15" s="282">
+      <c r="G15" s="281">
         <f>IF(G9="","",G9*(1-G16))</f>
         <v>876081.10512000008</v>
       </c>
       <c r="H15" s="262"/>
-      <c r="I15" s="282" t="str">
+      <c r="I15" s="281" t="str">
         <f>IF(I9="","",I9*(1-I16))</f>
         <v/>
       </c>
-      <c r="J15" s="329"/>
+      <c r="J15" s="328"/>
       <c r="K15" s="6"/>
       <c r="L15" s="116"/>
       <c r="M15" s="1"/>
@@ -11157,7 +11159,7 @@
       </c>
       <c r="H16" s="186"/>
       <c r="I16" s="73"/>
-      <c r="J16" s="330"/>
+      <c r="J16" s="329"/>
       <c r="K16" s="6"/>
       <c r="L16" s="74"/>
     </row>
@@ -11208,7 +11210,7 @@
       </c>
       <c r="H18" s="189"/>
       <c r="I18" s="65"/>
-      <c r="J18" s="331"/>
+      <c r="J18" s="330"/>
       <c r="K18" s="6"/>
       <c r="L18" s="74"/>
     </row>
@@ -11231,7 +11233,7 @@
       </c>
       <c r="H19" s="263"/>
       <c r="I19" s="76"/>
-      <c r="J19" s="332"/>
+      <c r="J19" s="331"/>
       <c r="K19" s="6"/>
       <c r="L19" s="74"/>
     </row>
@@ -11283,7 +11285,7 @@
         <f>IF(I10="","",IF(ABS(G22+I22)=ABS(G22)+ABS(I22),IF(I22&lt;0,-1,1)*(I22-G22)/G22,"Turn"))</f>
         <v/>
       </c>
-      <c r="J21" s="333"/>
+      <c r="J21" s="332"/>
       <c r="K21" s="6"/>
       <c r="L21" s="77"/>
       <c r="M21" s="78"/>
@@ -11292,103 +11294,103 @@
       <c r="B22" s="134" t="s">
         <v>243</v>
       </c>
-      <c r="C22" s="320">
+      <c r="C22" s="319">
         <f>C17-C19</f>
         <v>509161</v>
       </c>
-      <c r="D22" s="321"/>
-      <c r="E22" s="320">
+      <c r="D22" s="320"/>
+      <c r="E22" s="319">
         <f>E17-E19</f>
         <v>431335.82924835407</v>
       </c>
-      <c r="F22" s="321"/>
-      <c r="G22" s="320">
+      <c r="F22" s="320"/>
+      <c r="G22" s="319">
         <f>IF(G10="","",G17-G19)</f>
         <v>448589.26241828827</v>
       </c>
-      <c r="H22" s="321"/>
-      <c r="I22" s="320" t="str">
+      <c r="H22" s="320"/>
+      <c r="I22" s="319" t="str">
         <f>IF(I10="","",I17-I19)</f>
         <v/>
       </c>
-      <c r="J22" s="334"/>
+      <c r="J22" s="333"/>
       <c r="K22" s="6"/>
       <c r="L22" s="79"/>
       <c r="M22" s="56"/>
     </row>
     <row r="23" spans="2:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B23" s="316" t="s">
+      <c r="B23" s="315" t="s">
         <v>144</v>
       </c>
-      <c r="C23" s="317">
+      <c r="C23" s="316">
         <v>0.16500000000000001</v>
       </c>
-      <c r="D23" s="318"/>
-      <c r="E23" s="319">
+      <c r="D23" s="317"/>
+      <c r="E23" s="318">
         <f>IF(E22="","",C23)</f>
         <v>0.16500000000000001</v>
       </c>
-      <c r="F23" s="319"/>
-      <c r="G23" s="319">
+      <c r="F23" s="318"/>
+      <c r="G23" s="318">
         <f>IF(G22="","",E23)</f>
         <v>0.16500000000000001</v>
       </c>
-      <c r="H23" s="319"/>
-      <c r="I23" s="319" t="str">
+      <c r="H23" s="318"/>
+      <c r="I23" s="318" t="str">
         <f>IF(I22="","",G23)</f>
         <v/>
       </c>
-      <c r="J23" s="335"/>
+      <c r="J23" s="334"/>
     </row>
     <row r="24" spans="2:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B24" s="325" t="s">
+      <c r="B24" s="324" t="s">
         <v>302</v>
       </c>
       <c r="C24" s="264">
         <f>C25/C15</f>
         <v>0.60473610058133831</v>
       </c>
-      <c r="D24" s="327"/>
-      <c r="E24" s="326">
+      <c r="D24" s="326"/>
+      <c r="E24" s="325">
         <f>E25/E15</f>
         <v>0.42755406084002251</v>
       </c>
-      <c r="F24" s="326"/>
-      <c r="G24" s="326">
+      <c r="F24" s="325"/>
+      <c r="G24" s="325">
         <f>IF(G15="","",G25/G15)</f>
         <v>0.42755406084002251</v>
       </c>
-      <c r="H24" s="326"/>
-      <c r="I24" s="326" t="str">
+      <c r="H24" s="325"/>
+      <c r="I24" s="325" t="str">
         <f>IF(I15="","",I25/I15)</f>
         <v/>
       </c>
-      <c r="J24" s="336"/>
+      <c r="J24" s="335"/>
     </row>
     <row r="25" spans="2:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B25" s="322" t="s">
+      <c r="B25" s="321" t="s">
         <v>80</v>
       </c>
-      <c r="C25" s="323">
+      <c r="C25" s="322">
         <f>IF(C22&lt;=0,C22,C22*(1-C23))</f>
         <v>425149.435</v>
       </c>
-      <c r="D25" s="323"/>
-      <c r="E25" s="324">
+      <c r="D25" s="322"/>
+      <c r="E25" s="323">
         <f>IF(E22="","",IF(E22&lt;=0,E22,E22*(1-E23)))</f>
         <v>360165.41742237564</v>
       </c>
-      <c r="F25" s="323"/>
-      <c r="G25" s="324">
+      <c r="F25" s="322"/>
+      <c r="G25" s="323">
         <f>IF(G22="","",IF(G22&lt;=0,G22,G22*(1-G23)))</f>
         <v>374572.03411927068</v>
       </c>
-      <c r="H25" s="323"/>
-      <c r="I25" s="324" t="str">
+      <c r="H25" s="322"/>
+      <c r="I25" s="323" t="str">
         <f>IF(I22="","",IF(I22&lt;=0,I22,I22*(1-I23)))</f>
         <v/>
       </c>
-      <c r="J25" s="337"/>
+      <c r="J25" s="336"/>
     </row>
     <row r="26" spans="2:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="27" spans="2:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -12349,19 +12351,19 @@
       <c r="B2" s="92" t="s">
         <v>221</v>
       </c>
-      <c r="C2" s="286" t="s">
+      <c r="C2" s="285" t="s">
         <v>259</v>
       </c>
-      <c r="D2" s="286">
+      <c r="D2" s="285">
         <v>1</v>
       </c>
-      <c r="E2" s="286">
+      <c r="E2" s="285">
         <v>2</v>
       </c>
-      <c r="F2" s="286">
+      <c r="F2" s="285">
         <v>3</v>
       </c>
-      <c r="G2" s="286" t="str">
+      <c r="G2" s="285" t="str">
         <f>B24</f>
         <v>Exit after Year 2</v>
       </c>
@@ -12373,19 +12375,19 @@
         <f>"(Numbers in "&amp;Data!C4&amp;Dashboard!I11&amp;")"</f>
         <v>(Numbers in 1000HKD)</v>
       </c>
-      <c r="C3" s="278">
+      <c r="C3" s="277">
         <f>Operation!C3</f>
-        <v>44561</v>
-      </c>
-      <c r="D3" s="278">
+        <v>44926</v>
+      </c>
+      <c r="D3" s="277">
         <f>Operation!E3</f>
-        <v>44926</v>
-      </c>
-      <c r="E3" s="278">
+        <v>45291</v>
+      </c>
+      <c r="E3" s="277">
         <f>Operation!G3</f>
-        <v>45291</v>
-      </c>
-      <c r="F3" s="278" t="str">
+        <v>45657</v>
+      </c>
+      <c r="F3" s="277" t="str">
         <f>Operation!I3</f>
         <v/>
       </c>
@@ -12416,7 +12418,7 @@
         <f>Operation!I25</f>
         <v/>
       </c>
-      <c r="G4" s="304">
+      <c r="G4" s="303">
         <f>IF(F3="",IF(E3="",1,2),3)</f>
         <v>2</v>
       </c>
@@ -12460,7 +12462,7 @@
         <f>D6</f>
         <v>0.3</v>
       </c>
-      <c r="F6" s="309"/>
+      <c r="F6" s="308"/>
       <c r="G6" s="199"/>
       <c r="H6" s="6"/>
       <c r="I6" s="77"/>
@@ -12469,19 +12471,19 @@
       <c r="B7" s="81" t="s">
         <v>267</v>
       </c>
-      <c r="C7" s="310">
+      <c r="C7" s="309">
         <f>C4*C6</f>
         <v>127544.8305</v>
       </c>
-      <c r="D7" s="310">
+      <c r="D7" s="309">
         <f>D4*D6</f>
         <v>108049.62522671268</v>
       </c>
-      <c r="E7" s="311">
+      <c r="E7" s="310">
         <f>D7</f>
         <v>108049.62522671268</v>
       </c>
-      <c r="F7" s="311"/>
+      <c r="F7" s="310"/>
       <c r="G7" s="200"/>
       <c r="H7" s="82"/>
       <c r="I7" s="56"/>
@@ -12523,19 +12525,19 @@
         <f>C8/(Common_Shares/Data!$C$4)</f>
         <v>0.4307119599790839</v>
       </c>
-      <c r="D9" s="306">
+      <c r="D9" s="305">
         <f>D8/(Common_Shares/Data!$C$4)</f>
         <v>0.36487771142087094</v>
       </c>
-      <c r="E9" s="306">
+      <c r="E9" s="305">
         <f>IF(E8="","",E8/(Common_Shares/Data!$C$4))</f>
         <v>0.38572786635920642</v>
       </c>
-      <c r="F9" s="306" t="str">
+      <c r="F9" s="305" t="str">
         <f>IF(F8="","",F8/(Common_Shares/Data!$C$4))</f>
         <v/>
       </c>
-      <c r="G9" s="307">
+      <c r="G9" s="306">
         <f>G8*Data!C$4/Dashboard!I5</f>
         <v>0.38572786635920642</v>
       </c>
@@ -12547,16 +12549,16 @@
       <c r="B10" s="234" t="s">
         <v>244</v>
       </c>
-      <c r="C10" s="312">
+      <c r="C10" s="311">
         <f>C11/C9</f>
         <v>1.0679991333937846</v>
       </c>
-      <c r="D10" s="312">
+      <c r="D10" s="311">
         <f>D11/D9</f>
         <v>1.3703221225899196</v>
       </c>
-      <c r="E10" s="344"/>
-      <c r="F10" s="344"/>
+      <c r="E10" s="343"/>
+      <c r="F10" s="343"/>
       <c r="G10" s="235"/>
       <c r="H10" s="82"/>
       <c r="I10" s="56"/>
@@ -12566,17 +12568,17 @@
       <c r="B11" s="234" t="s">
         <v>258</v>
       </c>
-      <c r="C11" s="284">
+      <c r="C11" s="283">
         <f>0.2+0.26</f>
         <v>0.46</v>
       </c>
-      <c r="D11" s="285">
+      <c r="D11" s="284">
         <f>0.21+0.29</f>
         <v>0.5</v>
       </c>
-      <c r="E11" s="345"/>
-      <c r="F11" s="345"/>
-      <c r="G11" s="283"/>
+      <c r="E11" s="344"/>
+      <c r="F11" s="344"/>
+      <c r="G11" s="282"/>
       <c r="H11" s="82"/>
       <c r="I11" s="56"/>
       <c r="J11" s="56"/>
@@ -12591,8 +12593,8 @@
       <c r="D12" s="236">
         <v>0.28999999999999998</v>
       </c>
-      <c r="E12" s="346"/>
-      <c r="F12" s="346"/>
+      <c r="E12" s="345"/>
+      <c r="F12" s="345"/>
       <c r="G12" s="230">
         <f>G9*D27</f>
         <v>3.8572786635920639</v>
@@ -12747,7 +12749,7 @@
         <f>C20/(Dashboard!I5/Data!C4)</f>
         <v>-0.14336581528102013</v>
       </c>
-      <c r="E20" s="454" t="str">
+      <c r="E20" s="453" t="str">
         <f>IF(F21+G21=G19,"⇒","Error!")</f>
         <v>⇒</v>
       </c>
@@ -12770,7 +12772,7 @@
         <f>C21/(Dashboard!I5/Data!C4)</f>
         <v>-0.22422147213666349</v>
       </c>
-      <c r="E21" s="454"/>
+      <c r="E21" s="453"/>
       <c r="F21" s="148">
         <f>D18</f>
         <v>7.7948439525115862</v>
@@ -12792,11 +12794,11 @@
         <f>B3</f>
         <v>(Numbers in 1000HKD)</v>
       </c>
-      <c r="E23" s="458" t="s">
+      <c r="E23" s="457" t="s">
         <v>227</v>
       </c>
-      <c r="F23" s="458"/>
-      <c r="G23" s="458"/>
+      <c r="F23" s="457"/>
+      <c r="G23" s="457"/>
     </row>
     <row r="24" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B24" s="127" t="str">
@@ -12809,7 +12811,7 @@
       <c r="D24" s="202" t="s">
         <v>216</v>
       </c>
-      <c r="E24" s="305" t="s">
+      <c r="E24" s="304" t="s">
         <v>224</v>
       </c>
       <c r="F24" s="265" t="s">
@@ -12830,14 +12832,14 @@
         <f>1/D25</f>
         <v>0.16666666666666666</v>
       </c>
-      <c r="D25" s="298">
+      <c r="D25" s="297">
         <v>6</v>
       </c>
       <c r="E25" s="206">
         <f ca="1">G9*D25/G14</f>
         <v>1.837219299455144</v>
       </c>
-      <c r="F25" s="455">
+      <c r="F25" s="454">
         <f ca="1">SUM(C15:F15)</f>
         <v>0.59921799242044438</v>
       </c>
@@ -12851,19 +12853,19 @@
       <c r="B26" s="30" t="s">
         <v>297</v>
       </c>
-      <c r="C26" s="350">
+      <c r="C26" s="349">
         <f>1/D26</f>
         <v>0.125</v>
       </c>
-      <c r="D26" s="351">
+      <c r="D26" s="350">
         <v>8</v>
       </c>
-      <c r="E26" s="352">
+      <c r="E26" s="351">
         <f ca="1">G9*D26/G14</f>
         <v>2.4496257326068585</v>
       </c>
-      <c r="F26" s="456"/>
-      <c r="G26" s="352">
+      <c r="F26" s="455"/>
+      <c r="G26" s="351">
         <f ca="1">$F$25+E26+$G$19</f>
         <v>10.560676235026312</v>
       </c>
@@ -12872,21 +12874,21 @@
       </c>
     </row>
     <row r="27" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B27" s="302" t="s">
+      <c r="B27" s="301" t="s">
         <v>304</v>
       </c>
-      <c r="C27" s="303">
+      <c r="C27" s="302">
         <f t="shared" ref="C27" si="0">1/D27</f>
         <v>0.1</v>
       </c>
-      <c r="D27" s="315">
+      <c r="D27" s="314">
         <v>10</v>
       </c>
       <c r="E27" s="207">
         <f ca="1">G9*D27/G14</f>
         <v>3.062032165758573</v>
       </c>
-      <c r="F27" s="457"/>
+      <c r="F27" s="456"/>
       <c r="G27" s="207">
         <f ca="1">$F$25+E27+$G$19</f>
         <v>11.173082668178026</v>
@@ -12950,10 +12952,10 @@
       <c r="I31" s="88"/>
     </row>
     <row r="32" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C32" s="452" t="s">
+      <c r="C32" s="451" t="s">
         <v>149</v>
       </c>
-      <c r="D32" s="453"/>
+      <c r="D32" s="452"/>
       <c r="E32" s="30" t="s">
         <v>215</v>
       </c>
@@ -13007,7 +13009,7 @@
         <f ca="1">C34/(Data!C28*Exchange_Rate*Data!C4/Common_Shares)</f>
         <v>0.52446264843565482</v>
       </c>
-      <c r="G34" s="281">
+      <c r="G34" s="280">
         <f>Dashboard!D10+4.5%</f>
         <v>7.3999999999999996E-2</v>
       </c>
@@ -14062,7 +14064,7 @@
       <c r="C10" s="20"/>
       <c r="D10" s="20"/>
       <c r="E10" s="12"/>
-      <c r="G10" s="295"/>
+      <c r="G10" s="294"/>
     </row>
     <row r="11" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B11" s="99" t="s">
@@ -14070,7 +14072,7 @@
       </c>
       <c r="C11" s="93"/>
       <c r="E11" s="6"/>
-      <c r="G11" s="295"/>
+      <c r="G11" s="294"/>
     </row>
     <row r="12" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B12" s="53" t="s">
@@ -14084,7 +14086,7 @@
         <v>152</v>
       </c>
       <c r="F12" s="6"/>
-      <c r="G12" s="295" t="s">
+      <c r="G12" s="294" t="s">
         <v>308</v>
       </c>
     </row>
@@ -14100,7 +14102,7 @@
         <v>161</v>
       </c>
       <c r="F13" s="6"/>
-      <c r="G13" s="295"/>
+      <c r="G13" s="294"/>
     </row>
     <row r="14" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B14" s="53" t="s">
@@ -14114,7 +14116,7 @@
         <v>161</v>
       </c>
       <c r="F14" s="6"/>
-      <c r="G14" s="295"/>
+      <c r="G14" s="294"/>
     </row>
     <row r="15" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B15" s="53" t="s">
@@ -14128,7 +14130,7 @@
         <v>174</v>
       </c>
       <c r="F15" s="6"/>
-      <c r="G15" s="295"/>
+      <c r="G15" s="294"/>
     </row>
     <row r="16" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B16" s="53" t="s">
@@ -14142,7 +14144,7 @@
         <v>152</v>
       </c>
       <c r="F16" s="6"/>
-      <c r="G16" s="295"/>
+      <c r="G16" s="294"/>
     </row>
     <row r="17" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B17" s="99" t="s">
@@ -14150,7 +14152,7 @@
       </c>
       <c r="D17" s="38"/>
       <c r="E17" s="23"/>
-      <c r="G17" s="295"/>
+      <c r="G17" s="294"/>
     </row>
     <row r="18" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B18" s="53" t="s">
@@ -14165,7 +14167,7 @@
         <v>Strongly agree</v>
       </c>
       <c r="F18" s="6"/>
-      <c r="G18" s="295"/>
+      <c r="G18" s="294"/>
     </row>
     <row r="19" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B19" s="53" t="s">
@@ -14179,7 +14181,7 @@
         <v>152</v>
       </c>
       <c r="F19" s="6"/>
-      <c r="G19" s="295" t="s">
+      <c r="G19" s="294" t="s">
         <v>309</v>
       </c>
     </row>
@@ -14195,7 +14197,7 @@
         <v>174</v>
       </c>
       <c r="F20" s="6"/>
-      <c r="G20" s="295"/>
+      <c r="G20" s="294"/>
     </row>
     <row r="21" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B21" s="53" t="s">
@@ -14209,7 +14211,7 @@
         <v>161</v>
       </c>
       <c r="F21" s="6"/>
-      <c r="G21" s="295"/>
+      <c r="G21" s="294"/>
     </row>
     <row r="22" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B22" s="53" t="s">
@@ -14223,7 +14225,7 @@
         <v>152</v>
       </c>
       <c r="F22" s="6"/>
-      <c r="G22" s="295"/>
+      <c r="G22" s="294"/>
     </row>
     <row r="23" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B23" s="99" t="s">
@@ -14231,7 +14233,7 @@
       </c>
       <c r="D23" s="38"/>
       <c r="E23" s="23"/>
-      <c r="G23" s="295"/>
+      <c r="G23" s="294"/>
     </row>
     <row r="24" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B24" s="53" t="s">
@@ -14245,7 +14247,7 @@
         <v>151</v>
       </c>
       <c r="F24" s="6"/>
-      <c r="G24" s="295" t="s">
+      <c r="G24" s="294" t="s">
         <v>310</v>
       </c>
     </row>
@@ -14261,7 +14263,7 @@
         <v>152</v>
       </c>
       <c r="F25" s="6"/>
-      <c r="G25" s="295" t="s">
+      <c r="G25" s="294" t="s">
         <v>311</v>
       </c>
     </row>
@@ -14277,7 +14279,7 @@
         <v>151</v>
       </c>
       <c r="F26" s="6"/>
-      <c r="G26" s="295"/>
+      <c r="G26" s="294"/>
     </row>
     <row r="27" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B27" s="53" t="s">
@@ -14291,7 +14293,7 @@
         <v>151</v>
       </c>
       <c r="F27" s="6"/>
-      <c r="G27" s="295"/>
+      <c r="G27" s="294"/>
     </row>
     <row r="28" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B28" s="53" t="s">
@@ -14305,7 +14307,7 @@
         <v>151</v>
       </c>
       <c r="F28" s="6"/>
-      <c r="G28" s="295"/>
+      <c r="G28" s="294"/>
     </row>
     <row r="29" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B29" s="99" t="s">
@@ -14313,7 +14315,7 @@
       </c>
       <c r="D29" s="38"/>
       <c r="E29" s="23"/>
-      <c r="G29" s="295"/>
+      <c r="G29" s="294"/>
     </row>
     <row r="30" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B30" s="1" t="s">
@@ -14328,7 +14330,7 @@
         <v>Very Low</v>
       </c>
       <c r="F30" s="6"/>
-      <c r="G30" s="295"/>
+      <c r="G30" s="294"/>
     </row>
     <row r="31" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B31" s="53" t="s">
@@ -14342,7 +14344,7 @@
         <v>174</v>
       </c>
       <c r="F31" s="6"/>
-      <c r="G31" s="295"/>
+      <c r="G31" s="294"/>
     </row>
     <row r="32" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B32" s="53" t="s">
@@ -14356,7 +14358,7 @@
         <v>174</v>
       </c>
       <c r="F32" s="6"/>
-      <c r="G32" s="295"/>
+      <c r="G32" s="294"/>
     </row>
     <row r="33" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B33" s="53" t="s">
@@ -14370,7 +14372,7 @@
         <v>174</v>
       </c>
       <c r="F33" s="6"/>
-      <c r="G33" s="295"/>
+      <c r="G33" s="294"/>
     </row>
     <row r="34" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B34" s="53" t="s">
@@ -14384,7 +14386,7 @@
         <v>174</v>
       </c>
       <c r="F34" s="6"/>
-      <c r="G34" s="295"/>
+      <c r="G34" s="294"/>
     </row>
     <row r="35" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B35" s="53" t="s">
@@ -14397,7 +14399,7 @@
       <c r="E35" s="31" t="s">
         <v>174</v>
       </c>
-      <c r="G35" s="295"/>
+      <c r="G35" s="294"/>
     </row>
     <row r="36" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B36" s="1" t="s">
@@ -14412,7 +14414,7 @@
         <v>Very High</v>
       </c>
       <c r="F36" s="6"/>
-      <c r="G36" s="295"/>
+      <c r="G36" s="294"/>
     </row>
     <row r="37" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B37" s="53" t="s">
@@ -14426,7 +14428,7 @@
         <v>161</v>
       </c>
       <c r="F37" s="6"/>
-      <c r="G37" s="295"/>
+      <c r="G37" s="294"/>
     </row>
     <row r="38" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B38" s="53" t="s">
@@ -14440,7 +14442,7 @@
         <v>161</v>
       </c>
       <c r="F38" s="6"/>
-      <c r="G38" s="295"/>
+      <c r="G38" s="294"/>
     </row>
     <row r="39" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B39" s="53" t="s">
@@ -14454,7 +14456,7 @@
         <v>161</v>
       </c>
       <c r="F39" s="6"/>
-      <c r="G39" s="295"/>
+      <c r="G39" s="294"/>
     </row>
     <row r="40" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B40" s="53" t="s">
@@ -14468,7 +14470,7 @@
         <v>161</v>
       </c>
       <c r="F40" s="6"/>
-      <c r="G40" s="295"/>
+      <c r="G40" s="294"/>
     </row>
     <row r="41" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B41" s="53" t="s">
@@ -14481,7 +14483,7 @@
       <c r="E41" s="31" t="s">
         <v>159</v>
       </c>
-      <c r="G41" s="295"/>
+      <c r="G41" s="294"/>
     </row>
     <row r="42" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B42" s="1" t="s">
@@ -14496,7 +14498,7 @@
         <v>Low</v>
       </c>
       <c r="F42" s="6"/>
-      <c r="G42" s="295"/>
+      <c r="G42" s="294"/>
     </row>
     <row r="43" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B43" s="53" t="s">
@@ -14510,7 +14512,7 @@
         <v>161</v>
       </c>
       <c r="F43" s="6"/>
-      <c r="G43" s="295"/>
+      <c r="G43" s="294"/>
     </row>
     <row r="44" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B44" s="53" t="s">
@@ -14524,7 +14526,7 @@
         <v>174</v>
       </c>
       <c r="F44" s="6"/>
-      <c r="G44" s="295"/>
+      <c r="G44" s="294"/>
     </row>
     <row r="45" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B45" s="53" t="s">
@@ -14538,7 +14540,7 @@
         <v>174</v>
       </c>
       <c r="F45" s="6"/>
-      <c r="G45" s="295"/>
+      <c r="G45" s="294"/>
     </row>
     <row r="46" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B46" s="53" t="s">
@@ -14552,7 +14554,7 @@
         <v>159</v>
       </c>
       <c r="F46" s="6"/>
-      <c r="G46" s="295" t="s">
+      <c r="G46" s="294" t="s">
         <v>312</v>
       </c>
     </row>
@@ -14568,7 +14570,7 @@
         <v>152</v>
       </c>
       <c r="F47" s="6"/>
-      <c r="G47" s="295"/>
+      <c r="G47" s="294"/>
     </row>
     <row r="48" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B48" s="53" t="s">
@@ -14582,7 +14584,7 @@
         <v>174</v>
       </c>
       <c r="F48" s="6"/>
-      <c r="G48" s="295"/>
+      <c r="G48" s="294"/>
     </row>
     <row r="49" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B49" s="1" t="s">
@@ -14597,7 +14599,7 @@
         <v>Low</v>
       </c>
       <c r="F49" s="6"/>
-      <c r="G49" s="295"/>
+      <c r="G49" s="294"/>
     </row>
     <row r="50" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B50" s="53" t="s">
@@ -14610,7 +14612,7 @@
       <c r="E50" s="31" t="s">
         <v>174</v>
       </c>
-      <c r="G50" s="295"/>
+      <c r="G50" s="294"/>
     </row>
     <row r="51" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B51" s="53" t="s">
@@ -14624,7 +14626,7 @@
         <v>174</v>
       </c>
       <c r="F51" s="6"/>
-      <c r="G51" s="295"/>
+      <c r="G51" s="294"/>
     </row>
     <row r="52" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B52" s="53" t="s">
@@ -14637,7 +14639,7 @@
       <c r="E52" s="31" t="s">
         <v>151</v>
       </c>
-      <c r="G52" s="295"/>
+      <c r="G52" s="294"/>
     </row>
     <row r="53" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B53" s="53" t="s">
@@ -14651,7 +14653,7 @@
         <v>174</v>
       </c>
       <c r="F53" s="53"/>
-      <c r="G53" s="295"/>
+      <c r="G53" s="294"/>
       <c r="H53" s="53"/>
     </row>
     <row r="54" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -14666,7 +14668,7 @@
         <v>271</v>
       </c>
       <c r="F54" s="53"/>
-      <c r="G54" s="295"/>
+      <c r="G54" s="294"/>
       <c r="H54" s="53"/>
     </row>
     <row r="55" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -14682,7 +14684,7 @@
         <v>Medium</v>
       </c>
       <c r="F55" s="53"/>
-      <c r="G55" s="295"/>
+      <c r="G55" s="294"/>
       <c r="H55" s="53"/>
     </row>
     <row r="56" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -14697,7 +14699,7 @@
         <v>151</v>
       </c>
       <c r="F56" s="53"/>
-      <c r="G56" s="295"/>
+      <c r="G56" s="294"/>
       <c r="H56" s="53"/>
     </row>
     <row r="57" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -14712,7 +14714,7 @@
         <v>174</v>
       </c>
       <c r="F57" s="53"/>
-      <c r="G57" s="295"/>
+      <c r="G57" s="294"/>
       <c r="H57" s="53"/>
     </row>
     <row r="58" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -14727,7 +14729,7 @@
         <v>174</v>
       </c>
       <c r="F58" s="53"/>
-      <c r="G58" s="295"/>
+      <c r="G58" s="294"/>
       <c r="H58" s="53"/>
     </row>
     <row r="59" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -14742,7 +14744,7 @@
         <v>161</v>
       </c>
       <c r="F59" s="53"/>
-      <c r="G59" s="295"/>
+      <c r="G59" s="294"/>
       <c r="H59" s="53"/>
     </row>
     <row r="60" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -14757,7 +14759,7 @@
         <v>161</v>
       </c>
       <c r="F60" s="53"/>
-      <c r="G60" s="295"/>
+      <c r="G60" s="294"/>
       <c r="H60" s="53"/>
     </row>
     <row r="61" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -14772,7 +14774,7 @@
         <v>272</v>
       </c>
       <c r="F61" s="53"/>
-      <c r="G61" s="295"/>
+      <c r="G61" s="294"/>
       <c r="H61" s="53"/>
     </row>
     <row r="62" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -14788,12 +14790,12 @@
         <v>Low</v>
       </c>
       <c r="F62" s="53"/>
-      <c r="G62" s="295"/>
+      <c r="G62" s="294"/>
       <c r="H62" s="53"/>
     </row>
     <row r="63" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D63" s="6"/>
-      <c r="G63" s="295"/>
+      <c r="G63" s="294"/>
     </row>
     <row r="64" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B64" s="97" t="s">
@@ -14807,10 +14809,10 @@
         <f>AVERAGE(AVERAGE(D12:D16)/4,AVERAGE(D18:D22)/4,AVERAGE(D24:D28)/4,D62)</f>
         <v>0.64057823129251701</v>
       </c>
-      <c r="G64" s="295"/>
+      <c r="G64" s="294"/>
     </row>
     <row r="65" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="G65" s="296"/>
+      <c r="G65" s="295"/>
     </row>
     <row r="66" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B66" s="54" t="s">

--- a/financial_models/Opportunities/0071.HK_Stock_Valuation.xlsx
+++ b/financial_models/Opportunities/0071.HK_Stock_Valuation.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26529"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26626"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jerry.chen\PycharmProjects\Invest_Proc\financial_models\Opportunities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E94B19E1-AB15-4649-AF9C-B4FC737B7103}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA96D221-4956-4A32-8B03-DEBEE0666354}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="448" uniqueCount="380">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="449" uniqueCount="381">
   <si>
     <t>Company Info:</t>
   </si>
@@ -1343,6 +1343,9 @@
   </si>
   <si>
     <t>MOS =</t>
+  </si>
+  <si>
+    <t>1. 不是港股通的一员，交易量低</t>
   </si>
 </sst>
 </file>
@@ -4340,6 +4343,170 @@
     <xf numFmtId="10" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="3" fontId="2" fillId="9" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="8" fontId="4" fillId="9" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="171" fontId="1" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="6" fontId="3" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="6" fontId="3" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="8" fontId="3" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="2" fillId="8" borderId="86" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="2" fillId="8" borderId="87" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="2" fillId="9" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="2" fillId="9" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="8" fontId="4" fillId="9" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="8" fontId="4" fillId="9" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="169" fontId="1" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="1" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="2" fillId="8" borderId="45" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="2" fillId="8" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="2" fillId="8" borderId="103" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="88" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="88" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="69" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="70" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="71" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="187" fontId="1" fillId="14" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="170" fontId="1" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="170" fontId="1" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="94" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="2" fillId="8" borderId="69" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="2" fillId="8" borderId="70" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="2" fillId="8" borderId="71" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="9" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="2" fillId="9" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="2" fillId="9" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="7" fillId="8" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="112" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="113" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="47" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="5" fillId="0" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="5" fillId="0" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="5" fillId="0" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="2" fillId="16" borderId="85" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="2" fillId="16" borderId="84" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="9" borderId="106" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -4388,174 +4555,10 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="12" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="171" fontId="1" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="6" fontId="3" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="8" fontId="3" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="12" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="12" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="12" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="12" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="2" fillId="9" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="2" fillId="9" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="2" fillId="9" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="7" fillId="8" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="112" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="113" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="88" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="88" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="2" fillId="9" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="2" fillId="9" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="5" fillId="0" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="5" fillId="0" borderId="47" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="5" fillId="0" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="5" fillId="0" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="5" fillId="0" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="69" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="70" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="71" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="10" fontId="2" fillId="16" borderId="85" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="2" fillId="16" borderId="84" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="2" fillId="8" borderId="86" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="2" fillId="8" borderId="87" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="8" fontId="4" fillId="9" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="8" fontId="4" fillId="9" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="169" fontId="1" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="168" fontId="1" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="2" fillId="8" borderId="45" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="2" fillId="8" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="2" fillId="8" borderId="103" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="187" fontId="1" fillId="14" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="170" fontId="1" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="170" fontId="1" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="94" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="2" fillId="8" borderId="69" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="2" fillId="8" borderId="70" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="2" fillId="8" borderId="71" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="1" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="2" fillId="9" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="8" fontId="4" fillId="9" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="6" fontId="3" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="66" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -5013,8 +5016,8 @@
   </sheetPr>
   <dimension ref="A1:L969"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G23" sqref="G23:J23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.453125" defaultRowHeight="15" customHeight="1"/>
@@ -5058,27 +5061,27 @@
       <c r="B3" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="419" t="s">
+      <c r="C3" s="432" t="s">
         <v>333</v>
       </c>
-      <c r="D3" s="420"/>
+      <c r="D3" s="433"/>
       <c r="E3" s="15"/>
       <c r="G3" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="I3" s="431" t="s">
+      <c r="I3" s="442" t="s">
         <v>3</v>
       </c>
-      <c r="J3" s="432"/>
+      <c r="J3" s="443"/>
     </row>
     <row r="4" spans="1:12" ht="15.75" customHeight="1">
       <c r="B4" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="421" t="s">
+      <c r="C4" s="434" t="s">
         <v>334</v>
       </c>
-      <c r="D4" s="422"/>
+      <c r="D4" s="435"/>
       <c r="E4" s="6"/>
       <c r="G4" s="5" t="s">
         <v>5</v>
@@ -5095,10 +5098,10 @@
       <c r="B5" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="C5" s="423">
+      <c r="C5" s="436">
         <v>44959</v>
       </c>
-      <c r="D5" s="422"/>
+      <c r="D5" s="435"/>
       <c r="E5" s="118" t="str">
         <f ca="1">IF(C5+30&gt;=TODAY(),"Patience Premium","")</f>
         <v/>
@@ -5106,10 +5109,10 @@
       <c r="G5" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="I5" s="433">
+      <c r="I5" s="407">
         <v>690960000</v>
       </c>
-      <c r="J5" s="434"/>
+      <c r="J5" s="408"/>
       <c r="K5" s="144"/>
       <c r="L5" s="83"/>
     </row>
@@ -5132,11 +5135,11 @@
         <v>9</v>
       </c>
       <c r="H6" s="126"/>
-      <c r="I6" s="435">
+      <c r="I6" s="444">
         <f>I4*I5/1000000</f>
         <v>7724.9327999999996</v>
       </c>
-      <c r="J6" s="436"/>
+      <c r="J6" s="445"/>
       <c r="K6" s="144"/>
     </row>
     <row r="7" spans="1:12" ht="15.75" customHeight="1">
@@ -5210,30 +5213,30 @@
       <c r="B11" s="280" t="s">
         <v>251</v>
       </c>
-      <c r="C11" s="450">
+      <c r="C11" s="405">
         <f ca="1">C12-D10</f>
         <v>2.3189999999999995E-2</v>
       </c>
-      <c r="D11" s="451"/>
+      <c r="D11" s="406"/>
       <c r="E11" s="13"/>
       <c r="G11" s="5" t="s">
         <v>15</v>
       </c>
       <c r="H11" s="6"/>
-      <c r="I11" s="448" t="s">
+      <c r="I11" s="454" t="s">
         <v>6</v>
       </c>
-      <c r="J11" s="449"/>
+      <c r="J11" s="455"/>
     </row>
     <row r="12" spans="1:12" ht="15.75" customHeight="1" thickTop="1">
       <c r="B12" s="281" t="s">
         <v>141</v>
       </c>
-      <c r="C12" s="446">
+      <c r="C12" s="452">
         <f ca="1">IF(C10="CN",8%,6%)*IF($C$5+30&gt;=TODAY(),1.2,1)</f>
         <v>0.06</v>
       </c>
-      <c r="D12" s="447"/>
+      <c r="D12" s="453"/>
       <c r="G12" s="127" t="s">
         <v>16</v>
       </c>
@@ -5301,28 +5304,28 @@
         <f>I4</f>
         <v>11.18</v>
       </c>
-      <c r="C16" s="467">
+      <c r="C16" s="428">
         <v>0.2</v>
       </c>
       <c r="D16" s="152">
         <f ca="1">I37/B16-(1+C16)</f>
         <v>-4.1288553521941829E-2</v>
       </c>
-      <c r="E16" s="440" t="s">
+      <c r="E16" s="419" t="s">
         <v>23</v>
       </c>
-      <c r="F16" s="437">
+      <c r="F16" s="446">
         <f>('Val Models'!G16)*Exchange_Rate</f>
         <v>7.5033709621396314</v>
       </c>
-      <c r="G16" s="440" t="s">
+      <c r="G16" s="419" t="s">
         <v>24</v>
       </c>
       <c r="H16" s="343">
         <f>B16-$F$16</f>
         <v>3.6766290378603683</v>
       </c>
-      <c r="I16" s="458">
+      <c r="I16" s="414">
         <f>0.28+0.21</f>
         <v>0.49</v>
       </c>
@@ -5336,19 +5339,19 @@
         <f ca="1">MIN((I37+I38)/2,E14,I37/(1+C16))</f>
         <v>10.795328309687243</v>
       </c>
-      <c r="C17" s="468"/>
+      <c r="C17" s="429"/>
       <c r="D17" s="260">
         <f ca="1">I37/B17-(1+C16)</f>
         <v>0</v>
       </c>
-      <c r="E17" s="441"/>
-      <c r="F17" s="438"/>
-      <c r="G17" s="441"/>
+      <c r="E17" s="420"/>
+      <c r="F17" s="447"/>
+      <c r="G17" s="420"/>
       <c r="H17" s="344">
         <f ca="1">B17-$F$16</f>
         <v>3.2919573475476112</v>
       </c>
-      <c r="I17" s="459"/>
+      <c r="I17" s="415"/>
       <c r="J17" s="155">
         <f ca="1">I16/B17</f>
         <v>4.5390004448525756E-2</v>
@@ -5359,19 +5362,19 @@
         <f>C37</f>
         <v>10.79</v>
       </c>
-      <c r="C18" s="469"/>
+      <c r="C18" s="430"/>
       <c r="D18" s="153">
         <f ca="1">I37/B18-(1+C16)</f>
         <v>5.9258309774712359E-4</v>
       </c>
-      <c r="E18" s="442"/>
-      <c r="F18" s="439"/>
-      <c r="G18" s="442"/>
+      <c r="E18" s="421"/>
+      <c r="F18" s="448"/>
+      <c r="G18" s="421"/>
       <c r="H18" s="345">
         <f>B18-$F$16</f>
         <v>3.2866290378603678</v>
       </c>
-      <c r="I18" s="460"/>
+      <c r="I18" s="416"/>
       <c r="J18" s="156">
         <f>I16/B18</f>
         <v>4.5412418906394809E-2</v>
@@ -5404,70 +5407,72 @@
       <c r="B21" s="24" t="s">
         <v>26</v>
       </c>
-      <c r="C21" s="426"/>
-      <c r="D21" s="427"/>
-      <c r="E21" s="427"/>
-      <c r="F21" s="427"/>
-      <c r="G21" s="427"/>
-      <c r="H21" s="427"/>
-      <c r="I21" s="427"/>
-      <c r="J21" s="428"/>
+      <c r="C21" s="439"/>
+      <c r="D21" s="440"/>
+      <c r="E21" s="440"/>
+      <c r="F21" s="440"/>
+      <c r="G21" s="440"/>
+      <c r="H21" s="440"/>
+      <c r="I21" s="440"/>
+      <c r="J21" s="441"/>
     </row>
     <row r="22" spans="1:10" ht="52.5" customHeight="1">
       <c r="A22" s="6"/>
       <c r="B22" s="24" t="s">
         <v>27</v>
       </c>
-      <c r="C22" s="444"/>
-      <c r="D22" s="445"/>
-      <c r="E22" s="445"/>
-      <c r="F22" s="445"/>
-      <c r="G22" s="444"/>
-      <c r="H22" s="444"/>
-      <c r="I22" s="445"/>
-      <c r="J22" s="445"/>
+      <c r="C22" s="450"/>
+      <c r="D22" s="451"/>
+      <c r="E22" s="451"/>
+      <c r="F22" s="451"/>
+      <c r="G22" s="450" t="s">
+        <v>380</v>
+      </c>
+      <c r="H22" s="450"/>
+      <c r="I22" s="451"/>
+      <c r="J22" s="451"/>
     </row>
     <row r="23" spans="1:10" ht="52.5" customHeight="1">
       <c r="A23" s="6"/>
       <c r="B23" s="24" t="s">
         <v>28</v>
       </c>
-      <c r="C23" s="429"/>
-      <c r="D23" s="430"/>
-      <c r="E23" s="430"/>
-      <c r="F23" s="430"/>
-      <c r="G23" s="429"/>
-      <c r="H23" s="429"/>
-      <c r="I23" s="430"/>
-      <c r="J23" s="430"/>
+      <c r="C23" s="417"/>
+      <c r="D23" s="418"/>
+      <c r="E23" s="418"/>
+      <c r="F23" s="418"/>
+      <c r="G23" s="417"/>
+      <c r="H23" s="417"/>
+      <c r="I23" s="418"/>
+      <c r="J23" s="418"/>
     </row>
     <row r="24" spans="1:10" ht="52.5" customHeight="1">
       <c r="A24" s="6"/>
       <c r="B24" s="24" t="s">
         <v>325</v>
       </c>
-      <c r="C24" s="394"/>
-      <c r="D24" s="395"/>
-      <c r="E24" s="395"/>
-      <c r="F24" s="395"/>
-      <c r="G24" s="395"/>
-      <c r="H24" s="395"/>
-      <c r="I24" s="395"/>
-      <c r="J24" s="396"/>
+      <c r="C24" s="456"/>
+      <c r="D24" s="457"/>
+      <c r="E24" s="457"/>
+      <c r="F24" s="457"/>
+      <c r="G24" s="457"/>
+      <c r="H24" s="457"/>
+      <c r="I24" s="457"/>
+      <c r="J24" s="458"/>
     </row>
     <row r="25" spans="1:10" ht="52.5" customHeight="1">
       <c r="A25" s="6"/>
       <c r="B25" s="350" t="s">
         <v>324</v>
       </c>
-      <c r="C25" s="397"/>
-      <c r="D25" s="398"/>
-      <c r="E25" s="398"/>
-      <c r="F25" s="398"/>
-      <c r="G25" s="398"/>
-      <c r="H25" s="398"/>
-      <c r="I25" s="398"/>
-      <c r="J25" s="399"/>
+      <c r="C25" s="459"/>
+      <c r="D25" s="460"/>
+      <c r="E25" s="460"/>
+      <c r="F25" s="460"/>
+      <c r="G25" s="460"/>
+      <c r="H25" s="460"/>
+      <c r="I25" s="460"/>
+      <c r="J25" s="461"/>
     </row>
     <row r="26" spans="1:10" ht="15.75" customHeight="1">
       <c r="B26" s="6"/>
@@ -5507,211 +5512,211 @@
       <c r="B28" s="23" t="s">
         <v>31</v>
       </c>
-      <c r="C28" s="424">
+      <c r="C28" s="437">
         <v>44988</v>
       </c>
-      <c r="D28" s="425"/>
-      <c r="E28" s="464" t="str">
+      <c r="D28" s="438"/>
+      <c r="E28" s="425" t="str">
         <f>IF(C28="","","Action_Planning")</f>
         <v>Action_Planning</v>
       </c>
-      <c r="F28" s="465"/>
-      <c r="G28" s="465"/>
-      <c r="H28" s="466"/>
-      <c r="I28" s="443" t="s">
+      <c r="F28" s="426"/>
+      <c r="G28" s="426"/>
+      <c r="H28" s="427"/>
+      <c r="I28" s="449" t="s">
         <v>32</v>
       </c>
-      <c r="J28" s="443"/>
+      <c r="J28" s="449"/>
     </row>
     <row r="29" spans="1:10" ht="15.75" customHeight="1">
       <c r="B29" s="23" t="s">
         <v>33</v>
       </c>
-      <c r="C29" s="457">
+      <c r="C29" s="413">
         <f>C33/D27</f>
         <v>5.4090909090909092E-2</v>
       </c>
-      <c r="D29" s="456"/>
-      <c r="E29" s="455">
+      <c r="D29" s="404"/>
+      <c r="E29" s="412">
         <f>E33/D27</f>
         <v>0.14713636363636362</v>
       </c>
-      <c r="F29" s="456"/>
-      <c r="G29" s="462">
+      <c r="F29" s="404"/>
+      <c r="G29" s="423">
         <f>G33/D27</f>
         <v>0</v>
       </c>
-      <c r="H29" s="463"/>
-      <c r="I29" s="461">
+      <c r="H29" s="424"/>
+      <c r="I29" s="422">
         <f>C29+E29+G29</f>
         <v>0.2012272727272727</v>
       </c>
-      <c r="J29" s="461"/>
+      <c r="J29" s="422"/>
     </row>
     <row r="30" spans="1:10" ht="15.75" customHeight="1">
       <c r="B30" s="23" t="s">
         <v>34</v>
       </c>
-      <c r="C30" s="471">
+      <c r="C30" s="394">
         <v>3000</v>
       </c>
-      <c r="D30" s="472"/>
-      <c r="E30" s="471">
+      <c r="D30" s="395"/>
+      <c r="E30" s="394">
         <v>9000</v>
       </c>
-      <c r="F30" s="472"/>
-      <c r="G30" s="433"/>
-      <c r="H30" s="434"/>
-      <c r="I30" s="470">
+      <c r="F30" s="395"/>
+      <c r="G30" s="407"/>
+      <c r="H30" s="408"/>
+      <c r="I30" s="431">
         <f>C30+E30+G30</f>
         <v>12000</v>
       </c>
-      <c r="J30" s="470"/>
+      <c r="J30" s="431"/>
     </row>
     <row r="31" spans="1:10" ht="15.75" customHeight="1">
       <c r="B31" s="23" t="s">
         <v>35</v>
       </c>
-      <c r="C31" s="473">
+      <c r="C31" s="396">
         <v>11.9</v>
       </c>
-      <c r="D31" s="472"/>
-      <c r="E31" s="473">
+      <c r="D31" s="395"/>
+      <c r="E31" s="396">
         <v>10.79</v>
       </c>
-      <c r="F31" s="472"/>
-      <c r="G31" s="453"/>
-      <c r="H31" s="454"/>
-      <c r="I31" s="452"/>
-      <c r="J31" s="452"/>
+      <c r="F31" s="395"/>
+      <c r="G31" s="410"/>
+      <c r="H31" s="411"/>
+      <c r="I31" s="409"/>
+      <c r="J31" s="409"/>
     </row>
     <row r="32" spans="1:10" ht="15.75" customHeight="1">
       <c r="B32" s="23" t="s">
         <v>36</v>
       </c>
-      <c r="C32" s="412">
+      <c r="C32" s="397">
         <f>C31*$I$5/1000000</f>
         <v>8222.4240000000009</v>
       </c>
-      <c r="D32" s="474"/>
-      <c r="E32" s="412">
+      <c r="D32" s="398"/>
+      <c r="E32" s="397">
         <f>E31*$I$5/1000000</f>
         <v>7455.4583999999986</v>
       </c>
-      <c r="F32" s="474"/>
-      <c r="G32" s="407">
+      <c r="F32" s="398"/>
+      <c r="G32" s="469">
         <f>G31*$I$5/1000000</f>
         <v>0</v>
       </c>
-      <c r="H32" s="408"/>
-      <c r="I32" s="411"/>
-      <c r="J32" s="411"/>
+      <c r="H32" s="470"/>
+      <c r="I32" s="473"/>
+      <c r="J32" s="473"/>
     </row>
     <row r="33" spans="2:11" ht="15.75" customHeight="1">
       <c r="B33" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="C33" s="475">
+      <c r="C33" s="399">
         <f>C30*C31</f>
         <v>35700</v>
       </c>
-      <c r="D33" s="476"/>
-      <c r="E33" s="413">
+      <c r="D33" s="400"/>
+      <c r="E33" s="401">
         <f>E30*E31</f>
         <v>97109.999999999985</v>
       </c>
-      <c r="F33" s="477"/>
-      <c r="G33" s="409">
+      <c r="F33" s="402"/>
+      <c r="G33" s="471">
         <f>G30*G31</f>
         <v>0</v>
       </c>
-      <c r="H33" s="410"/>
-      <c r="I33" s="413">
+      <c r="H33" s="472"/>
+      <c r="I33" s="401">
         <f>C33+E33+G33</f>
         <v>132810</v>
       </c>
-      <c r="J33" s="413"/>
+      <c r="J33" s="401"/>
     </row>
     <row r="34" spans="2:11" ht="15.75" customHeight="1">
       <c r="B34" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="C34" s="415"/>
-      <c r="D34" s="416"/>
-      <c r="E34" s="414">
+      <c r="C34" s="474"/>
+      <c r="D34" s="475"/>
+      <c r="E34" s="403">
         <f>IF(C33=0,"-",(C33+E33)/(C30+E30))</f>
         <v>11.067500000000001</v>
       </c>
-      <c r="F34" s="456"/>
+      <c r="F34" s="404"/>
       <c r="G34" s="113"/>
       <c r="H34" s="113"/>
-      <c r="I34" s="414">
+      <c r="I34" s="403">
         <f>IF(I33=0,"",I33/I30)</f>
         <v>11.067500000000001</v>
       </c>
-      <c r="J34" s="414"/>
+      <c r="J34" s="403"/>
     </row>
     <row r="35" spans="2:11" ht="15.75" customHeight="1">
       <c r="B35" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="C35" s="417"/>
-      <c r="D35" s="418"/>
-      <c r="E35" s="412">
+      <c r="C35" s="476"/>
+      <c r="D35" s="477"/>
+      <c r="E35" s="397">
         <f>IF(E34="-","-",E34*$I$5/1000000)</f>
         <v>7647.1998000000012</v>
       </c>
-      <c r="F35" s="474"/>
+      <c r="F35" s="398"/>
       <c r="G35" s="114"/>
       <c r="H35" s="114"/>
-      <c r="I35" s="412">
+      <c r="I35" s="397">
         <f>IF(I34="","",I34*$I$5/1000000)</f>
         <v>7647.1998000000012</v>
       </c>
-      <c r="J35" s="412"/>
+      <c r="J35" s="397"/>
     </row>
     <row r="36" spans="2:11" ht="15.75" customHeight="1"/>
     <row r="37" spans="2:11" ht="15.75" customHeight="1">
       <c r="B37" s="139" t="s">
         <v>281</v>
       </c>
-      <c r="C37" s="403">
+      <c r="C37" s="465">
         <f>E31</f>
         <v>10.79</v>
       </c>
-      <c r="D37" s="404"/>
+      <c r="D37" s="466"/>
       <c r="E37" s="149" t="str">
         <f ca="1">IF(C37&gt;B17,"Caution! &gt; Breakeven price!","")</f>
         <v/>
       </c>
-      <c r="G37" s="400" t="s">
+      <c r="G37" s="462" t="s">
         <v>372</v>
       </c>
-      <c r="H37" s="400"/>
-      <c r="I37" s="401">
+      <c r="H37" s="462"/>
+      <c r="I37" s="463">
         <f ca="1">'Val Models'!C48</f>
         <v>12.95439397162469</v>
       </c>
-      <c r="J37" s="402"/>
+      <c r="J37" s="464"/>
     </row>
     <row r="38" spans="2:11" ht="15.75" customHeight="1">
       <c r="B38" s="139" t="s">
         <v>312</v>
       </c>
-      <c r="C38" s="403">
+      <c r="C38" s="465">
         <f>E34</f>
         <v>11.067500000000001</v>
       </c>
-      <c r="D38" s="404"/>
-      <c r="G38" s="405" t="s">
+      <c r="D38" s="466"/>
+      <c r="G38" s="467" t="s">
         <v>310</v>
       </c>
-      <c r="H38" s="406"/>
-      <c r="I38" s="401">
+      <c r="H38" s="468"/>
+      <c r="I38" s="463">
         <f ca="1">'Val Models'!C49</f>
         <v>10.343479968966635</v>
       </c>
-      <c r="J38" s="402"/>
+      <c r="J38" s="464"/>
     </row>
     <row r="39" spans="2:11" ht="15.75" customHeight="1"/>
     <row r="40" spans="2:11" ht="15.75" customHeight="1">
@@ -6834,14 +6839,38 @@
     <row r="969" ht="15.75" customHeight="1"/>
   </sheetData>
   <mergeCells count="56">
-    <mergeCell ref="E30:F30"/>
-    <mergeCell ref="C31:D31"/>
-    <mergeCell ref="E35:F35"/>
-    <mergeCell ref="C33:D33"/>
-    <mergeCell ref="E33:F33"/>
-    <mergeCell ref="E34:F34"/>
-    <mergeCell ref="C32:D32"/>
-    <mergeCell ref="E32:F32"/>
+    <mergeCell ref="C24:J24"/>
+    <mergeCell ref="C25:J25"/>
+    <mergeCell ref="G37:H37"/>
+    <mergeCell ref="I37:J37"/>
+    <mergeCell ref="C38:D38"/>
+    <mergeCell ref="C37:D37"/>
+    <mergeCell ref="I38:J38"/>
+    <mergeCell ref="G38:H38"/>
+    <mergeCell ref="G32:H32"/>
+    <mergeCell ref="G33:H33"/>
+    <mergeCell ref="I32:J32"/>
+    <mergeCell ref="I35:J35"/>
+    <mergeCell ref="I33:J33"/>
+    <mergeCell ref="I34:J34"/>
+    <mergeCell ref="C34:D34"/>
+    <mergeCell ref="C35:D35"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="C28:D28"/>
+    <mergeCell ref="C21:J21"/>
+    <mergeCell ref="C23:F23"/>
+    <mergeCell ref="I3:J3"/>
+    <mergeCell ref="I5:J5"/>
+    <mergeCell ref="I6:J6"/>
+    <mergeCell ref="F16:F18"/>
+    <mergeCell ref="G16:G18"/>
+    <mergeCell ref="I28:J28"/>
+    <mergeCell ref="G22:J22"/>
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="I11:J11"/>
+    <mergeCell ref="C22:F22"/>
     <mergeCell ref="C11:D11"/>
     <mergeCell ref="G30:H30"/>
     <mergeCell ref="I31:J31"/>
@@ -6858,38 +6887,14 @@
     <mergeCell ref="I30:J30"/>
     <mergeCell ref="C30:D30"/>
     <mergeCell ref="E31:F31"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="C28:D28"/>
-    <mergeCell ref="C21:J21"/>
-    <mergeCell ref="C23:F23"/>
-    <mergeCell ref="I3:J3"/>
-    <mergeCell ref="I5:J5"/>
-    <mergeCell ref="I6:J6"/>
-    <mergeCell ref="F16:F18"/>
-    <mergeCell ref="G16:G18"/>
-    <mergeCell ref="I28:J28"/>
-    <mergeCell ref="G22:J22"/>
-    <mergeCell ref="C12:D12"/>
-    <mergeCell ref="I11:J11"/>
-    <mergeCell ref="C22:F22"/>
-    <mergeCell ref="C24:J24"/>
-    <mergeCell ref="C25:J25"/>
-    <mergeCell ref="G37:H37"/>
-    <mergeCell ref="I37:J37"/>
-    <mergeCell ref="C38:D38"/>
-    <mergeCell ref="C37:D37"/>
-    <mergeCell ref="I38:J38"/>
-    <mergeCell ref="G38:H38"/>
-    <mergeCell ref="G32:H32"/>
-    <mergeCell ref="G33:H33"/>
-    <mergeCell ref="I32:J32"/>
-    <mergeCell ref="I35:J35"/>
-    <mergeCell ref="I33:J33"/>
-    <mergeCell ref="I34:J34"/>
-    <mergeCell ref="C34:D34"/>
-    <mergeCell ref="C35:D35"/>
+    <mergeCell ref="E30:F30"/>
+    <mergeCell ref="C31:D31"/>
+    <mergeCell ref="E35:F35"/>
+    <mergeCell ref="C33:D33"/>
+    <mergeCell ref="E33:F33"/>
+    <mergeCell ref="E34:F34"/>
+    <mergeCell ref="C32:D32"/>
+    <mergeCell ref="E32:F32"/>
   </mergeCells>
   <phoneticPr fontId="31" type="noConversion"/>
   <conditionalFormatting sqref="B16">
@@ -11463,7 +11468,7 @@
         <f>SUM(I11:I13)+SUM(I28:I30)</f>
         <v>99060</v>
       </c>
-      <c r="E53" s="476"/>
+      <c r="E53" s="400"/>
       <c r="F53" s="5"/>
       <c r="G53" s="5"/>
       <c r="H53" s="3" t="s">
@@ -11482,7 +11487,7 @@
       <c r="D54" s="488">
         <v>0</v>
       </c>
-      <c r="E54" s="472"/>
+      <c r="E54" s="395"/>
       <c r="F54" s="6" t="s">
         <v>128</v>
       </c>
@@ -11496,7 +11501,7 @@
       <c r="D55" s="488">
         <v>0</v>
       </c>
-      <c r="E55" s="472"/>
+      <c r="E55" s="395"/>
       <c r="F55" s="5" t="s">
         <v>129</v>
       </c>
